--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3AAC1B-1323-AE47-8DC1-E76973179424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D9FD2-98F2-D848-93B9-AB6E4B076D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="4380" windowWidth="28800" windowHeight="17500" activeTab="10" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="11880" yWindow="29300" windowWidth="28800" windowHeight="17500" activeTab="10" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="131">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -85,9 +85,6 @@
     <t>SimaPro (median, min-max for different truck sizes)</t>
   </si>
   <si>
-    <t>ea</t>
-  </si>
-  <si>
     <t>ElectricMotor</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>HT&amp;HC catalyst</t>
   </si>
   <si>
-    <t>emission</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>market for seawater reverse osmosis module</t>
   </si>
   <si>
-    <t>convert to 5%</t>
-  </si>
-  <si>
     <t>market for sulfuric acid</t>
   </si>
   <si>
@@ -350,6 +341,102 @@
   </si>
   <si>
     <t>market group for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>calculated based on SS 2016 Life cycle greenhouse gas emissions analysis of catalysts for hydrotreating of fast pyrolysis bio-oil</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>deionized water</t>
+  </si>
+  <si>
+    <t>H3PO4</t>
+  </si>
+  <si>
+    <t>MoO3</t>
+  </si>
+  <si>
+    <t>CoO</t>
+  </si>
+  <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>activated carbon</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>market for aluminium oxide, non-metallurgical</t>
+  </si>
+  <si>
+    <t>market for water, deionised</t>
+  </si>
+  <si>
+    <t>purification of wet-process phosphoric acid to industrial grade, product in 85% solution state</t>
+  </si>
+  <si>
+    <t>molybdenum trioxide production</t>
+  </si>
+  <si>
+    <t>market for cobalt oxide</t>
+  </si>
+  <si>
+    <t>market for sulfur</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>market for chlorine, gaseous</t>
+  </si>
+  <si>
+    <t>market for rhodium</t>
+  </si>
+  <si>
+    <t>market for activated carbon, granular</t>
+  </si>
+  <si>
+    <t>market group for diesel</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>market for heat, from steam, in chemical industry</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>market for cooling energy</t>
+  </si>
+  <si>
+    <t>natural gas, burned in micro gas turbine</t>
+  </si>
+  <si>
+    <t>diluted to 5% using deionized water</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>liquid/if used, account for  CO2 emission here, add to GWP only, MW of natural gas is 19 (1 C): https://www.engineeringtoolbox.com/molecular-weight-gas-vapor-d_1156.html (accessed 12-2-2022)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,6 +522,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,19 +839,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="110" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="201.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -773,252 +863,261 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,86 +1125,309 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,10 +1463,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*2913900000</f>
@@ -1167,10 +1489,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <f>3196.2/2500</f>
@@ -1193,10 +1515,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <f>1215800/300</f>
@@ -1219,10 +1541,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>164.73</v>
@@ -1244,10 +1566,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>25.210999999999999</v>
@@ -1269,10 +1591,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>24.747</v>
@@ -1294,10 +1616,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>31.8</v>
@@ -1319,22 +1641,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
-        <f>33.458/20</f>
-        <v>1.6728999999999998</v>
+        <f>33.458/20+19/20*C24</f>
+        <v>1.6823781499999999</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>1.5056099999999999</v>
+        <v>1.514140335</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>1.84019</v>
+        <v>1.850615965</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -1345,10 +1667,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>8.6915999999999993</v>
@@ -1370,10 +1692,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>8.5686999999999998</v>
@@ -1395,10 +1717,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>461.54</v>
@@ -1420,10 +1742,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <v>13.228</v>
@@ -1445,10 +1767,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>14.85</v>
@@ -1470,21 +1792,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <f>9.5931*115.03/245.41</f>
         <v>4.4965335275661138</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*0.9</f>
+        <f t="shared" ref="D15:D16" si="6">C15*0.9</f>
         <v>4.0468801748095027</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*1.1</f>
+        <f t="shared" ref="E15:E16" si="7">C15*1.1</f>
         <v>4.9461868803227258</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1496,20 +1818,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
         <v>62.932000000000002</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.9</f>
+        <f t="shared" si="6"/>
         <v>56.638800000000003</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*1.1</f>
+        <f t="shared" si="7"/>
         <v>69.225200000000001</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1521,19 +1843,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.3413000000000004</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>3.9071700000000003</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>4.775430000000001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -1547,16 +1871,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.1274000000000002</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>1.9146600000000003</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>2.3401400000000003</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -1567,21 +1893,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>4.3413000000000004</v>
+        <v>2.9281000000000001</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>3.9071700000000003</v>
+        <v>2.6352900000000004</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>4.775430000000001</v>
+        <v>3.2209100000000004</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -1592,19 +1918,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>27306.372319349357</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>24575.735087414421</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>30037.009551284296</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -1615,21 +1944,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>2.1274000000000002</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>369.79168803089993</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.9146600000000003</v>
+        <v>332.81251922780996</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>2.3401400000000003</v>
+        <v>406.77085683398997</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -1637,31 +1967,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14.368</v>
+      </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D38" si="8">C23*0.9</f>
+        <v>12.9312</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*1.1</f>
-        <v>0</v>
+        <f t="shared" ref="E23:E38" si="9">C23*1.1</f>
+        <v>15.804800000000002</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -1672,19 +1995,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.9769999999999998E-3</v>
+      </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>8.9793000000000008E-3</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.09747E-2</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -1695,19 +2020,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>61.475000000000001</v>
+      </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>55.327500000000001</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>67.622500000000002</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -1717,40 +2044,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>629.38</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>566.44200000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="9"/>
+        <v>692.3180000000001</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3167.2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>2850.48</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="9"/>
+        <v>3483.92</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.2511000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="8"/>
+        <v>1.12599</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3762100000000002</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.5686999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>7.71183</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="9"/>
+        <v>9.4255700000000004</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.9281000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6352900000000004</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2209100000000004</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17.436</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>15.692400000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="9"/>
+        <v>19.179600000000001</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4638900</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>4175010</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="9"/>
+        <v>5102790</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.4166000000000007</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5749400000000007</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2582600000000017</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.4612000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.31508</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6073200000000001</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.46216000000000002</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.41594400000000004</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50837600000000005</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.29720999999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26748899999999998</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="9"/>
+        <v>0.32693099999999997</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.30595</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.27535500000000002</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33654500000000004</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.1274000000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9146600000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3401400000000003</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1760,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,10 +2417,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*157380</f>
@@ -1815,7 +2431,7 @@
         <v>2.4101462545071508E-3</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E23" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E14" si="1">C2*1.1</f>
         <v>2.9457343110642956E-3</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1827,10 +2443,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <f>0.1933/2500</f>
@@ -1853,10 +2469,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <f>47.312/300</f>
@@ -1879,10 +2495,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>1.6851000000000001E-2</v>
@@ -1904,10 +2520,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>3.1905000000000002E-3</v>
@@ -1929,10 +2545,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>3.2198999999999999E-3</v>
@@ -1954,16 +2570,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>2.8777999999999998E-3</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D4:D23" si="3">C8*0.9</f>
+        <f t="shared" ref="D8:D14" si="3">C8*0.9</f>
         <v>2.5900199999999997E-3</v>
       </c>
       <c r="E8" s="2">
@@ -1979,22 +2595,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2">
-        <f>0.001868/20</f>
-        <v>9.3400000000000007E-5</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="11">
+        <f>0.001868/20+19/20*C24</f>
+        <v>9.405486350000001E-5</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="3"/>
-        <v>8.4060000000000005E-5</v>
+        <v>8.4649377150000014E-5</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>1.0274000000000002E-4</v>
+        <v>1.0346034985000002E-4</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -2005,10 +2621,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
         <v>4.385E-3</v>
@@ -2030,10 +2646,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>3.6698E-3</v>
@@ -2055,10 +2671,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>8.7549999999999998E-4</v>
@@ -2080,10 +2696,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
         <v>2.4543E-3</v>
@@ -2105,10 +2721,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
         <v>1.8387E-3</v>
@@ -2130,21 +2746,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <f>0.0013177*115.03/245.41</f>
         <v>6.1763999429526105E-4</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*0.9</f>
+        <f t="shared" ref="D15:D16" si="4">C15*0.9</f>
         <v>5.5587599486573499E-4</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*1.1</f>
+        <f t="shared" ref="E15:E16" si="5">C15*1.1</f>
         <v>6.7940399372478722E-4</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2156,20 +2772,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2">
         <v>3.1315000000000002E-3</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.9</f>
+        <f t="shared" si="4"/>
         <v>2.8183500000000003E-3</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*1.1</f>
+        <f t="shared" si="5"/>
         <v>3.4446500000000005E-3</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2181,19 +2797,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.8979000000000004E-4</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>4.4081100000000005E-4</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>5.3876900000000014E-4</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -2207,16 +2825,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.3397999999999999E-3</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>1.20582E-3</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>1.4737800000000001E-3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -2227,21 +2847,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>4.8979000000000004E-4</v>
+        <v>1.1096000000000001E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>4.4081100000000005E-4</v>
+        <v>9.9864000000000007E-4</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>5.3876900000000014E-4</v>
+        <v>1.2205600000000001E-3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -2252,19 +2872,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>3.5171845258375174</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>3.1654660732537656</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>3.8689029784212696</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -2275,21 +2898,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
-        <v>1.3397999999999999E-3</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>2.0809293373641003E-2</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.20582E-3</v>
+        <v>1.8728364036276902E-2</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.4737800000000001E-3</v>
+        <v>2.2890222711005104E-2</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -2297,31 +2921,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.7805E-3</v>
+      </c>
       <c r="D23" s="2">
         <f>C23*0.9</f>
-        <v>0</v>
+        <v>2.5024500000000002E-3</v>
       </c>
       <c r="E23" s="2">
         <f>C23*1.1</f>
-        <v>0</v>
+        <v>3.0585500000000002E-3</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -2332,19 +2949,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6.8932999999999999E-7</v>
+      </c>
       <c r="D24" s="2">
         <f>C24*0.9</f>
-        <v>0</v>
+        <v>6.2039700000000005E-7</v>
       </c>
       <c r="E24" s="2">
         <f>C24*1.1</f>
-        <v>0</v>
+        <v>7.5826300000000004E-7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -2355,19 +2974,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.4926000000000002E-3</v>
+      </c>
       <c r="D25" s="2">
         <f>C25*0.9</f>
-        <v>0</v>
+        <v>4.0433400000000003E-3</v>
       </c>
       <c r="E25" s="2">
         <f>C25*1.1</f>
-        <v>0</v>
+        <v>4.941860000000001E-3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -2377,44 +2998,334 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.9407000000000001E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*0.9</f>
+        <v>5.3466300000000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*1.1</f>
+        <v>6.5347700000000009E-2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9.9498000000000003E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27*0.9</f>
+        <v>8.9548200000000008E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*1.1</f>
+        <v>0.10944780000000001</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.2545E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28*0.9</f>
+        <v>2.0290500000000001E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C28*1.1</f>
+        <v>2.4799500000000003E-3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.6698E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f>C29*0.9</f>
+        <v>3.3028200000000001E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <f>C29*1.1</f>
+        <v>4.0367800000000002E-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.1096000000000001E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <f>C30*0.9</f>
+        <v>9.9864000000000007E-4</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30*1.1</f>
+        <v>1.2205600000000001E-3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.8919000000000002E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31*0.9</f>
+        <v>4.4027100000000007E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f>C31*1.1</f>
+        <v>5.3810900000000007E-3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>597.08000000000004</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32*0.9</f>
+        <v>537.37200000000007</v>
+      </c>
+      <c r="E32" s="2">
+        <f>C32*1.1</f>
+        <v>656.78800000000012</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.9113999999999999E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33*0.9</f>
+        <v>1.7202599999999999E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*1.1</f>
+        <v>2.10254E-3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8.4699000000000005E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <f>C34*0.9</f>
+        <v>7.6229100000000001E-4</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*1.1</f>
+        <v>9.3168900000000008E-4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5.0587999999999997E-5</v>
+      </c>
+      <c r="D35" s="2">
+        <f>C35*0.9</f>
+        <v>4.5529199999999998E-5</v>
+      </c>
+      <c r="E35" s="2">
+        <f>C35*1.1</f>
+        <v>5.5646800000000004E-5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2.9870999999999999E-5</v>
+      </c>
+      <c r="D36" s="2">
+        <f>C36*0.9</f>
+        <v>2.6883899999999999E-5</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36*1.1</f>
+        <v>3.2858100000000003E-5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="11">
+        <v>9.5338000000000001E-5</v>
+      </c>
+      <c r="D37" s="2">
+        <f>C37*0.9</f>
+        <v>8.5804200000000008E-5</v>
+      </c>
+      <c r="E37" s="2">
+        <f>C37*1.1</f>
+        <v>1.0487180000000001E-4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.3397999999999999E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>1.20582E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>1.4737800000000001E-3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2459,7 +3370,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -2482,7 +3393,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -2505,7 +3416,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2528,7 +3439,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -2551,7 +3462,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -2574,7 +3485,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -2597,7 +3508,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -2620,7 +3531,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -2643,7 +3554,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -2669,7 +3580,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2692,7 +3603,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -2715,7 +3626,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -2738,7 +3649,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -2761,7 +3672,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -2787,7 +3698,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -2810,7 +3721,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -2837,7 +3748,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -2860,7 +3771,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -2883,7 +3794,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -2906,7 +3817,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2929,7 +3840,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -2952,7 +3863,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -2975,7 +3886,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -2998,7 +3909,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -3023,7 +3934,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -3048,7 +3959,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -3078,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A9" zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3119,21 +4030,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*26843000</f>
         <v>0.45675404124296071</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D15" si="0">C2*0.9</f>
+        <f t="shared" ref="D2:D13" si="0">C2*0.9</f>
         <v>0.41107863711866466</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E15" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E13" si="1">C2*1.1</f>
         <v>0.50242944536725687</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3145,10 +4056,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <f>48.766/2500</f>
@@ -3171,10 +4082,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <f>8314.3/300</f>
@@ -3197,10 +4108,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>1.2979000000000001</v>
@@ -3222,10 +4133,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>0.40516999999999997</v>
@@ -3247,10 +4158,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>0.41316999999999998</v>
@@ -3272,10 +4183,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>0.53532999999999997</v>
@@ -3297,22 +4208,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
-        <f>0.39136/20</f>
-        <v>1.9567999999999999E-2</v>
+        <f>0.39136/20+19/20*C24</f>
+        <v>1.9678921999999998E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.76112E-2</v>
+        <v>1.77110298E-2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>2.15248E-2</v>
+        <v>2.16468142E-2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -3323,10 +4234,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>0.77015999999999996</v>
@@ -3348,10 +4259,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>0.81013999999999997</v>
@@ -3373,10 +4284,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>0.12584000000000001</v>
@@ -3398,10 +4309,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>0.33656000000000003</v>
@@ -3423,10 +4334,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>0.34682000000000002</v>
@@ -3448,10 +4359,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
         <f>0.26205*115.03/245.41</f>
@@ -3474,10 +4385,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>0.72916999999999998</v>
@@ -3499,18 +4410,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.1032</v>
       </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>9.2880000000000004E-2</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>0.11352000000000001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -3524,15 +4438,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.158</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -3543,21 +4460,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>0.1032</v>
+        <v>0.25163999999999997</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>9.2880000000000004E-2</v>
+        <f t="shared" ref="D19" si="6">C19*0.9</f>
+        <v>0.22647599999999998</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>0.11352000000000001</v>
+        <f t="shared" ref="E19" si="7">C19*1.1</f>
+        <v>0.27680399999999999</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -3568,18 +4485,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>991.65441961282067</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>892.48897765153868</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>1090.8198615741028</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -3590,21 +4511,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>0.158</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>4.0564012825520006</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>0.14219999999999999</v>
+        <v>3.6507611542968008</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>0.17380000000000001</v>
+        <v>4.4620414108072008</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -3612,24 +4534,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.59950999999999999</v>
       </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
+        <v>0.53955900000000001</v>
       </c>
       <c r="E23" s="2">
         <f>C23*1.1</f>
-        <v>0</v>
+        <v>0.65946100000000007</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -3640,18 +4562,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.1676E-4</v>
       </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.05084E-4</v>
       </c>
       <c r="E24" s="2">
         <f>C24*1.1</f>
-        <v>0</v>
+        <v>1.28436E-4</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -3662,18 +4587,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.87048999999999999</v>
       </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.78344100000000005</v>
       </c>
       <c r="E25" s="2">
         <f>C25*1.1</f>
-        <v>0</v>
+        <v>0.95753900000000003</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -3683,16 +4611,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10.629</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>9.5661000000000005</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*1.1</f>
+        <v>11.6919</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2">
+        <v>19.785</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>17.8065</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*1.1</f>
+        <v>21.763500000000001</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.47893999999999998</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="8"/>
+        <v>0.43104599999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C28*1.1</f>
+        <v>0.52683400000000002</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.81013999999999997</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>0.72912599999999994</v>
+      </c>
+      <c r="E29" s="2">
+        <f>C29*1.1</f>
+        <v>0.891154</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.25163999999999997</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>0.22647599999999998</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30*1.1</f>
+        <v>0.27680399999999999</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.99434</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.89490599999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <f>C31*1.1</f>
+        <v>1.093774</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2">
+        <v>168410</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>151569</v>
+      </c>
+      <c r="E32" s="2">
+        <f>C32*1.1</f>
+        <v>185251.00000000003</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.24282000000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21853800000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*1.1</f>
+        <v>0.26710200000000001</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.8525000000000001E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>8.8672500000000001E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*1.1</f>
+        <v>0.10837750000000002</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8.2527999999999994E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>7.42752E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:E37" si="9">C35*1.1</f>
+        <v>9.0780800000000005E-3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8.5990000000000007E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>7.7391000000000005E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="9"/>
+        <v>9.458900000000001E-3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.0161999999999999E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>1.81458E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2178200000000002E-2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3702,10 +4943,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3741,10 +4982,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*147170000</f>
@@ -3767,10 +5008,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <f>122.09/2500</f>
@@ -3793,10 +5034,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <f>57485/300</f>
@@ -3819,10 +5060,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>7.2035999999999998</v>
@@ -3844,10 +5085,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>2.0272000000000001</v>
@@ -3869,10 +5110,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
         <v>1.7265999999999999</v>
@@ -3894,10 +5135,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>0.90847999999999995</v>
@@ -3919,22 +5160,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <f>1.3029/20</f>
-        <v>6.5144999999999995E-2</v>
+        <f>1.3029/20+19/20*C24</f>
+        <v>6.9909344999999998E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>5.8630499999999995E-2</v>
+        <v>6.2918410499999994E-2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>7.1659500000000001E-2</v>
+        <v>7.6900279500000002E-2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -3945,10 +5186,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>0.97877999999999998</v>
@@ -3970,10 +5211,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>0.42747000000000002</v>
@@ -3995,10 +5236,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>2.7949000000000002</v>
@@ -4020,10 +5261,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>0.77271999999999996</v>
@@ -4045,10 +5286,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>0.90305000000000002</v>
@@ -4070,10 +5311,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <f>0.57519*115.03/245.41</f>
@@ -4096,10 +5337,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>3.4746000000000001</v>
@@ -4121,19 +5362,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.1071</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>9.6390000000000003E-2</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>0.11781000000000001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -4147,16 +5390,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.26663999999999999</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>0.23997599999999999</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>0.29330400000000001</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -4167,21 +5412,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>0.1071</v>
+        <v>0.18748000000000001</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>9.6390000000000003E-2</v>
+        <f t="shared" ref="D19" si="4">C19*0.9</f>
+        <v>0.16873200000000002</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>0.11781000000000001</v>
+        <f t="shared" ref="E19" si="5">C19*1.1</f>
+        <v>0.20622800000000002</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -4192,19 +5437,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>15371.082923819398</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>13833.974631437459</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>16908.19121620134</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -4215,21 +5463,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>0.26663999999999999</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>50.269262735110004</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>0.23997599999999999</v>
+        <v>45.242336461599002</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>0.29330400000000001</v>
+        <v>55.296189008621006</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -4237,31 +5486,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7233000000000001</v>
+      </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D37" si="6">C23*0.9</f>
+        <v>1.5509700000000002</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*1.1</f>
-        <v>0</v>
+        <f t="shared" ref="E23:E37" si="7">C23*1.1</f>
+        <v>1.8956300000000001</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -4272,19 +5514,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.0150999999999998E-3</v>
+      </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.5135899999999996E-3</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*1.1</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.5166099999999999E-3</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -4295,19 +5539,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.5164</v>
+      </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.2647599999999999</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*1.1</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.7680400000000001</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -4317,40 +5563,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>303.18</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>272.86200000000002</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="7"/>
+        <v>333.49800000000005</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>85.906000000000006</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>77.315400000000011</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="7"/>
+        <v>94.496600000000015</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.8032000000000001E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5228800000000003E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0835200000000004E-2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.42747000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.38472300000000004</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.47021700000000005</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.18748000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16873200000000002</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20622800000000002</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.0363000000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7326700000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3399300000000007</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2612400</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>2351160</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="7"/>
+        <v>2873640</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.57521</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51768900000000007</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="7"/>
+        <v>0.63273100000000004</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.1681</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15129000000000001</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18491000000000002</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.5760999999999999E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3184900000000001E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="7"/>
+        <v>2.83371E-2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7.0098000000000001E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="6"/>
+        <v>6.3088200000000006E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>7.7107800000000004E-3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5.0719E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="6"/>
+        <v>4.5647100000000003E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5790900000000004E-2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.26663999999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>0.23997599999999999</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>0.29330400000000001</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4360,10 +5895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4400,10 +5935,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*27759</f>
@@ -4426,10 +5961,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <f>0.060329/2500</f>
@@ -4452,10 +5987,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <f>4.2712/300</f>
@@ -4478,10 +6013,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>8.3217999999999996E-4</v>
@@ -4503,10 +6038,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>6.0428999999999995E-4</v>
@@ -4528,10 +6063,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>4.8310999999999997E-4</v>
@@ -4553,10 +6088,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>2.8322E-3</v>
@@ -4578,22 +6113,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
-        <f>0.000079544/20</f>
-        <v>3.9771999999999998E-6</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="11">
+        <f>0.000079544/20+19/20*C24</f>
+        <v>4.0466411999999999E-6</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>3.5794800000000001E-6</v>
+        <v>3.6419770799999999E-6</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>4.3749199999999999E-6</v>
+        <v>4.4513053199999999E-6</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -4604,10 +6139,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>3.9766999999999998E-4</v>
@@ -4629,10 +6164,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>2.9415000000000001E-3</v>
@@ -4654,10 +6189,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>6.3606999999999997E-4</v>
@@ -4679,10 +6214,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>3.2907999999999999E-4</v>
@@ -4704,10 +6239,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>4.7381000000000003E-3</v>
@@ -4729,10 +6264,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <f>0.00037325*115.03/245.41</f>
@@ -4755,20 +6290,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>2.4632999999999999E-3</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.9</f>
+        <f t="shared" ref="D16" si="8">C16*0.9</f>
         <v>2.21697E-3</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*1.1</f>
+        <f t="shared" ref="E16" si="9">C16*1.1</f>
         <v>2.7096300000000002E-3</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -4780,19 +6315,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="11">
+        <v>7.8700000000000002E-5</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>7.0829999999999998E-5</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>8.6570000000000006E-5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -4806,16 +6343,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>9.4215000000000005E-5</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>8.4793500000000007E-5</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>1.0363650000000002E-4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -4826,21 +6365,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11">
-        <v>7.8700000000000002E-5</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0547E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>7.0829999999999998E-5</v>
+        <v>9.4923000000000002E-4</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>8.6570000000000006E-5</v>
+        <v>1.1601700000000001E-3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -4851,19 +6390,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>0.45019348021710359</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>0.40517413219539322</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>0.49521282823881402</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -4874,21 +6416,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11">
-        <v>9.4215000000000005E-5</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>5.7592737821191998E-3</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>8.4793500000000007E-5</v>
+        <v>5.1833464039072802E-3</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.0363650000000002E-4</v>
+        <v>6.3352011603311203E-3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -4908,19 +6451,21 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.2278999999999998E-4</v>
+      </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>3.8051099999999999E-4</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*1.1</f>
-        <v>0</v>
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>4.6506900000000003E-4</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -4931,19 +6476,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7.3095999999999995E-8</v>
+      </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>6.5786399999999999E-8</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*1.1</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>8.0405600000000004E-8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -4954,19 +6501,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.6304999999999999E-4</v>
+      </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5.9674499999999998E-4</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*1.1</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7.29355E-4</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -4976,40 +6525,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.8753E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="10"/>
+        <v>7.0877700000000002E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="11"/>
+        <v>8.6628300000000016E-3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.4404999999999998E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="10"/>
+        <v>3.0964499999999999E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="11"/>
+        <v>3.7845500000000004E-2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4.1992E-5</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="10"/>
+        <v>3.7792800000000002E-5</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="11"/>
+        <v>4.6191200000000006E-5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.9415000000000001E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="10"/>
+        <v>2.6473500000000001E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="11"/>
+        <v>3.2356500000000005E-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0547E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="10"/>
+        <v>9.4923000000000002E-4</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1601700000000001E-3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.2365000000000002E-4</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="10"/>
+        <v>3.8128500000000003E-4</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="11"/>
+        <v>4.6601500000000007E-4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2">
+        <v>76.453999999999994</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="10"/>
+        <v>68.808599999999998</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="11"/>
+        <v>84.099400000000003</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.285E-4</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="10"/>
+        <v>2.0565000000000001E-4</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5135000000000001E-4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11">
+        <v>6.1297999999999995E-5</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="10"/>
+        <v>5.5168199999999998E-5</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="11"/>
+        <v>6.7427800000000005E-5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5.9869999999999996E-6</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="10"/>
+        <v>5.3882999999999997E-6</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5857000000000003E-6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="11">
+        <v>7.4703999999999997E-6</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="10"/>
+        <v>6.7233599999999996E-6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2174399999999997E-6</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.5750999999999999E-5</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4175899999999999E-5</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="11"/>
+        <v>1.73261E-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="11">
+        <v>9.4215000000000005E-5</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="10"/>
+        <v>8.4793500000000007E-5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0363650000000002E-4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5019,10 +6857,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5058,7 +6896,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -5083,7 +6921,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -5109,7 +6947,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -5135,7 +6973,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -5160,7 +6998,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -5185,7 +7023,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5210,7 +7048,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -5235,22 +7073,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <f>0.15837/20</f>
-        <v>7.9185000000000002E-3</v>
+        <f>0.15837/20+19/20*C24</f>
+        <v>8.2056660000000003E-3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>7.12665E-3</v>
+        <v>7.3850994000000001E-3</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>8.7103500000000004E-3</v>
+        <v>9.0262326000000014E-3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -5261,7 +7099,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -5286,7 +7124,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -5311,7 +7149,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -5336,7 +7174,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -5361,7 +7199,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -5386,7 +7224,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -5412,7 +7250,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -5437,19 +7275,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <f>0.43913+1/19*44</f>
+        <v>2.7549194736842106</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>2.4794275263157894</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>3.0304114210526318</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -5465,14 +7306,16 @@
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>0.67847999999999997</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>0.61063199999999995</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>0.74632799999999999</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -5483,21 +7326,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>0.43913000000000002</v>
+        <v>0.47693999999999998</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>0.39521700000000004</v>
+        <v>0.42924599999999996</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>0.48304300000000006</v>
+        <v>0.52463400000000004</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -5508,19 +7351,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>484.7862509286262</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>436.30762583576359</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>533.26487602148882</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -5531,21 +7377,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>0.67847999999999997</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>6.3758782313560003</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>0.61063199999999995</v>
+        <v>5.7382904082204007</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>0.74632799999999999</v>
+        <v>7.0134660544916008</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -5553,31 +7400,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>1.5975999999999999</v>
+      </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
+        <v>1.43784</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*1.1</f>
-        <v>0</v>
+        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
+        <v>1.75736</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -5588,19 +7428,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>3.0227999999999999E-4</v>
+      </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2.72052E-4</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.3250800000000002E-4</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -5611,19 +7453,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>1.3290999999999999</v>
+      </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.1961900000000001</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.46201</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -5633,40 +7477,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.9394999999999998</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>7.1455500000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7334500000000013</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>31.053000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>27.947700000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="9"/>
+        <v>34.158300000000004</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.12414</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="8"/>
+        <v>0.11172600000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.13655400000000001</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.5624</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4061600000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7186400000000002</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.47693999999999998</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42924599999999996</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="9"/>
+        <v>0.52463400000000004</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.9998</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6998199999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2997800000000002</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2">
+        <v>81893</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>73703.7</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="9"/>
+        <v>90082.3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.94164000000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>0.84747600000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0358040000000002</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.41977999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>0.37780199999999997</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="9"/>
+        <v>0.461758</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.6032999999999994E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9429699999999995E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="9"/>
+        <v>7.2636300000000001E-2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.14996999999999999</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13497300000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="9"/>
+        <v>0.164967</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.11946</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.107514</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="9"/>
+        <v>0.131406</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.67847999999999997</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>0.61063199999999995</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>0.74632799999999999</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5676,10 +7809,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5716,10 +7849,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*4.2208</f>
@@ -5742,10 +7875,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="11">
         <f>0.000015044/2500</f>
@@ -5768,10 +7901,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <f>0.00077645/300</f>
@@ -5794,10 +7927,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="11">
         <v>1.9641E-7</v>
@@ -5819,10 +7952,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="11">
         <v>8.7602999999999994E-8</v>
@@ -5844,10 +7977,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="11">
         <v>1.0173E-7</v>
@@ -5869,10 +8002,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11">
         <v>2.5540999999999998E-7</v>
@@ -5894,22 +8027,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <f>0.000000014828/20</f>
-        <v>7.4140000000000005E-10</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
+        <f>0.000000014828/20+19/20*C24</f>
+        <v>8.9441650000000002E-10</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>6.6726000000000003E-10</v>
+        <v>8.0497485000000006E-10</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>8.1554000000000016E-10</v>
+        <v>9.8385815000000019E-10</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -5920,10 +8053,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11">
         <v>4.9409999999999997E-8</v>
@@ -5945,10 +8078,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="11">
         <v>1.801E-6</v>
@@ -5970,10 +8103,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="11">
         <v>1.5364000000000001E-8</v>
@@ -5995,10 +8128,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="11">
         <v>7.8932000000000003E-7</v>
@@ -6020,10 +8153,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="11">
         <v>9.2182999999999999E-8</v>
@@ -6045,10 +8178,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2">
         <f>0.000000048973*115.03/245.41</f>
@@ -6071,10 +8204,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11">
         <v>6.1237999999999996E-8</v>
@@ -6096,19 +8229,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.1717999999999999E-7</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>1.9546200000000001E-7</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>2.38898E-7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -6122,16 +8257,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.0158000000000001E-8</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>1.8142200000000002E-8</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>2.2173800000000003E-8</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -6142,21 +8279,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="11">
-        <v>2.1717999999999999E-7</v>
+        <v>6.4204E-7</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>1.9546200000000001E-7</v>
+        <f t="shared" ref="D19" si="8">C19*0.9</f>
+        <v>5.7783600000000004E-7</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>2.38898E-7</v>
+        <f t="shared" ref="E19" si="9">C19*1.1</f>
+        <v>7.0624400000000006E-7</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -6167,19 +8304,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>2.2343652004299671E-5</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>2.0109286803869706E-5</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>2.4578017204729639E-5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -6190,21 +8330,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2.0158000000000001E-8</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="2">
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>1.3924763763789999E-6</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.8142200000000002E-8</v>
+        <v>1.2532287387411E-6</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>2.2173800000000003E-8</v>
+        <v>1.5317240140169E-6</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -6212,31 +8353,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1.4991E-7</v>
+      </c>
       <c r="D23" s="2">
         <f>C23*0.9</f>
-        <v>0</v>
+        <v>1.3491899999999999E-7</v>
       </c>
       <c r="E23" s="2">
         <f>C23*1.1</f>
-        <v>0</v>
+        <v>1.64901E-7</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -6247,19 +8381,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.6106999999999999E-10</v>
+      </c>
       <c r="D24" s="2">
         <f>C24*0.9</f>
-        <v>0</v>
+        <v>1.4496300000000001E-10</v>
       </c>
       <c r="E24" s="2">
         <f>C24*1.1</f>
-        <v>0</v>
+        <v>1.77177E-10</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -6270,19 +8406,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1.4737999999999999E-7</v>
+      </c>
       <c r="D25" s="2">
         <f>C25*0.9</f>
-        <v>0</v>
+        <v>1.32642E-7</v>
       </c>
       <c r="E25" s="2">
         <f>C25*1.1</f>
-        <v>0</v>
+        <v>1.62118E-7</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -6292,40 +8430,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3.0492000000000001E-7</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*0.9</f>
+        <v>2.74428E-7</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*1.1</f>
+        <v>3.3541200000000001E-7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3.7824E-6</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27*0.9</f>
+        <v>3.4041600000000001E-6</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*1.1</f>
+        <v>4.1606400000000007E-6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.5302E-8</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28*0.9</f>
+        <v>1.37718E-8</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C28*1.1</f>
+        <v>1.6832200000000002E-8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1.801E-6</v>
+      </c>
+      <c r="D29" s="2">
+        <f>C29*0.9</f>
+        <v>1.6209E-6</v>
+      </c>
+      <c r="E29" s="2">
+        <f>C29*1.1</f>
+        <v>1.9811E-6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="11">
+        <v>6.4204E-7</v>
+      </c>
+      <c r="D30" s="2">
+        <f>C30*0.9</f>
+        <v>5.7783600000000004E-7</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30*1.1</f>
+        <v>7.0624400000000006E-7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="11">
+        <v>8.8093999999999995E-8</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31*0.9</f>
+        <v>7.9284600000000003E-8</v>
+      </c>
+      <c r="E31" s="2">
+        <f>C31*1.1</f>
+        <v>9.6903399999999999E-8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.7726000000000001E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32*0.9</f>
+        <v>3.3953400000000002E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <f>C32*1.1</f>
+        <v>4.14986E-3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5.7080999999999996E-7</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33*0.9</f>
+        <v>5.1372900000000001E-7</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*1.1</f>
+        <v>6.2789100000000002E-7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.092E-8</v>
+      </c>
+      <c r="D34" s="2">
+        <f>C34*0.9</f>
+        <v>9.8280000000000004E-9</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*1.1</f>
+        <v>1.2012E-8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="11">
+        <v>4.8915999999999999E-9</v>
+      </c>
+      <c r="D35" s="2">
+        <f>C35*0.9</f>
+        <v>4.4024399999999999E-9</v>
+      </c>
+      <c r="E35" s="2">
+        <f>C35*1.1</f>
+        <v>5.3807600000000008E-9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1.3243E-8</v>
+      </c>
+      <c r="D36" s="2">
+        <f>C36*0.9</f>
+        <v>1.1918699999999999E-8</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36*1.1</f>
+        <v>1.45673E-8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="11">
+        <v>8.8386000000000005E-9</v>
+      </c>
+      <c r="D37" s="2">
+        <f>C37*0.9</f>
+        <v>7.9547400000000006E-9</v>
+      </c>
+      <c r="E37" s="2">
+        <f>C37*1.1</f>
+        <v>9.722460000000002E-9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2.0158000000000001E-8</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>1.8142200000000002E-8</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>2.2173800000000003E-8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6335,10 +8762,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6375,10 +8802,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*215840</f>
@@ -6401,10 +8828,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <f>0.7892/2500</f>
@@ -6427,10 +8854,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <f>43.493/300</f>
@@ -6453,10 +8880,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>1.2186000000000001E-2</v>
@@ -6478,10 +8905,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
         <v>4.8205000000000001E-3</v>
@@ -6503,10 +8930,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>5.3051000000000001E-3</v>
@@ -6528,10 +8955,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>8.9067999999999994E-3</v>
@@ -6553,22 +8980,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <f>0.00099355/20</f>
-        <v>4.96775E-5</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="11">
+        <f>0.00099355/20+19/20*C24</f>
+        <v>5.0386599E-5</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>4.470975E-5</v>
+        <v>4.5347939099999998E-5</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>5.4645250000000007E-5</v>
+        <v>5.5425258900000002E-5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -6579,10 +9006,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>7.2306000000000002E-3</v>
@@ -6604,10 +9031,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
         <v>5.2544999999999996E-3</v>
@@ -6629,10 +9056,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2">
         <v>1.7137000000000001E-3</v>
@@ -6654,10 +9081,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>3.3971000000000001E-3</v>
@@ -6679,10 +9106,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2">
         <v>3.0016999999999999E-3</v>
@@ -6704,21 +9131,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <f>0.0022275*115.03/245.41</f>
         <v>1.0440867324069923E-3</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*0.9</f>
+        <f t="shared" ref="D15:D16" si="6">C15*0.9</f>
         <v>9.3967805916629306E-4</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*1.1</f>
+        <f t="shared" ref="E15:E16" si="7">C15*1.1</f>
         <v>1.1484954056476917E-3</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -6730,20 +9157,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>4.4519E-3</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.9</f>
+        <f t="shared" si="6"/>
         <v>4.0067100000000001E-3</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*1.1</f>
+        <f t="shared" si="7"/>
         <v>4.8970900000000006E-3</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -6755,19 +9182,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.2588000000000002E-4</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>8.3329200000000002E-4</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>1.018468E-3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -6781,16 +9210,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.5334000000000001E-3</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>1.38006E-3</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -6801,21 +9232,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
-        <v>9.2588000000000002E-4</v>
+        <v>1.9456E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>8.3329200000000002E-4</v>
+        <v>1.7510400000000001E-3</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.018468E-3</v>
+        <v>2.1401600000000003E-3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -6826,19 +9257,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>6.7354050717807477</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>6.061864564602673</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>7.4089455789588232</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -6849,21 +9283,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
-        <v>1.5334000000000001E-3</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>2.9648759230633998E-2</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.38006E-3</v>
+        <v>2.6683883307570599E-2</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.6867400000000002E-3</v>
+        <v>3.2613635153697404E-2</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -6871,31 +9306,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.0350000000000004E-3</v>
+      </c>
       <c r="D23" s="2">
-        <f>C23*0.9</f>
-        <v>0</v>
+        <f t="shared" ref="D23:D38" si="8">C23*0.9</f>
+        <v>4.5315000000000008E-3</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*1.1</f>
-        <v>0</v>
+        <f t="shared" ref="E23:E38" si="9">C23*1.1</f>
+        <v>5.5385000000000009E-3</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -6906,19 +9334,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7.4641999999999998E-7</v>
+      </c>
       <c r="D24" s="2">
-        <f>C24*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6.71778E-7</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>8.2106200000000008E-7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -6929,19 +9359,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.3090000000000003E-3</v>
+      </c>
       <c r="D25" s="2">
-        <f>C25*0.9</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3.8781000000000002E-3</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*1.1</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.7399000000000009E-3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -6951,40 +9383,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.11305999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>0.101754</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="9"/>
+        <v>0.124366</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.1471000000000002E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>7.3323899999999997E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9618100000000006E-2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.1377E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="8"/>
+        <v>2.8239300000000003E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4514700000000002E-4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5.2544999999999996E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7290499999999994E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7799499999999998E-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.9456E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7510400000000001E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1401600000000003E-3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7.6182999999999997E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>6.8564699999999999E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3801299999999995E-3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1143.7</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>1029.3300000000002</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="9"/>
+        <v>1258.0700000000002</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.3601999999999998E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1241799999999998E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5962199999999998E-3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.9635999999999995E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>8.96724E-4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0959960000000001E-3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="11">
+        <v>7.2872000000000003E-5</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5584800000000003E-5</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="9"/>
+        <v>8.0159200000000003E-5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.2102E-4</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>1.08918E-4</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="9"/>
+        <v>1.33122E-4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.6155999999999999E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4540399999999999E-4</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7771600000000002E-4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.5334000000000001E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>1.38006E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6867400000000002E-3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6994,10 +9715,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7033,10 +9754,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*2640600</f>
@@ -7059,10 +9780,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <f>0.55013/2500</f>
@@ -7085,10 +9806,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <f>1361.3/300</f>
@@ -7111,10 +9832,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>0.13854</v>
@@ -7136,10 +9857,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>1.0697999999999999E-2</v>
@@ -7161,10 +9882,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>7.3124000000000001E-3</v>
@@ -7186,10 +9907,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>3.4791000000000002E-2</v>
@@ -7211,22 +9932,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2">
-        <f>0.03472/20</f>
-        <v>1.7360000000000001E-3</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="11">
+        <f>0.03472/20+19/20*C24</f>
+        <v>1.7418828750000001E-3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>1.5624000000000002E-3</v>
+        <v>1.5676945875000002E-3</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>1.9096000000000002E-3</v>
+        <v>1.9160711625000003E-3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -7237,10 +9958,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <v>5.0937999999999999E-3</v>
@@ -7262,10 +9983,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>2.6273999999999998E-3</v>
@@ -7287,10 +10008,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2">
         <v>1.8606999999999999E-2</v>
@@ -7312,10 +10033,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>7.0044E-3</v>
@@ -7337,10 +10058,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>1.0029E-2</v>
@@ -7362,21 +10083,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2">
         <f>0.0063641*115.03/245.41</f>
         <v>2.9830179006560451E-3</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*0.9</f>
+        <f t="shared" ref="D15:D16" si="6">C15*0.9</f>
         <v>2.6847161105904406E-3</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*1.1</f>
+        <f t="shared" ref="E15:E16" si="7">C15*1.1</f>
         <v>3.28131969072165E-3</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -7388,20 +10109,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
         <v>3.6741999999999997E-2</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.9</f>
+        <f t="shared" si="6"/>
         <v>3.3067800000000001E-2</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*1.1</f>
+        <f t="shared" si="7"/>
         <v>4.0416199999999999E-2</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -7413,19 +10134,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.8329000000000001E-4</v>
+      </c>
       <c r="D17" s="2">
         <f>C17*0.9</f>
-        <v>0</v>
+        <v>7.9496100000000006E-4</v>
       </c>
       <c r="E17" s="2">
         <f>C17*1.1</f>
-        <v>0</v>
+        <v>9.7161900000000006E-4</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -7439,16 +10162,18 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1245999999999999E-3</v>
+      </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>0</v>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0</v>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -7459,21 +10184,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2">
-        <v>8.8329000000000001E-4</v>
+        <v>6.9251999999999996E-4</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>7.9496100000000006E-4</v>
+        <v>6.2326799999999996E-4</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>9.7161900000000006E-4</v>
+        <v>7.6177199999999997E-4</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -7484,19 +10209,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>1.6167931320938957</v>
+      </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0</v>
+        <v>1.4551138188845063</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0</v>
+        <v>1.7784724453032854</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -7507,21 +10235,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2">
-        <v>1.1245999999999999E-3</v>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>0.28751694505445002</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.0121399999999999E-3</v>
+        <v>0.25876525054900501</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.2370599999999999E-3</v>
+        <v>0.31626863955989504</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -7529,31 +10258,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.1164E-2</v>
+      </c>
       <c r="D23" s="2">
         <f>C23*0.9</f>
-        <v>0</v>
+        <v>1.00476E-2</v>
       </c>
       <c r="E23" s="2">
         <f>C23*1.1</f>
-        <v>0</v>
+        <v>1.2280400000000002E-2</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -7564,19 +10286,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6.1924999999999996E-6</v>
+      </c>
       <c r="D24" s="2">
         <f>C24*0.9</f>
-        <v>0</v>
+        <v>5.5732499999999995E-6</v>
       </c>
       <c r="E24" s="2">
         <f>C24*1.1</f>
-        <v>0</v>
+        <v>6.8117500000000005E-6</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -7587,19 +10311,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.2976000000000004E-2</v>
+      </c>
       <c r="D25" s="2">
         <f>C25*0.9</f>
-        <v>0</v>
+        <v>5.6678400000000004E-2</v>
       </c>
       <c r="E25" s="2">
         <f>C25*1.1</f>
-        <v>0</v>
+        <v>6.9273600000000005E-2</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -7609,40 +10335,329 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.10345</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*0.9</f>
+        <v>9.3105000000000007E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*1.1</f>
+        <v>0.11379500000000001</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.1156000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27*0.9</f>
+        <v>2.8040400000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*1.1</f>
+        <v>3.4271600000000007</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.5154E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28*0.9</f>
+        <v>1.3638600000000001E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C28*1.1</f>
+        <v>1.6669400000000003E-4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.6273999999999998E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f>C29*0.9</f>
+        <v>2.3646599999999998E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <f>C29*1.1</f>
+        <v>2.8901399999999998E-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6.9251999999999996E-4</v>
+      </c>
+      <c r="D30" s="2">
+        <f>C30*0.9</f>
+        <v>6.2326799999999996E-4</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30*1.1</f>
+        <v>7.6177199999999997E-4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.2915000000000003E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31*0.9</f>
+        <v>7.4623500000000004E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f>C31*1.1</f>
+        <v>9.120650000000001E-3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>273.49</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32*0.9</f>
+        <v>246.14100000000002</v>
+      </c>
+      <c r="E32" s="2">
+        <f>C32*1.1</f>
+        <v>300.83900000000006</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.1836E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33*0.9</f>
+        <v>4.6652400000000002E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*1.1</f>
+        <v>5.7019600000000007E-3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7.0381999999999997E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <f>C34*0.9</f>
+        <v>6.3343799999999995E-4</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*1.1</f>
+        <v>7.7420199999999998E-4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.1813000000000001E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <f>C35*0.9</f>
+        <v>3.7631700000000004E-4</v>
+      </c>
+      <c r="E35" s="2">
+        <f>C35*1.1</f>
+        <v>4.5994300000000004E-4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="11">
+        <v>9.1864E-5</v>
+      </c>
+      <c r="D36" s="2">
+        <f>C36*0.9</f>
+        <v>8.2677599999999996E-5</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36*1.1</f>
+        <v>1.010504E-4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.209E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <f>C37*0.9</f>
+        <v>1.0881E-4</v>
+      </c>
+      <c r="E37" s="2">
+        <f>C37*1.1</f>
+        <v>1.3299000000000001E-4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.1245999999999999E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38*0.9</f>
+        <v>1.0121399999999999E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*1.1</f>
+        <v>1.2370599999999999E-3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0E01C-C305-CF4F-ACD4-9F03E85F256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54038BF8-CFF6-FF4F-8DC0-FE35FAE117A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="7460" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="12140" yWindow="29500" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="template" sheetId="12" r:id="rId2"/>
-    <sheet name="Acidification" sheetId="6" r:id="rId3"/>
-    <sheet name="Ecotoxicity" sheetId="7" r:id="rId4"/>
-    <sheet name="Eutrophication" sheetId="13" r:id="rId5"/>
-    <sheet name="GlobalWarming" sheetId="14" r:id="rId6"/>
-    <sheet name="OzoneDepletion" sheetId="15" r:id="rId7"/>
-    <sheet name="PhotochemicalOxidation" sheetId="16" r:id="rId8"/>
+    <sheet name="Acidification" sheetId="6" r:id="rId2"/>
+    <sheet name="Ecotoxicity" sheetId="7" r:id="rId3"/>
+    <sheet name="Eutrophication" sheetId="13" r:id="rId4"/>
+    <sheet name="GlobalWarming" sheetId="14" r:id="rId5"/>
+    <sheet name="OzoneDepletion" sheetId="15" r:id="rId6"/>
+    <sheet name="PhotochemicalOxidation" sheetId="16" r:id="rId7"/>
+    <sheet name="NonCarcinogenics" sheetId="9" r:id="rId8"/>
     <sheet name="Carcinogenics" sheetId="8" r:id="rId9"/>
-    <sheet name="NonCarcinogenics" sheetId="9" r:id="rId10"/>
-    <sheet name="RespiratoryEffects" sheetId="10" r:id="rId11"/>
+    <sheet name="RespiratoryEffects" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="25"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="107">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -82,57 +81,6 @@
     <t>kg CO2-eq</t>
   </si>
   <si>
-    <t>SimaPro (median, min-max for different truck sizes)</t>
-  </si>
-  <si>
-    <t>ElectricMotor</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>CatalyticConverter</t>
-  </si>
-  <si>
-    <t>OilHeatExchanger</t>
-  </si>
-  <si>
-    <t>Pump</t>
-  </si>
-  <si>
-    <t>HydronicHeatExchanger</t>
-  </si>
-  <si>
-    <t>ElectricConnectors</t>
-  </si>
-  <si>
-    <t>ElectricCables</t>
-  </si>
-  <si>
-    <t>PVC</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>CationicResin</t>
-  </si>
-  <si>
-    <t>Polymer</t>
-  </si>
-  <si>
-    <t>Ceramic</t>
-  </si>
-  <si>
-    <t>Fan</t>
-  </si>
-  <si>
-    <t>stainless steel</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
@@ -154,15 +102,6 @@
     <t>NH4Cl</t>
   </si>
   <si>
-    <t>CHG catalyst</t>
-  </si>
-  <si>
-    <t>HT&amp;HC catalyst</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -193,51 +132,15 @@
     <t>kg PM2.5-eq</t>
   </si>
   <si>
-    <t>Excavation</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>Gravel</t>
-  </si>
-  <si>
-    <t>Plastic</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>StainlessSteel</t>
-  </si>
-  <si>
-    <t>StainlessSteelSheet</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Trucking</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>furnace</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -250,12 +153,6 @@
     <t>market for steel, chromium steel 18/8</t>
   </si>
   <si>
-    <t>reinforcing steel</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
     <t>2500 kg/m2</t>
   </si>
   <si>
@@ -283,12 +180,6 @@
     <t>sodium hydroxide to generic market for neutralising agent</t>
   </si>
   <si>
-    <t>struvite</t>
-  </si>
-  <si>
-    <t>(NH4)2SO4</t>
-  </si>
-  <si>
     <t>market for hydrogen, gaseous</t>
   </si>
   <si>
@@ -304,9 +195,6 @@
     <t>natural gas liquids production</t>
   </si>
   <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
@@ -337,9 +225,6 @@
     <t>Al2O3</t>
   </si>
   <si>
-    <t>deionized water</t>
-  </si>
-  <si>
     <t>H3PO4</t>
   </si>
   <si>
@@ -349,18 +234,6 @@
     <t>CoO</t>
   </si>
   <si>
-    <t>sulfur</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>activated carbon</t>
-  </si>
-  <si>
     <t>Cl2</t>
   </si>
   <si>
@@ -400,12 +273,6 @@
     <t>market group for diesel</t>
   </si>
   <si>
-    <t>cooling</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
     <t>market for heat, from steam, in chemical industry</t>
   </si>
   <si>
@@ -427,12 +294,6 @@
     <t>liquid/if used, account for  CO2 emission here, add to GWP only, MW of natural gas is 19 (1 C): https://www.engineeringtoolbox.com/molecular-weight-gas-vapor-d_1156.html (accessed 12-2-2022)</t>
   </si>
   <si>
-    <t>compressor_4kW</t>
-  </si>
-  <si>
-    <t>compressor_300kW</t>
-  </si>
-  <si>
     <t>ea</t>
   </si>
   <si>
@@ -440,6 +301,69 @@
   </si>
   <si>
     <t>air compressor production, screw-type compressor, 4kW</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>Compressor_4kW</t>
+  </si>
+  <si>
+    <t>Compressor_300kW</t>
+  </si>
+  <si>
+    <t>Struvite</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Stainless_steel</t>
+  </si>
+  <si>
+    <t>Carbon_steel</t>
+  </si>
+  <si>
+    <t>Reinforcing_steel</t>
+  </si>
+  <si>
+    <t>NH42SO4</t>
+  </si>
+  <si>
+    <t>Natural_gas</t>
+  </si>
+  <si>
+    <t>CHG_catalyst</t>
+  </si>
+  <si>
+    <t>Deionized_water</t>
+  </si>
+  <si>
+    <t>Activated_carbon</t>
+  </si>
+  <si>
+    <t>Natural_gas_MJ</t>
+  </si>
+  <si>
+    <t>Electricity_for_calc</t>
+  </si>
+  <si>
+    <t>HTHC_catalyst</t>
   </si>
 </sst>
 </file>
@@ -480,24 +404,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -512,18 +424,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C1" sqref="C1:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +760,7 @@
     <col min="1" max="1" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="201.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="2"/>
   </cols>
@@ -866,430 +773,446 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,131 +1223,117 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1437,987 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <f>1.26/74049000*2913900000</f>
-        <v>49.582222582344123</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
-        <v>44.624000324109709</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
-        <v>54.540444840578537</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <f>3196.2/2500</f>
-        <v>1.2784799999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1506319999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.406328</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2">
-        <v>79229</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
-        <v>71306.100000000006</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
-        <v>87151.900000000009</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1215800</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5" si="4">C5*0.9</f>
-        <v>1094220</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5" si="5">C5*1.1</f>
-        <v>1337380</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>164.73</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>148.25700000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>181.203</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25.210999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>22.689899999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="3"/>
-        <v>27.732099999999999</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24.747</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8" si="6">C8*0.9</f>
-        <v>22.272300000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8" si="7">C8*1.1</f>
-        <v>27.221700000000002</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>31.8</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>28.62</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>34.980000000000004</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2">
-        <f>33.458/20+19/20*C25</f>
-        <v>1.6823781499999999</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.514140335</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.850615965</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.6915999999999993</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>7.8224399999999994</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>9.5607600000000001</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.5686999999999998</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>7.71183</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>9.4255700000000004</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2">
-        <v>461.54</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>415.38600000000002</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>507.69400000000007</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13.228</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>11.905200000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>14.550800000000001</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14.85</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>13.365</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>16.335000000000001</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2">
-        <f>9.5931*115.03/245.41</f>
-        <v>4.4965335275661138</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
-        <v>4.0468801748095027</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
-        <v>4.9461868803227258</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2">
-        <v>62.932000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>56.638800000000003</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>69.225200000000001</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4.3413000000000004</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>3.9071700000000003</v>
-      </c>
-      <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>4.775430000000001</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.1274000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>1.9146600000000003</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>2.3401400000000003</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.9281000000000001</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20*0.9</f>
-        <v>2.6352900000000004</v>
-      </c>
-      <c r="E20" s="2">
-        <f>C20*1.1</f>
-        <v>3.2209100000000004</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
-        <v>27306.372319349357</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>24575.735087414421</v>
-      </c>
-      <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>30037.009551284296</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
-        <v>369.79168803089993</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22*0.9</f>
-        <v>332.81251922780996</v>
-      </c>
-      <c r="E22" s="2">
-        <f>C22*1.1</f>
-        <v>406.77085683398997</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <v>14.368</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="10">C24*0.9</f>
-        <v>12.9312</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="11">C24*1.1</f>
-        <v>15.804800000000002</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.9769999999999998E-3</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>8.9793000000000008E-3</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>1.09747E-2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2">
-        <v>61.475000000000001</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>55.327500000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>67.622500000000002</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="2">
-        <v>629.38</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>566.44200000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>692.3180000000001</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3167.2</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>2850.48</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>3483.92</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.2511000000000001</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>1.12599</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3762100000000002</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.5686999999999998</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>7.71183</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>9.4255700000000004</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2.9281000000000001</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6352900000000004</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>3.2209100000000004</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="2">
-        <v>17.436</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>15.692400000000001</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>19.179600000000001</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2">
-        <v>4638900</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>4175010</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>5102790</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2">
-        <v>8.4166000000000007</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>7.5749400000000007</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>9.2582600000000017</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.4612000000000001</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>1.31508</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6073200000000001</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.46216000000000002</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>0.41594400000000004</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>0.50837600000000005</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.29720999999999997</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>0.26748899999999998</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>0.32693099999999997</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.30595</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27535500000000002</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>0.33654500000000004</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2.1274000000000002</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="10"/>
-        <v>1.9146600000000003</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="11"/>
-        <v>2.3401400000000003</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2455,10 +1388,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*157380</f>
@@ -2481,10 +1414,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <f>0.1933/2500</f>
@@ -2507,10 +1440,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>2.891</v>
@@ -2532,10 +1465,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>47.311999999999998</v>
@@ -2557,10 +1490,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>1.6851000000000001E-2</v>
@@ -2582,10 +1515,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>3.1905000000000002E-3</v>
@@ -2607,10 +1540,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>3.2198999999999999E-3</v>
@@ -2632,10 +1565,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>2.8777999999999998E-3</v>
@@ -2657,13 +1590,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="11">
-        <f>0.001868/20+19/20*C25</f>
+        <v>28</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.001868/20+19/20*C24</f>
         <v>9.405486350000001E-5</v>
       </c>
       <c r="D10" s="2">
@@ -2683,10 +1616,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>4.385E-3</v>
@@ -2708,10 +1641,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>3.6698E-3</v>
@@ -2733,10 +1666,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>8.7549999999999998E-4</v>
@@ -2758,10 +1691,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>2.4543E-3</v>
@@ -2783,10 +1716,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>1.8387E-3</v>
@@ -2808,10 +1741,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <f>0.0013177*115.03/245.41</f>
@@ -2834,10 +1767,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>3.1315000000000002E-3</v>
@@ -2859,10 +1792,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>4.8979000000000004E-4</v>
@@ -2884,10 +1817,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>1.3397999999999999E-3</v>
@@ -2909,10 +1842,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>1.1096000000000001E-3</v>
@@ -2934,13 +1867,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>3.5171845258375174</v>
       </c>
       <c r="D21" s="2">
@@ -2960,13 +1893,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>2.0809293373641003E-2</v>
       </c>
       <c r="D22" s="2">
@@ -2984,23 +1917,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.7805E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="8">C23*0.9</f>
+        <v>2.5024500000000002E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="9">C23*1.1</f>
+        <v>3.0585500000000002E-3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.7805E-3</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.8932999999999999E-7</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="8">C24*0.9</f>
-        <v>2.5024500000000002E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.2039700000000005E-7</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="9">C24*1.1</f>
-        <v>3.0585500000000002E-3</v>
+        <f t="shared" si="9"/>
+        <v>7.5826300000000004E-7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -3011,21 +1969,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6.8932999999999999E-7</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.4926000000000002E-3</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="8"/>
-        <v>6.2039700000000005E-7</v>
+        <v>4.0433400000000003E-3</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="9"/>
-        <v>7.5826300000000004E-7</v>
+        <v>4.941860000000001E-3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -3036,21 +1994,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>4.4926000000000002E-3</v>
+        <v>5.9407000000000001E-2</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="8"/>
-        <v>4.0433400000000003E-3</v>
+        <v>5.3466300000000001E-2</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="9"/>
-        <v>4.941860000000001E-3</v>
+        <v>6.5347700000000009E-2</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -3061,21 +2019,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>5.9407000000000001E-2</v>
+        <v>9.9498000000000003E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="8"/>
-        <v>5.3466300000000001E-2</v>
+        <v>8.9548200000000008E-2</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="9"/>
-        <v>6.5347700000000009E-2</v>
+        <v>0.10944780000000001</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -3086,21 +2044,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>9.9498000000000003E-2</v>
+        <v>2.2545E-3</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="8"/>
-        <v>8.9548200000000008E-2</v>
+        <v>2.0290500000000001E-3</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="9"/>
-        <v>0.10944780000000001</v>
+        <v>2.4799500000000003E-3</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -3111,21 +2069,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>2.2545E-3</v>
+        <v>3.6698E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="8"/>
-        <v>2.0290500000000001E-3</v>
+        <v>3.3028200000000001E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="9"/>
-        <v>2.4799500000000003E-3</v>
+        <v>4.0367800000000002E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -3136,21 +2094,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>3.6698E-3</v>
+        <v>1.1096000000000001E-3</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
-        <v>3.3028200000000001E-3</v>
+        <v>9.9864000000000007E-4</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="9"/>
-        <v>4.0367800000000002E-3</v>
+        <v>1.2205600000000001E-3</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -3164,18 +2122,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>1.1096000000000001E-3</v>
+        <v>4.8919000000000002E-3</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="8"/>
-        <v>9.9864000000000007E-4</v>
+        <v>4.4027100000000007E-3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="9"/>
-        <v>1.2205600000000001E-3</v>
+        <v>5.3810900000000007E-3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -3186,21 +2144,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>4.8919000000000002E-3</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="8"/>
-        <v>4.4027100000000007E-3</v>
+        <v>537.37200000000007</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="9"/>
-        <v>5.3810900000000007E-3</v>
+        <v>656.78800000000012</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -3211,21 +2169,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
-        <v>597.08000000000004</v>
+        <v>1.9113999999999999E-3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="8"/>
-        <v>537.37200000000007</v>
+        <v>1.7202599999999999E-3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="9"/>
-        <v>656.78800000000012</v>
+        <v>2.10254E-3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -3236,21 +2194,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
-        <v>1.9113999999999999E-3</v>
+        <v>8.4699000000000005E-4</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="8"/>
-        <v>1.7202599999999999E-3</v>
+        <v>7.6229100000000001E-4</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="9"/>
-        <v>2.10254E-3</v>
+        <v>9.3168900000000008E-4</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -3261,21 +2219,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8.4699000000000005E-4</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5.0587999999999997E-5</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="8"/>
-        <v>7.6229100000000001E-4</v>
+        <v>4.5529199999999998E-5</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="9"/>
-        <v>9.3168900000000008E-4</v>
+        <v>5.5646800000000004E-5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -3286,21 +2244,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="11">
-        <v>5.0587999999999997E-5</v>
+        <v>28</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2.9870999999999999E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>4.5529199999999998E-5</v>
+        <v>2.6883899999999999E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>5.5646800000000004E-5</v>
+        <v>3.2858100000000003E-5</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -3311,21 +2269,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2.9870999999999999E-5</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9.5338000000000001E-5</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="8"/>
-        <v>2.6883899999999999E-5</v>
+        <v>8.5804200000000008E-5</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="9"/>
-        <v>3.2858100000000003E-5</v>
+        <v>1.0487180000000001E-4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -3336,51 +2294,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="11">
-        <v>9.5338000000000001E-5</v>
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.3397999999999999E-3</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="8"/>
-        <v>8.5804200000000008E-5</v>
+        <v>1.20582E-3</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="9"/>
-        <v>1.0487180000000001E-4</v>
+        <v>1.4737800000000001E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.3397999999999999E-3</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="8"/>
-        <v>1.20582E-3</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="9"/>
-        <v>1.4737800000000001E-3</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3392,669 +2325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368468F-74F2-F147-9CFC-25892C4AB2D9}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.53</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7">
-        <v>300</v>
-      </c>
-      <c r="D5" s="7">
-        <v>218</v>
-      </c>
-      <c r="E5" s="7">
-        <v>385</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.93</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4.33</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <f>4.33+0.65</f>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D10" s="6">
-        <f>D9+0.58</f>
-        <v>3.65</v>
-      </c>
-      <c r="E10" s="6">
-        <f>E9+0.71</f>
-        <v>6.21</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2.13</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
-        <v>197</v>
-      </c>
-      <c r="D12" s="6">
-        <v>186</v>
-      </c>
-      <c r="E12" s="6">
-        <v>208</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9.9703471209999996</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8.9733124089</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10.967381833100001</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.8474600330000008</v>
-      </c>
-      <c r="D15" s="7">
-        <v>7.9627140297000008</v>
-      </c>
-      <c r="E15" s="7">
-        <v>9.7322060363000009</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
-        <v>72800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13.937562</v>
-      </c>
-      <c r="D16" s="7">
-        <v>12.543805799999999</v>
-      </c>
-      <c r="E16" s="7">
-        <v>15.3313182</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>114014.66383541599</v>
-      </c>
-      <c r="D17" s="7">
-        <v>102613.1974518744</v>
-      </c>
-      <c r="E17" s="7">
-        <v>125416.13021895761</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
-        <f>J15*C9</f>
-        <v>315224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8.5937041260028693</v>
-      </c>
-      <c r="D18" s="7">
-        <v>7.7343337134025827</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9.4530745386031576</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7">
-        <v>324.96867299992499</v>
-      </c>
-      <c r="D19" s="7">
-        <v>292.47180569993247</v>
-      </c>
-      <c r="E19" s="7">
-        <v>357.46554029991751</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8.8474600327818393</v>
-      </c>
-      <c r="D20" s="7">
-        <v>7.9627140295036556</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9.732206036060024</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4.3790218750000003</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3.9411196875000005</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4.8169240625000009</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2.0673798630000002</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.8606418767000001</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2.2741178493000005</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.9299999302999999</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.73699993727</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2.1229999233300001</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2.797495751</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2.5177461759000002</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3.0772453261000003</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1.6121519888995599</v>
-      </c>
-      <c r="D25" s="7">
-        <f>C25*0.9</f>
-        <v>1.450936790009604</v>
-      </c>
-      <c r="E25" s="7">
-        <f>C25*1.1</f>
-        <v>1.7733671877895161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1.844173711</v>
-      </c>
-      <c r="D26" s="7">
-        <f>C26*0.9</f>
-        <v>1.6597563399000002</v>
-      </c>
-      <c r="E26" s="7">
-        <f>C26*1.1</f>
-        <v>2.0285910821000002</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7">
-        <v>13.937562</v>
-      </c>
-      <c r="D27" s="7">
-        <f>C27*0.9</f>
-        <v>12.543805799999999</v>
-      </c>
-      <c r="E27" s="7">
-        <f>C27*1.1</f>
-        <v>15.3313182</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4092,10 +2367,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*26843000</f>
@@ -4118,10 +2393,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <f>48.766/2500</f>
@@ -4144,10 +2419,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>532.58000000000004</v>
@@ -4169,10 +2444,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>8314.4</v>
@@ -4194,10 +2469,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>1.2979000000000001</v>
@@ -4219,10 +2494,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>0.40516999999999997</v>
@@ -4244,10 +2519,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>0.41316999999999998</v>
@@ -4269,10 +2544,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>0.53532999999999997</v>
@@ -4294,13 +2569,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
-        <f>0.39136/20+19/20*C25</f>
+        <f>0.39136/20+19/20*C24</f>
         <v>1.9678921999999998E-2</v>
       </c>
       <c r="D10" s="2">
@@ -4320,10 +2595,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>0.77015999999999996</v>
@@ -4345,10 +2620,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>0.81013999999999997</v>
@@ -4370,10 +2645,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>0.12584000000000001</v>
@@ -4395,10 +2670,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>0.33656000000000003</v>
@@ -4420,10 +2695,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>0.34682000000000002</v>
@@ -4445,10 +2720,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <f>0.26205*115.03/245.41</f>
@@ -4471,10 +2746,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>0.72916999999999998</v>
@@ -4496,10 +2771,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>0.1032</v>
@@ -4521,10 +2796,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>0.158</v>
@@ -4546,10 +2821,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>0.25163999999999997</v>
@@ -4571,13 +2846,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>991.65441961282067</v>
       </c>
       <c r="D21" s="2">
@@ -4597,13 +2872,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>4.0564012825520006</v>
       </c>
       <c r="D22" s="2">
@@ -4621,23 +2896,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.59950999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D37" si="10">C23*0.9</f>
+        <v>0.53955900000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E34" si="11">C23*1.1</f>
+        <v>0.65946100000000007</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>0.59950999999999999</v>
+        <v>1.1676E-4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D38" si="10">C24*0.9</f>
-        <v>0.53955900000000001</v>
+        <f t="shared" si="10"/>
+        <v>1.05084E-4</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E35" si="11">C24*1.1</f>
-        <v>0.65946100000000007</v>
+        <f t="shared" si="11"/>
+        <v>1.28436E-4</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -4648,21 +2948,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>1.1676E-4</v>
+        <v>0.87048999999999999</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="10"/>
-        <v>1.05084E-4</v>
+        <v>0.78344100000000005</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>1.28436E-4</v>
+        <v>0.95753900000000003</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -4673,21 +2973,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>0.87048999999999999</v>
+        <v>10.629</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="10"/>
-        <v>0.78344100000000005</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="11"/>
-        <v>0.95753900000000003</v>
+        <v>11.6919</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -4698,21 +2998,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>10.629</v>
+        <v>19.785</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="10"/>
-        <v>9.5661000000000005</v>
+        <v>17.8065</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="11"/>
-        <v>11.6919</v>
+        <v>21.763500000000001</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -4723,21 +3023,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>19.785</v>
+        <v>0.47893999999999998</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="10"/>
-        <v>17.8065</v>
+        <v>0.43104599999999998</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="11"/>
-        <v>21.763500000000001</v>
+        <v>0.52683400000000002</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -4748,21 +3048,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>0.47893999999999998</v>
+        <v>0.81013999999999997</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="10"/>
-        <v>0.43104599999999998</v>
+        <v>0.72912599999999994</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="11"/>
-        <v>0.52683400000000002</v>
+        <v>0.891154</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -4773,21 +3073,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2">
-        <v>0.81013999999999997</v>
+        <v>0.25163999999999997</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="10"/>
-        <v>0.72912599999999994</v>
+        <v>0.22647599999999998</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="11"/>
-        <v>0.891154</v>
+        <v>0.27680399999999999</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -4801,18 +3101,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2">
-        <v>0.25163999999999997</v>
+        <v>0.99434</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="10"/>
-        <v>0.22647599999999998</v>
+        <v>0.89490599999999998</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>0.27680399999999999</v>
+        <v>1.093774</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -4823,21 +3123,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>0.99434</v>
+        <v>168410</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="10"/>
-        <v>0.89490599999999998</v>
+        <v>151569</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>1.093774</v>
+        <v>185251.00000000003</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -4848,21 +3148,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>168410</v>
+        <v>0.24282000000000001</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="10"/>
-        <v>151569</v>
+        <v>0.21853800000000001</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>185251.00000000003</v>
+        <v>0.26710200000000001</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -4873,21 +3173,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>0.24282000000000001</v>
+        <v>9.8525000000000001E-2</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="10"/>
-        <v>0.21853800000000001</v>
+        <v>8.8672500000000001E-2</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>0.26710200000000001</v>
+        <v>0.10837750000000002</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -4898,21 +3198,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>9.8525000000000001E-2</v>
+        <v>8.2527999999999994E-3</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="10"/>
-        <v>8.8672500000000001E-2</v>
+        <v>7.42752E-3</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>0.10837750000000002</v>
+        <f t="shared" ref="E35:E37" si="12">C35*1.1</f>
+        <v>9.0780800000000005E-3</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -4923,21 +3223,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>8.2527999999999994E-3</v>
+        <v>8.5990000000000007E-3</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>7.42752E-3</v>
+        <v>7.7391000000000005E-3</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ref="E36:E38" si="12">C36*1.1</f>
-        <v>9.0780800000000005E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.458900000000001E-3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -4948,21 +3248,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>8.5990000000000007E-3</v>
+        <v>2.0161999999999999E-2</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="10"/>
-        <v>7.7391000000000005E-3</v>
+        <v>1.81458E-2</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="12"/>
-        <v>9.458900000000001E-3</v>
+        <v>2.2178200000000002E-2</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -4973,51 +3273,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>2.0161999999999999E-2</v>
+        <v>0.158</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>1.81458E-2</v>
+        <f>C38*0.9</f>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="12"/>
-        <v>2.2178200000000002E-2</v>
+        <f>C38*1.1</f>
+        <v>0.17380000000000001</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="D39" s="2">
-        <f>C39*0.9</f>
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <f>C39*1.1</f>
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5027,12 +3302,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,10 +3343,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*147170000</f>
@@ -5094,10 +3369,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <f>122.09/2500</f>
@@ -5120,10 +3395,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>3736.8</v>
@@ -5145,10 +3420,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>57484</v>
@@ -5170,10 +3445,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>7.2035999999999998</v>
@@ -5195,10 +3470,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>2.0272000000000001</v>
@@ -5220,10 +3495,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>1.7265999999999999</v>
@@ -5245,10 +3520,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0.90847999999999995</v>
@@ -5270,13 +3545,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <f>1.3029/20+19/20*C25</f>
+        <f>1.3029/20+19/20*C24</f>
         <v>6.9909344999999998E-2</v>
       </c>
       <c r="D10" s="2">
@@ -5296,10 +3571,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>0.97877999999999998</v>
@@ -5321,10 +3596,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>0.42747000000000002</v>
@@ -5346,10 +3621,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>2.7949000000000002</v>
@@ -5371,10 +3646,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>0.77271999999999996</v>
@@ -5396,10 +3671,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0.90305000000000002</v>
@@ -5421,10 +3696,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <f>0.57519*115.03/245.41</f>
@@ -5447,10 +3722,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>3.4746000000000001</v>
@@ -5472,10 +3747,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0.1071</v>
@@ -5497,10 +3772,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>0.26663999999999999</v>
@@ -5522,10 +3797,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>0.18748000000000001</v>
@@ -5547,13 +3822,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>15371.082923819398</v>
       </c>
       <c r="D21" s="2">
@@ -5573,13 +3848,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>50.269262735110004</v>
       </c>
       <c r="D22" s="2">
@@ -5597,23 +3872,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7233000000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
+        <v>1.5509700000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
+        <v>1.8956300000000001</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>1.7233000000000001</v>
+        <v>5.0150999999999998E-3</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D38" si="8">C24*0.9</f>
-        <v>1.5509700000000002</v>
+        <f t="shared" si="8"/>
+        <v>4.5135899999999996E-3</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E38" si="9">C24*1.1</f>
-        <v>1.8956300000000001</v>
+        <f t="shared" si="9"/>
+        <v>5.5166099999999999E-3</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -5624,21 +3924,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>5.0150999999999998E-3</v>
+        <v>2.5164</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="8"/>
-        <v>4.5135899999999996E-3</v>
+        <v>2.2647599999999999</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="9"/>
-        <v>5.5166099999999999E-3</v>
+        <v>2.7680400000000001</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -5649,21 +3949,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>2.5164</v>
+        <v>303.18</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="8"/>
-        <v>2.2647599999999999</v>
+        <v>272.86200000000002</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="9"/>
-        <v>2.7680400000000001</v>
+        <v>333.49800000000005</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -5674,21 +3974,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>303.18</v>
+        <v>85.906000000000006</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="8"/>
-        <v>272.86200000000002</v>
+        <v>77.315400000000011</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="9"/>
-        <v>333.49800000000005</v>
+        <v>94.496600000000015</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -5699,21 +3999,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>85.906000000000006</v>
+        <v>2.8032000000000001E-2</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="8"/>
-        <v>77.315400000000011</v>
+        <v>2.5228800000000003E-2</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="9"/>
-        <v>94.496600000000015</v>
+        <v>3.0835200000000004E-2</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -5724,21 +4024,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>2.8032000000000001E-2</v>
+        <v>0.42747000000000002</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="8"/>
-        <v>2.5228800000000003E-2</v>
+        <v>0.38472300000000004</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="9"/>
-        <v>3.0835200000000004E-2</v>
+        <v>0.47021700000000005</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -5749,21 +4049,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>0.42747000000000002</v>
+        <v>0.18748000000000001</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
-        <v>0.38472300000000004</v>
+        <v>0.16873200000000002</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="9"/>
-        <v>0.47021700000000005</v>
+        <v>0.20622800000000002</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -5777,18 +4077,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>0.18748000000000001</v>
+        <v>3.0363000000000002</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="8"/>
-        <v>0.16873200000000002</v>
+        <v>2.7326700000000002</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="9"/>
-        <v>0.20622800000000002</v>
+        <v>3.3399300000000007</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -5799,21 +4099,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>3.0363000000000002</v>
+        <v>2612400</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="8"/>
-        <v>2.7326700000000002</v>
+        <v>2351160</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="9"/>
-        <v>3.3399300000000007</v>
+        <v>2873640</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -5824,21 +4124,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>2612400</v>
+        <v>0.57521</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="8"/>
-        <v>2351160</v>
+        <v>0.51768900000000007</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="9"/>
-        <v>2873640</v>
+        <v>0.63273100000000004</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -5849,21 +4149,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>0.57521</v>
+        <v>0.1681</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="8"/>
-        <v>0.51768900000000007</v>
+        <v>0.15129000000000001</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="9"/>
-        <v>0.63273100000000004</v>
+        <v>0.18491000000000002</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -5874,21 +4174,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>0.1681</v>
+        <v>2.5760999999999999E-2</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="8"/>
-        <v>0.15129000000000001</v>
+        <v>2.3184900000000001E-2</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="9"/>
-        <v>0.18491000000000002</v>
+        <v>2.83371E-2</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -5899,21 +4199,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>2.5760999999999999E-2</v>
+        <v>7.0098000000000001E-3</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>2.3184900000000001E-2</v>
+        <v>6.3088200000000006E-3</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>2.83371E-2</v>
+        <v>7.7107800000000004E-3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -5924,21 +4224,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>7.0098000000000001E-3</v>
+        <v>5.0719E-2</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="8"/>
-        <v>6.3088200000000006E-3</v>
+        <v>4.5647100000000003E-2</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="9"/>
-        <v>7.7107800000000004E-3</v>
+        <v>5.5790900000000004E-2</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -5949,51 +4249,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>5.0719E-2</v>
+        <v>0.26663999999999999</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
-        <v>4.5647100000000003E-2</v>
+        <f>C38*0.9</f>
+        <v>0.23997599999999999</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
-        <v>5.5790900000000004E-2</v>
+        <f>C38*1.1</f>
+        <v>0.29330400000000001</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.26663999999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <f>C39*0.9</f>
-        <v>0.23997599999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <f>C39*1.1</f>
-        <v>0.29330400000000001</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6003,12 +4278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6045,10 +4320,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*27759</f>
@@ -6071,10 +4346,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <f>0.060329/2500</f>
@@ -6097,10 +4372,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>0.26469999999999999</v>
@@ -6122,10 +4397,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>4.2713000000000001</v>
@@ -6147,20 +4422,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>8.3217999999999996E-4</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D5:D15" si="2">C6*0.9</f>
+        <f t="shared" ref="D6:D15" si="2">C6*0.9</f>
         <v>7.4896199999999994E-4</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E5:E15" si="3">C6*1.1</f>
+        <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
         <v>9.1539799999999999E-4</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -6172,10 +4447,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>6.0428999999999995E-4</v>
@@ -6197,10 +4472,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>4.8310999999999997E-4</v>
@@ -6222,10 +4497,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>2.8322E-3</v>
@@ -6247,13 +4522,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11">
-        <f>0.000079544/20+19/20*C25</f>
+        <v>23</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.000079544/20+19/20*C24</f>
         <v>4.0466411999999999E-6</v>
       </c>
       <c r="D10" s="2">
@@ -6273,10 +4548,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>3.9766999999999998E-4</v>
@@ -6298,10 +4573,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>2.9415000000000001E-3</v>
@@ -6323,10 +4598,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>6.3606999999999997E-4</v>
@@ -6348,10 +4623,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>3.2907999999999999E-4</v>
@@ -6373,10 +4648,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>4.7381000000000003E-3</v>
@@ -6398,10 +4673,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <f>0.00037325*115.03/245.41</f>
@@ -6424,10 +4699,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>2.4632999999999999E-3</v>
@@ -6449,12 +4724,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6">
         <v>7.8700000000000002E-5</v>
       </c>
       <c r="D18" s="2">
@@ -6474,12 +4749,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6">
         <v>9.4215000000000005E-5</v>
       </c>
       <c r="D19" s="2">
@@ -6499,10 +4774,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
         <v>1.0547E-3</v>
@@ -6524,13 +4799,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>0.45019348021710359</v>
       </c>
       <c r="D21" s="2">
@@ -6550,13 +4825,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>5.7592737821191998E-3</v>
       </c>
       <c r="D22" s="2">
@@ -6575,31 +4850,47 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.2278999999999998E-4</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>3.8051099999999999E-4</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>4.6506900000000003E-4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4.2278999999999998E-4</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7.3095999999999995E-8</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="10">C24*0.9</f>
-        <v>3.8051099999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>6.5786399999999999E-8</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="11">C24*1.1</f>
-        <v>4.6506900000000003E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.0405600000000004E-8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -6610,21 +4901,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="11">
-        <v>7.3095999999999995E-8</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.6304999999999999E-4</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="10"/>
-        <v>6.5786399999999999E-8</v>
+        <v>5.9674499999999998E-4</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>8.0405600000000004E-8</v>
+        <v>7.29355E-4</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -6635,21 +4926,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>6.6304999999999999E-4</v>
+        <v>7.8753E-3</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="10"/>
-        <v>5.9674499999999998E-4</v>
+        <v>7.0877700000000002E-3</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="11"/>
-        <v>7.29355E-4</v>
+        <v>8.6628300000000016E-3</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -6660,21 +4951,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>7.8753E-3</v>
+        <v>3.4404999999999998E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="10"/>
-        <v>7.0877700000000002E-3</v>
+        <v>3.0964499999999999E-2</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="11"/>
-        <v>8.6628300000000016E-3</v>
+        <v>3.7845500000000004E-2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -6685,21 +4976,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3.4404999999999998E-2</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4.1992E-5</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="10"/>
-        <v>3.0964499999999999E-2</v>
+        <v>3.7792800000000002E-5</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="11"/>
-        <v>3.7845500000000004E-2</v>
+        <v>4.6191200000000006E-5</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -6710,21 +5001,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4.1992E-5</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.9415000000000001E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="10"/>
-        <v>3.7792800000000002E-5</v>
+        <v>2.6473500000000001E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="11"/>
-        <v>4.6191200000000006E-5</v>
+        <v>3.2356500000000005E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -6735,21 +5026,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>2.9415000000000001E-3</v>
+        <v>1.0547E-3</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="10"/>
-        <v>2.6473500000000001E-3</v>
+        <v>9.4923000000000002E-4</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="11"/>
-        <v>3.2356500000000005E-3</v>
+        <v>1.1601700000000001E-3</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -6763,18 +5054,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>1.0547E-3</v>
+        <v>4.2365000000000002E-4</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="10"/>
-        <v>9.4923000000000002E-4</v>
+        <v>3.8128500000000003E-4</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>1.1601700000000001E-3</v>
+        <v>4.6601500000000007E-4</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -6785,21 +5076,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>4.2365000000000002E-4</v>
+        <v>76.453999999999994</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="10"/>
-        <v>3.8128500000000003E-4</v>
+        <v>68.808599999999998</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>4.6601500000000007E-4</v>
+        <v>84.099400000000003</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -6810,21 +5101,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>76.453999999999994</v>
+        <v>2.285E-4</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="10"/>
-        <v>68.808599999999998</v>
+        <v>2.0565000000000001E-4</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>84.099400000000003</v>
+        <v>2.5135000000000001E-4</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -6835,21 +5126,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2.285E-4</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6.1297999999999995E-5</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="10"/>
-        <v>2.0565000000000001E-4</v>
+        <v>5.5168199999999998E-5</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>2.5135000000000001E-4</v>
+        <v>6.7427800000000005E-5</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -6860,21 +5151,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="11">
-        <v>6.1297999999999995E-5</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5.9869999999999996E-6</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="10"/>
-        <v>5.5168199999999998E-5</v>
+        <v>5.3882999999999997E-6</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="11"/>
-        <v>6.7427800000000005E-5</v>
+        <v>6.5857000000000003E-6</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -6885,21 +5176,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="11">
-        <v>5.9869999999999996E-6</v>
+        <v>23</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7.4703999999999997E-6</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>5.3882999999999997E-6</v>
+        <v>6.7233599999999996E-6</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>6.5857000000000003E-6</v>
+        <v>8.2174399999999997E-6</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -6910,21 +5201,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="11">
-        <v>7.4703999999999997E-6</v>
+        <v>23</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1.5750999999999999E-5</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="10"/>
-        <v>6.7233599999999996E-6</v>
+        <v>1.4175899999999999E-5</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="11"/>
-        <v>8.2174399999999997E-6</v>
+        <v>1.73261E-5</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -6935,51 +5226,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1.5750999999999999E-5</v>
+        <v>23</v>
+      </c>
+      <c r="C38" s="6">
+        <v>9.4215000000000005E-5</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="10"/>
-        <v>1.4175899999999999E-5</v>
+        <v>8.4793500000000007E-5</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="11"/>
-        <v>1.73261E-5</v>
+        <v>1.0363650000000002E-4</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="11">
-        <v>9.4215000000000005E-5</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="10"/>
-        <v>8.4793500000000007E-5</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0363650000000002E-4</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6989,12 +5255,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7030,7 +5296,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -7055,7 +5321,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -7081,7 +5347,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -7106,7 +5372,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -7131,7 +5397,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -7140,11 +5406,11 @@
         <v>4.8562000000000003</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D5:D15" si="2">C6*0.9</f>
+        <f t="shared" ref="D6:D15" si="2">C6*0.9</f>
         <v>4.3705800000000004</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E5:E15" si="3">C6*1.1</f>
+        <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
         <v>5.3418200000000011</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -7156,7 +5422,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -7181,7 +5447,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -7206,7 +5472,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -7231,13 +5497,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f>0.15837/20+19/20*C25</f>
+        <f>0.15837/20+19/20*C24</f>
         <v>8.2056660000000003E-3</v>
       </c>
       <c r="D10" s="2">
@@ -7257,7 +5523,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -7282,7 +5548,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -7307,7 +5573,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -7332,7 +5598,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -7357,7 +5623,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -7382,7 +5648,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -7408,7 +5674,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -7433,7 +5699,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -7459,7 +5725,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -7484,7 +5750,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -7509,13 +5775,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>484.7862509286262</v>
       </c>
       <c r="D21" s="2">
@@ -7535,13 +5801,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>6.3758782313560003</v>
       </c>
       <c r="D22" s="2">
@@ -7559,23 +5825,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.5975999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
+        <v>1.43784</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
+        <v>1.75736</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>1.5975999999999999</v>
+        <v>3.0227999999999999E-4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D38" si="8">C24*0.9</f>
-        <v>1.43784</v>
+        <f t="shared" si="8"/>
+        <v>2.72052E-4</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E38" si="9">C24*1.1</f>
-        <v>1.75736</v>
+        <f t="shared" si="9"/>
+        <v>3.3250800000000002E-4</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -7586,21 +5877,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>3.0227999999999999E-4</v>
+        <v>1.3290999999999999</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="8"/>
-        <v>2.72052E-4</v>
+        <v>1.1961900000000001</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="9"/>
-        <v>3.3250800000000002E-4</v>
+        <v>1.46201</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -7611,21 +5902,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>1.3290999999999999</v>
+        <v>7.9394999999999998</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="8"/>
-        <v>1.1961900000000001</v>
+        <v>7.1455500000000001</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="9"/>
-        <v>1.46201</v>
+        <v>8.7334500000000013</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -7636,21 +5927,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>7.9394999999999998</v>
+        <v>31.053000000000001</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="8"/>
-        <v>7.1455500000000001</v>
+        <v>27.947700000000001</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="9"/>
-        <v>8.7334500000000013</v>
+        <v>34.158300000000004</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -7661,21 +5952,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>31.053000000000001</v>
+        <v>0.12414</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="8"/>
-        <v>27.947700000000001</v>
+        <v>0.11172600000000001</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="9"/>
-        <v>34.158300000000004</v>
+        <v>0.13655400000000001</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -7686,21 +5977,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>0.12414</v>
+        <v>1.5624</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="8"/>
-        <v>0.11172600000000001</v>
+        <v>1.4061600000000001</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="9"/>
-        <v>0.13655400000000001</v>
+        <v>1.7186400000000002</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -7711,21 +6002,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>1.5624</v>
+        <v>0.47693999999999998</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
-        <v>1.4061600000000001</v>
+        <v>0.42924599999999996</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="9"/>
-        <v>1.7186400000000002</v>
+        <v>0.52463400000000004</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -7742,15 +6033,15 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>0.47693999999999998</v>
+        <v>2.9998</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="8"/>
-        <v>0.42924599999999996</v>
+        <v>2.6998199999999999</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="9"/>
-        <v>0.52463400000000004</v>
+        <v>3.2997800000000002</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -7761,21 +6052,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>2.9998</v>
+        <v>81893</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="8"/>
-        <v>2.6998199999999999</v>
+        <v>73703.7</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="9"/>
-        <v>3.2997800000000002</v>
+        <v>90082.3</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -7786,21 +6077,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>81893</v>
+        <v>0.94164000000000003</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="8"/>
-        <v>73703.7</v>
+        <v>0.84747600000000001</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="9"/>
-        <v>90082.3</v>
+        <v>1.0358040000000002</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -7811,21 +6102,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>0.94164000000000003</v>
+        <v>0.41977999999999999</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="8"/>
-        <v>0.84747600000000001</v>
+        <v>0.37780199999999997</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="9"/>
-        <v>1.0358040000000002</v>
+        <v>0.461758</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -7836,21 +6127,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>0.41977999999999999</v>
+        <v>6.6032999999999994E-2</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="8"/>
-        <v>0.37780199999999997</v>
+        <v>5.9429699999999995E-2</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="9"/>
-        <v>0.461758</v>
+        <v>7.2636300000000001E-2</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -7861,21 +6152,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>6.6032999999999994E-2</v>
+        <v>0.14996999999999999</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>5.9429699999999995E-2</v>
+        <v>0.13497300000000001</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>7.2636300000000001E-2</v>
+        <v>0.164967</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -7886,21 +6177,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>0.14996999999999999</v>
+        <v>0.11946</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="8"/>
-        <v>0.13497300000000001</v>
+        <v>0.107514</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="9"/>
-        <v>0.164967</v>
+        <v>0.131406</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -7911,51 +6202,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>0.11946</v>
+        <v>0.67847999999999997</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
-        <v>0.107514</v>
+        <f>C38*0.9</f>
+        <v>0.61063199999999995</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
-        <v>0.131406</v>
+        <f>C38*1.1</f>
+        <v>0.74632799999999999</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.67847999999999997</v>
-      </c>
-      <c r="D39" s="2">
-        <f>C39*0.9</f>
-        <v>0.61063199999999995</v>
-      </c>
-      <c r="E39" s="2">
-        <f>C39*1.1</f>
-        <v>0.74632799999999999</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7965,12 +6231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8007,10 +6273,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*4.2208</f>
@@ -8033,12 +6299,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
         <f>0.000015044/2500</f>
         <v>6.0176000000000004E-9</v>
       </c>
@@ -8059,12 +6325,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
         <v>4.5494999999999997E-5</v>
       </c>
       <c r="D4" s="2">
@@ -8084,10 +6350,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>7.7645000000000004E-4</v>
@@ -8109,12 +6375,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
         <v>1.9641E-7</v>
       </c>
       <c r="D6" s="2">
@@ -8134,12 +6400,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="11">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
         <v>8.7602999999999994E-8</v>
       </c>
       <c r="D7" s="2">
@@ -8159,12 +6425,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
         <v>1.0173E-7</v>
       </c>
       <c r="D8" s="2">
@@ -8184,12 +6450,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
         <v>2.5540999999999998E-7</v>
       </c>
       <c r="D9" s="2">
@@ -8209,13 +6475,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11">
-        <f>0.000000014828/20+19/20*C25</f>
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.000000014828/20+19/20*C24</f>
         <v>8.9441650000000002E-10</v>
       </c>
       <c r="D10" s="2">
@@ -8235,12 +6501,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
         <v>4.9409999999999997E-8</v>
       </c>
       <c r="D11" s="2">
@@ -8260,12 +6526,12 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="11">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
         <v>1.801E-6</v>
       </c>
       <c r="D12" s="2">
@@ -8285,12 +6551,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="11">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
         <v>1.5364000000000001E-8</v>
       </c>
       <c r="D13" s="2">
@@ -8310,12 +6576,12 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
         <v>7.8932000000000003E-7</v>
       </c>
       <c r="D14" s="2">
@@ -8335,12 +6601,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6">
         <v>9.2182999999999999E-8</v>
       </c>
       <c r="D15" s="2">
@@ -8360,10 +6626,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <f>0.000000048973*115.03/245.41</f>
@@ -8386,12 +6652,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6">
         <v>6.1237999999999996E-8</v>
       </c>
       <c r="D17" s="2">
@@ -8411,12 +6677,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
         <v>2.1717999999999999E-7</v>
       </c>
       <c r="D18" s="2">
@@ -8436,12 +6702,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="11">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
         <v>2.0158000000000001E-8</v>
       </c>
       <c r="D19" s="2">
@@ -8461,12 +6727,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6">
         <v>6.4204E-7</v>
       </c>
       <c r="D20" s="2">
@@ -8486,13 +6752,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>2.2343652004299671E-5</v>
       </c>
       <c r="D21" s="2">
@@ -8512,13 +6778,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>1.3924763763789999E-6</v>
       </c>
       <c r="D22" s="2">
@@ -8536,23 +6802,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.4991E-7</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="12">C23*0.9</f>
+        <v>1.3491899999999999E-7</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="13">C23*1.1</f>
+        <v>1.64901E-7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.4991E-7</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.6106999999999999E-10</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="12">C24*0.9</f>
-        <v>1.3491899999999999E-7</v>
+        <f t="shared" si="12"/>
+        <v>1.4496300000000001E-10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="13">C24*1.1</f>
-        <v>1.64901E-7</v>
+        <f t="shared" si="13"/>
+        <v>1.77177E-10</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -8563,21 +6854,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1.6106999999999999E-10</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.4737999999999999E-7</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="12"/>
-        <v>1.4496300000000001E-10</v>
+        <v>1.32642E-7</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="13"/>
-        <v>1.77177E-10</v>
+        <v>1.62118E-7</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -8588,21 +6879,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1.4737999999999999E-7</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3.0492000000000001E-7</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="12"/>
-        <v>1.32642E-7</v>
+        <v>2.74428E-7</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="13"/>
-        <v>1.62118E-7</v>
+        <v>3.3541200000000001E-7</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -8613,21 +6904,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="11">
-        <v>3.0492000000000001E-7</v>
+        <v>24</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3.7824E-6</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="12"/>
-        <v>2.74428E-7</v>
+        <v>3.4041600000000001E-6</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="13"/>
-        <v>3.3541200000000001E-7</v>
+        <v>4.1606400000000007E-6</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -8638,21 +6929,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11">
-        <v>3.7824E-6</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.5302E-8</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="12"/>
-        <v>3.4041600000000001E-6</v>
+        <v>1.37718E-8</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="13"/>
-        <v>4.1606400000000007E-6</v>
+        <v>1.6832200000000002E-8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -8663,21 +6954,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1.5302E-8</v>
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.801E-6</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="12"/>
-        <v>1.37718E-8</v>
+        <v>1.6209E-6</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="13"/>
-        <v>1.6832200000000002E-8</v>
+        <v>1.9811E-6</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -8688,21 +6979,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1.801E-6</v>
+        <v>24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.4204E-7</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="12"/>
-        <v>1.6209E-6</v>
+        <v>5.7783600000000004E-7</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="13"/>
-        <v>1.9811E-6</v>
+        <v>7.0624400000000006E-7</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -8716,18 +7007,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6.4204E-7</v>
+        <v>24</v>
+      </c>
+      <c r="C31" s="6">
+        <v>8.8093999999999995E-8</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="12"/>
-        <v>5.7783600000000004E-7</v>
+        <v>7.9284600000000003E-8</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="13"/>
-        <v>7.0624400000000006E-7</v>
+        <v>9.6903399999999999E-8</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -8738,21 +7029,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="11">
-        <v>8.8093999999999995E-8</v>
+        <v>24</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.7726000000000001E-3</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="12"/>
-        <v>7.9284600000000003E-8</v>
+        <v>3.3953400000000002E-3</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="13"/>
-        <v>9.6903399999999999E-8</v>
+        <v>4.14986E-3</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -8763,21 +7054,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3.7726000000000001E-3</v>
+        <v>24</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5.7080999999999996E-7</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="12"/>
-        <v>3.3953400000000002E-3</v>
+        <v>5.1372900000000001E-7</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="13"/>
-        <v>4.14986E-3</v>
+        <v>6.2789100000000002E-7</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -8788,21 +7079,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="11">
-        <v>5.7080999999999996E-7</v>
+        <v>24</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.092E-8</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="12"/>
-        <v>5.1372900000000001E-7</v>
+        <v>9.8280000000000004E-9</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="13"/>
-        <v>6.2789100000000002E-7</v>
+        <v>1.2012E-8</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -8813,21 +7104,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1.092E-8</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4.8915999999999999E-9</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="12"/>
-        <v>9.8280000000000004E-9</v>
+        <v>4.4024399999999999E-9</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="13"/>
-        <v>1.2012E-8</v>
+        <v>5.3807600000000008E-9</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -8838,21 +7129,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="11">
-        <v>4.8915999999999999E-9</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.3243E-8</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="12"/>
-        <v>4.4024399999999999E-9</v>
+        <v>1.1918699999999999E-8</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="13"/>
-        <v>5.3807600000000008E-9</v>
+        <v>1.45673E-8</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -8863,21 +7154,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1.3243E-8</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="6">
+        <v>8.8386000000000005E-9</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="12"/>
-        <v>1.1918699999999999E-8</v>
+        <v>7.9547400000000006E-9</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="13"/>
-        <v>1.45673E-8</v>
+        <v>9.722460000000002E-9</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -8888,51 +7179,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="11">
-        <v>8.8386000000000005E-9</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2.0158000000000001E-8</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="12"/>
-        <v>7.9547400000000006E-9</v>
+        <v>1.8142200000000002E-8</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="13"/>
-        <v>9.722460000000002E-9</v>
+        <v>2.2173800000000003E-8</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2.0158000000000001E-8</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8142200000000002E-8</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="13"/>
-        <v>2.2173800000000003E-8</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8942,12 +7208,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8984,10 +7250,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*215840</f>
@@ -9010,10 +7276,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <f>0.7892/2500</f>
@@ -9036,10 +7302,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>2.5206</v>
@@ -9061,10 +7327,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>43.493000000000002</v>
@@ -9086,10 +7352,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1.2186000000000001E-2</v>
@@ -9111,10 +7377,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>4.8205000000000001E-3</v>
@@ -9136,10 +7402,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>5.3051000000000001E-3</v>
@@ -9161,10 +7427,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>8.9067999999999994E-3</v>
@@ -9186,13 +7452,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11">
-        <f>0.00099355/20+19/20*C25</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.00099355/20+19/20*C24</f>
         <v>5.0386599E-5</v>
       </c>
       <c r="D10" s="2">
@@ -9212,10 +7478,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>7.2306000000000002E-3</v>
@@ -9237,10 +7503,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>5.2544999999999996E-3</v>
@@ -9262,10 +7528,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1.7137000000000001E-3</v>
@@ -9287,10 +7553,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>3.3971000000000001E-3</v>
@@ -9312,10 +7578,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>3.0016999999999999E-3</v>
@@ -9337,10 +7603,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <f>0.0022275*115.03/245.41</f>
@@ -9363,10 +7629,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>4.4519E-3</v>
@@ -9388,10 +7654,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>9.2588000000000002E-4</v>
@@ -9413,10 +7679,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>1.5334000000000001E-3</v>
@@ -9438,10 +7704,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>1.9456E-3</v>
@@ -9463,13 +7729,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>6.7354050717807477</v>
       </c>
       <c r="D21" s="2">
@@ -9489,13 +7755,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>2.9648759230633998E-2</v>
       </c>
       <c r="D22" s="2">
@@ -9513,23 +7779,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.0350000000000004E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>4.5315000000000008E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>5.5385000000000009E-3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5.0350000000000004E-3</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7.4641999999999998E-7</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="10">C24*0.9</f>
-        <v>4.5315000000000008E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.71778E-7</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="11">C24*1.1</f>
-        <v>5.5385000000000009E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.2106200000000008E-7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -9540,21 +7831,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="11">
-        <v>7.4641999999999998E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.3090000000000003E-3</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="10"/>
-        <v>6.71778E-7</v>
+        <v>3.8781000000000002E-3</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>8.2106200000000008E-7</v>
+        <v>4.7399000000000009E-3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -9565,21 +7856,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>4.3090000000000003E-3</v>
+        <v>0.11305999999999999</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="10"/>
-        <v>3.8781000000000002E-3</v>
+        <v>0.101754</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="11"/>
-        <v>4.7399000000000009E-3</v>
+        <v>0.124366</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -9590,21 +7881,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>0.11305999999999999</v>
+        <v>8.1471000000000002E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="10"/>
-        <v>0.101754</v>
+        <v>7.3323899999999997E-2</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="11"/>
-        <v>0.124366</v>
+        <v>8.9618100000000006E-2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -9615,21 +7906,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>8.1471000000000002E-2</v>
+        <v>3.1377E-4</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="10"/>
-        <v>7.3323899999999997E-2</v>
+        <v>2.8239300000000003E-4</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="11"/>
-        <v>8.9618100000000006E-2</v>
+        <v>3.4514700000000002E-4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -9640,21 +7931,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>3.1377E-4</v>
+        <v>5.2544999999999996E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="10"/>
-        <v>2.8239300000000003E-4</v>
+        <v>4.7290499999999994E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="11"/>
-        <v>3.4514700000000002E-4</v>
+        <v>5.7799499999999998E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -9665,21 +7956,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>5.2544999999999996E-3</v>
+        <v>1.9456E-3</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="10"/>
-        <v>4.7290499999999994E-3</v>
+        <v>1.7510400000000001E-3</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="11"/>
-        <v>5.7799499999999998E-3</v>
+        <v>2.1401600000000003E-3</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -9693,18 +7984,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>1.9456E-3</v>
+        <v>7.6182999999999997E-3</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="10"/>
-        <v>1.7510400000000001E-3</v>
+        <v>6.8564699999999999E-3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>2.1401600000000003E-3</v>
+        <v>8.3801299999999995E-3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -9715,21 +8006,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
-        <v>7.6182999999999997E-3</v>
+        <v>1143.7</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="10"/>
-        <v>6.8564699999999999E-3</v>
+        <v>1029.3300000000002</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>8.3801299999999995E-3</v>
+        <v>1258.0700000000002</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -9740,21 +8031,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>1143.7</v>
+        <v>2.3601999999999998E-3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="10"/>
-        <v>1029.3300000000002</v>
+        <v>2.1241799999999998E-3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>1258.0700000000002</v>
+        <v>2.5962199999999998E-3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -9765,21 +8056,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2">
-        <v>2.3601999999999998E-3</v>
+        <v>9.9635999999999995E-4</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="10"/>
-        <v>2.1241799999999998E-3</v>
+        <v>8.96724E-4</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>2.5962199999999998E-3</v>
+        <v>1.0959960000000001E-3</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -9790,21 +8081,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9.9635999999999995E-4</v>
+        <v>25</v>
+      </c>
+      <c r="C35" s="6">
+        <v>7.2872000000000003E-5</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="10"/>
-        <v>8.96724E-4</v>
+        <v>6.5584800000000003E-5</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="11"/>
-        <v>1.0959960000000001E-3</v>
+        <v>8.0159200000000003E-5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -9815,21 +8106,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="11">
-        <v>7.2872000000000003E-5</v>
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.2102E-4</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>6.5584800000000003E-5</v>
+        <v>1.08918E-4</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>8.0159200000000003E-5</v>
+        <v>1.33122E-4</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -9840,21 +8131,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2">
-        <v>1.2102E-4</v>
+        <v>1.6155999999999999E-4</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="10"/>
-        <v>1.08918E-4</v>
+        <v>1.4540399999999999E-4</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="11"/>
-        <v>1.33122E-4</v>
+        <v>1.7771600000000002E-4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -9865,21 +8156,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>1.6155999999999999E-4</v>
+        <v>1.5334000000000001E-3</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="10"/>
-        <v>1.4540399999999999E-4</v>
+        <v>1.38006E-3</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="11"/>
-        <v>1.7771600000000002E-4</v>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
@@ -9888,28 +8179,979 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.5334000000000001E-3</v>
-      </c>
-      <c r="D39" s="2">
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1.26/74049000*2913900000</f>
+        <v>49.582222582344123</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
+        <v>44.624000324109709</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
+        <v>54.540444840578537</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <f>3196.2/2500</f>
+        <v>1.2784799999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1506319999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
+        <v>1.406328</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>79229</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <v>71306.100000000006</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <v>87151.900000000009</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1215800</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5" si="4">C5*0.9</f>
+        <v>1094220</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5" si="5">C5*1.1</f>
+        <v>1337380</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>164.73</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>148.25700000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>181.203</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25.210999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>22.689899999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>27.732099999999999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24.747</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="6">C8*0.9</f>
+        <v>22.272300000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8" si="7">C8*1.1</f>
+        <v>27.221700000000002</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>28.62</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>34.980000000000004</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <f>33.458/20+19/20*C24</f>
+        <v>1.6823781499999999</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.514140335</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.850615965</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.6915999999999993</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8224399999999994</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5607600000000001</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.5686999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>7.71183</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4255700000000004</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>461.54</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>415.38600000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>507.69400000000007</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.228</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>11.905200000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>14.550800000000001</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14.85</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>13.365</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>16.335000000000001</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <f>9.5931*115.03/245.41</f>
+        <v>4.4965335275661138</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+        <v>4.0468801748095027</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+        <v>4.9461868803227258</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>62.932000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>56.638800000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="9"/>
+        <v>69.225200000000001</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.3413000000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18*0.9</f>
+        <v>3.9071700000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C18*1.1</f>
+        <v>4.775430000000001</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.1274000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19*0.9</f>
+        <v>1.9146600000000003</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19*1.1</f>
+        <v>2.3401400000000003</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.9281000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20*0.9</f>
+        <v>2.6352900000000004</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20*1.1</f>
+        <v>3.2209100000000004</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>27306.372319349357</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21*0.9</f>
+        <v>24575.735087414421</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*1.1</f>
+        <v>30037.009551284296</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>369.79168803089993</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22*0.9</f>
+        <v>332.81251922780996</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C22*1.1</f>
+        <v>406.77085683398997</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14.368</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>12.9312</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>15.804800000000002</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.9769999999999998E-3</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="10"/>
-        <v>1.38006E-3</v>
-      </c>
-      <c r="E39" s="2">
+        <v>8.9793000000000008E-3</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="11"/>
-        <v>1.6867400000000002E-3</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
+        <v>1.09747E-2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>61.475000000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="10"/>
+        <v>55.327500000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="11"/>
+        <v>67.622500000000002</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>629.38</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="10"/>
+        <v>566.44200000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="11"/>
+        <v>692.3180000000001</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3167.2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="10"/>
+        <v>2850.48</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="11"/>
+        <v>3483.92</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.2511000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="10"/>
+        <v>1.12599</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3762100000000002</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.5686999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="10"/>
+        <v>7.71183</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="11"/>
+        <v>9.4255700000000004</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.9281000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="10"/>
+        <v>2.6352900000000004</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="11"/>
+        <v>3.2209100000000004</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17.436</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="10"/>
+        <v>15.692400000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="11"/>
+        <v>19.179600000000001</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4638900</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="10"/>
+        <v>4175010</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="11"/>
+        <v>5102790</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.4166000000000007</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="10"/>
+        <v>7.5749400000000007</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="11"/>
+        <v>9.2582600000000017</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.4612000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="10"/>
+        <v>1.31508</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6073200000000001</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.46216000000000002</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="10"/>
+        <v>0.41594400000000004</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50837600000000005</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.29720999999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="10"/>
+        <v>0.26748899999999998</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="11"/>
+        <v>0.32693099999999997</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.30595</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="10"/>
+        <v>0.27535500000000002</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.33654500000000004</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.1274000000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9146600000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3401400000000003</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9921,10 +9163,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9960,10 +9202,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*2640600</f>
@@ -9986,10 +9228,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <f>0.55013/2500</f>
@@ -10012,10 +9254,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>90.241</v>
@@ -10037,10 +9279,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1361.3</v>
@@ -10062,10 +9304,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>0.13854</v>
@@ -10087,10 +9329,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1.0697999999999999E-2</v>
@@ -10112,10 +9354,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>7.3124000000000001E-3</v>
@@ -10137,10 +9379,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>3.4791000000000002E-2</v>
@@ -10162,13 +9404,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11">
-        <f>0.03472/20+19/20*C25</f>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.03472/20+19/20*C24</f>
         <v>1.7418828750000001E-3</v>
       </c>
       <c r="D10" s="2">
@@ -10188,10 +9430,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>5.0937999999999999E-3</v>
@@ -10213,10 +9455,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>2.6273999999999998E-3</v>
@@ -10238,10 +9480,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>1.8606999999999999E-2</v>
@@ -10263,10 +9505,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>7.0044E-3</v>
@@ -10288,10 +9530,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>1.0029E-2</v>
@@ -10313,10 +9555,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <f>0.0063641*115.03/245.41</f>
@@ -10339,10 +9581,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>3.6741999999999997E-2</v>
@@ -10364,10 +9606,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>8.8329000000000001E-4</v>
@@ -10389,10 +9631,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>1.1245999999999999E-3</v>
@@ -10414,10 +9656,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>6.9251999999999996E-4</v>
@@ -10439,13 +9681,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
         <v>1.6167931320938957</v>
       </c>
       <c r="D21" s="2">
@@ -10465,13 +9707,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
         <v>0.28751694505445002</v>
       </c>
       <c r="D22" s="2">
@@ -10489,23 +9731,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.1164E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>1.00476E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>1.2280400000000002E-2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.1164E-2</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.1924999999999996E-6</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D39" si="10">C24*0.9</f>
-        <v>1.00476E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.5732499999999995E-6</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E39" si="11">C24*1.1</f>
-        <v>1.2280400000000002E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.8117500000000005E-6</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -10516,21 +9783,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6.1924999999999996E-6</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.2976000000000004E-2</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="10"/>
-        <v>5.5732499999999995E-6</v>
+        <v>5.6678400000000004E-2</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>6.8117500000000005E-6</v>
+        <v>6.9273600000000005E-2</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -10541,21 +9808,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>6.2976000000000004E-2</v>
+        <v>0.10345</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="10"/>
-        <v>5.6678400000000004E-2</v>
+        <v>9.3105000000000007E-2</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="11"/>
-        <v>6.9273600000000005E-2</v>
+        <v>0.11379500000000001</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -10566,21 +9833,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>0.10345</v>
+        <v>3.1156000000000001</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="10"/>
-        <v>9.3105000000000007E-2</v>
+        <v>2.8040400000000001</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="11"/>
-        <v>0.11379500000000001</v>
+        <v>3.4271600000000007</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -10591,21 +9858,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>3.1156000000000001</v>
+        <v>1.5154E-4</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="10"/>
-        <v>2.8040400000000001</v>
+        <v>1.3638600000000001E-4</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="11"/>
-        <v>3.4271600000000007</v>
+        <v>1.6669400000000003E-4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -10616,21 +9883,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>1.5154E-4</v>
+        <v>2.6273999999999998E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="10"/>
-        <v>1.3638600000000001E-4</v>
+        <v>2.3646599999999998E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="11"/>
-        <v>1.6669400000000003E-4</v>
+        <v>2.8901399999999998E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -10641,21 +9908,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>2.6273999999999998E-3</v>
+        <v>6.9251999999999996E-4</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="10"/>
-        <v>2.3646599999999998E-3</v>
+        <v>6.2326799999999996E-4</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="11"/>
-        <v>2.8901399999999998E-3</v>
+        <v>7.6177199999999997E-4</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -10669,18 +9936,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>6.9251999999999996E-4</v>
+        <v>8.2915000000000003E-3</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="10"/>
-        <v>6.2326799999999996E-4</v>
+        <v>7.4623500000000004E-3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>7.6177199999999997E-4</v>
+        <v>9.120650000000001E-3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -10691,21 +9958,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>8.2915000000000003E-3</v>
+        <v>273.49</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="10"/>
-        <v>7.4623500000000004E-3</v>
+        <v>246.14100000000002</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>9.120650000000001E-3</v>
+        <v>300.83900000000006</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -10716,21 +9983,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>273.49</v>
+        <v>5.1836E-3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="10"/>
-        <v>246.14100000000002</v>
+        <v>4.6652400000000002E-3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>300.83900000000006</v>
+        <v>5.7019600000000007E-3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -10741,21 +10008,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>5.1836E-3</v>
+        <v>7.0381999999999997E-4</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="10"/>
-        <v>4.6652400000000002E-3</v>
+        <v>6.3343799999999995E-4</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>5.7019600000000007E-3</v>
+        <v>7.7420199999999998E-4</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -10766,21 +10033,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
-        <v>7.0381999999999997E-4</v>
+        <v>4.1813000000000001E-4</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="10"/>
-        <v>6.3343799999999995E-4</v>
+        <v>3.7631700000000004E-4</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="11"/>
-        <v>7.7420199999999998E-4</v>
+        <v>4.5994300000000004E-4</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -10791,21 +10058,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>4.1813000000000001E-4</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9.1864E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>3.7631700000000004E-4</v>
+        <v>8.2677599999999996E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>4.5994300000000004E-4</v>
+        <v>1.010504E-4</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -10816,21 +10083,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="11">
-        <v>9.1864E-5</v>
+        <v>26</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.209E-4</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="10"/>
-        <v>8.2677599999999996E-5</v>
+        <v>1.0881E-4</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="11"/>
-        <v>1.010504E-4</v>
+        <v>1.3299000000000001E-4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -10841,51 +10108,26 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>1.209E-4</v>
+        <v>1.1245999999999999E-3</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="10"/>
-        <v>1.0881E-4</v>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="11"/>
-        <v>1.3299000000000001E-4</v>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.1245999999999999E-3</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0121399999999999E-3</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2370599999999999E-3</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54038BF8-CFF6-FF4F-8DC0-FE35FAE117A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DCC63-8CB9-EC46-9E13-F264DDD10B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="29500" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="12540" yWindow="29300" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="GlobalWarming" sheetId="14" r:id="rId5"/>
     <sheet name="OzoneDepletion" sheetId="15" r:id="rId6"/>
     <sheet name="PhotochemicalOxidation" sheetId="16" r:id="rId7"/>
-    <sheet name="NonCarcinogenics" sheetId="9" r:id="rId8"/>
-    <sheet name="Carcinogenics" sheetId="8" r:id="rId9"/>
+    <sheet name="Carcinogenics" sheetId="8" r:id="rId8"/>
+    <sheet name="NonCarcinogenics" sheetId="9" r:id="rId9"/>
     <sheet name="RespiratoryEffects" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="25"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,16 +1747,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <f>0.0013177*115.03/245.41</f>
-        <v>6.1763999429526105E-4</v>
+        <f>-0.0013177*115.03/245.41</f>
+        <v>-6.1763999429526105E-4</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
-        <v>5.5587599486573499E-4</v>
+        <v>-5.5587599486573499E-4</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
-        <v>6.7940399372478722E-4</v>
+        <v>-6.7940399372478722E-4</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1</v>
@@ -1773,15 +1773,15 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>3.1315000000000002E-3</v>
+        <v>-3.1315000000000002E-3</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>2.8183500000000003E-3</v>
+        <v>-2.8183500000000003E-3</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="7"/>
-        <v>3.4446500000000005E-3</v>
+        <v>-3.4446500000000005E-3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -2329,7 +2329,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2726,16 +2726,16 @@
         <v>21</v>
       </c>
       <c r="C16" s="2">
-        <f>0.26205*115.03/245.41</f>
-        <v>0.12282959740841858</v>
+        <f>-0.26205*115.03/245.41</f>
+        <v>-0.12282959740841858</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
-        <v>0.11054663766757672</v>
+        <v>-0.11054663766757672</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
-        <v>0.13511255714926043</v>
+        <v>-0.13511255714926043</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1</v>
@@ -2752,15 +2752,15 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>0.72916999999999998</v>
+        <v>-0.72916999999999998</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>0.65625299999999998</v>
+        <v>-0.65625299999999998</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="7"/>
-        <v>0.80208699999999999</v>
+        <v>-0.80208699999999999</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1</v>
@@ -3307,7 +3307,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3702,16 +3702,16 @@
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <f>0.57519*115.03/245.41</f>
-        <v>0.2696063962348722</v>
+        <f>-0.57519*115.03/245.41</f>
+        <v>-0.2696063962348722</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
-        <v>0.24264575661138499</v>
+        <v>-0.24264575661138499</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="3"/>
-        <v>0.29656703585835947</v>
+        <v>-0.29656703585835947</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1</v>
@@ -3728,15 +3728,15 @@
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>3.4746000000000001</v>
+        <v>-3.4746000000000001</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>3.1271400000000003</v>
+        <v>-3.1271400000000003</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="3"/>
-        <v>3.8220600000000005</v>
+        <v>-3.8220600000000005</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -4283,7 +4283,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,16 +4679,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <f>0.00037325*115.03/245.41</f>
-        <v>1.7495190701275417E-4</v>
+        <f>-0.00037325*115.03/245.41</f>
+        <v>-1.7495190701275417E-4</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16" si="6">C16*0.9</f>
-        <v>1.5745671631147877E-4</v>
+        <v>-1.5745671631147877E-4</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16" si="7">C16*1.1</f>
-        <v>1.924470977140296E-4</v>
+        <v>-1.924470977140296E-4</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1</v>
@@ -4705,15 +4705,15 @@
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>2.4632999999999999E-3</v>
+        <v>-2.4632999999999999E-3</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="8">C17*0.9</f>
-        <v>2.21697E-3</v>
+        <v>-2.21697E-3</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17" si="9">C17*1.1</f>
-        <v>2.7096300000000002E-3</v>
+        <v>-2.7096300000000002E-3</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1</v>
@@ -5259,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5654,16 +5654,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <f>0.89786*115.03/245.41</f>
-        <v>0.42085015199054648</v>
+        <f>-0.89786*115.03/245.41</f>
+        <v>-0.42085015199054648</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
-        <v>0.37876513679149182</v>
+        <v>-0.37876513679149182</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
-        <v>0.46293516718960115</v>
+        <v>-0.46293516718960115</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1</v>
@@ -5680,15 +5680,15 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>1.2499</v>
+        <v>-1.2499</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>1.1249100000000001</v>
+        <v>-1.1249100000000001</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="7"/>
-        <v>1.3748900000000002</v>
+        <v>-1.3748900000000002</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1</v>
@@ -6236,7 +6236,984 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1.26/74049000*4.2208</f>
+        <v>7.1820119110318827E-8</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
+        <v>6.4638107199286951E-8</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
+        <v>7.9002131021350716E-8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <f>0.000015044/2500</f>
+        <v>6.0176000000000004E-9</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4158400000000006E-9</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
+        <v>6.619360000000001E-9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.5494999999999997E-5</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <v>4.0945499999999996E-5</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <v>5.0044499999999998E-5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.7645000000000004E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5" si="4">C5*0.9</f>
+        <v>6.9880500000000004E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5" si="5">C5*1.1</f>
+        <v>8.5409500000000014E-4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.9641E-7</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7676900000000001E-7</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1605100000000001E-7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8.7602999999999994E-8</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8842699999999997E-8</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6363300000000004E-8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0173E-7</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="6">C8*0.9</f>
+        <v>9.1557000000000004E-8</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8" si="7">C8*1.1</f>
+        <v>1.1190300000000001E-7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.5540999999999998E-7</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2986899999999998E-7</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8095100000000001E-7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <f>0.000000014828/20+19/20*C24</f>
+        <v>8.9441650000000002E-10</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0497485000000006E-10</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.8385815000000019E-10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4.9409999999999997E-8</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4468999999999999E-8</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>5.4351000000000001E-8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.801E-6</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6209E-6</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9811E-6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.5364000000000001E-8</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3827600000000001E-8</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6900400000000004E-8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.8932000000000003E-7</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1038799999999999E-7</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.6825200000000006E-7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.2182999999999999E-8</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2964699999999999E-8</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0140130000000001E-7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <f>-0.000000048973*115.03/245.41</f>
+        <v>-2.2954908887168412E-8</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+        <v>-2.0659417998451572E-8</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+        <v>-2.5250399775885256E-8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-6.1237999999999996E-8</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>-5.5114199999999997E-8</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.7361800000000007E-8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.1717999999999999E-7</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18*0.9</f>
+        <v>1.9546200000000001E-7</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C18*1.1</f>
+        <v>2.38898E-7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2.0158000000000001E-8</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19*0.9</f>
+        <v>1.8142200000000002E-8</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19*1.1</f>
+        <v>2.2173800000000003E-8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6.4204E-7</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="10">C20*0.9</f>
+        <v>5.7783600000000004E-7</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20" si="11">C20*1.1</f>
+        <v>7.0624400000000006E-7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
+        <v>2.2343652004299671E-5</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21*0.9</f>
+        <v>2.0109286803869706E-5</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*1.1</f>
+        <v>2.4578017204729639E-5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
+        <v>1.3924763763789999E-6</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22*0.9</f>
+        <v>1.2532287387411E-6</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C22*1.1</f>
+        <v>1.5317240140169E-6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.4991E-7</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D38" si="12">C23*0.9</f>
+        <v>1.3491899999999999E-7</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E38" si="13">C23*1.1</f>
+        <v>1.64901E-7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.6106999999999999E-10</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4496300000000001E-10</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="13"/>
+        <v>1.77177E-10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.4737999999999999E-7</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="12"/>
+        <v>1.32642E-7</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="13"/>
+        <v>1.62118E-7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3.0492000000000001E-7</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="12"/>
+        <v>2.74428E-7</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3541200000000001E-7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3.7824E-6</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4041600000000001E-6</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="13"/>
+        <v>4.1606400000000007E-6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.5302E-8</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="12"/>
+        <v>1.37718E-8</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="13"/>
+        <v>1.6832200000000002E-8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.801E-6</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6209E-6</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9811E-6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.4204E-7</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="12"/>
+        <v>5.7783600000000004E-7</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="13"/>
+        <v>7.0624400000000006E-7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6">
+        <v>8.8093999999999995E-8</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="12"/>
+        <v>7.9284600000000003E-8</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="13"/>
+        <v>9.6903399999999999E-8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.7726000000000001E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="12"/>
+        <v>3.3953400000000002E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="13"/>
+        <v>4.14986E-3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5.7080999999999996E-7</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="12"/>
+        <v>5.1372900000000001E-7</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="13"/>
+        <v>6.2789100000000002E-7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.092E-8</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="12"/>
+        <v>9.8280000000000004E-9</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2012E-8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4.8915999999999999E-9</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="12"/>
+        <v>4.4024399999999999E-9</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="13"/>
+        <v>5.3807600000000008E-9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.3243E-8</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1918699999999999E-8</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="13"/>
+        <v>1.45673E-8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6">
+        <v>8.8386000000000005E-9</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="12"/>
+        <v>7.9547400000000006E-9</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="13"/>
+        <v>9.722460000000002E-9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2.0158000000000001E-8</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="12"/>
+        <v>1.8142200000000002E-8</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2173800000000003E-8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6276,19 +7253,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <f>1.26/74049000*4.2208</f>
-        <v>7.1820119110318827E-8</v>
+        <f>1.26/74049000*215840</f>
+        <v>3.6726816027225213E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
-        <v>6.4638107199286951E-8</v>
+        <v>3.3054134424502692E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
-        <v>7.9002131021350716E-8</v>
+        <v>4.0399497629947734E-3</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -6302,19 +7279,19 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6">
-        <f>0.000015044/2500</f>
-        <v>6.0176000000000004E-9</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <f>0.7892/2500</f>
+        <v>3.1567999999999999E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>5.4158400000000006E-9</v>
+        <v>2.8411199999999999E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>6.619360000000001E-9</v>
+        <v>3.4724800000000003E-4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -6328,18 +7305,18 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4.5494999999999997E-5</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.5206</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
-        <v>4.0945499999999996E-5</v>
+        <v>2.2685400000000002</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
-        <v>5.0044499999999998E-5</v>
+        <v>2.7726600000000001</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -6353,18 +7330,18 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>7.7645000000000004E-4</v>
+        <v>43.493000000000002</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="4">C5*0.9</f>
-        <v>6.9880500000000004E-4</v>
+        <v>39.143700000000003</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5" si="5">C5*1.1</f>
-        <v>8.5409500000000014E-4</v>
+        <v>47.842300000000009</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>1</v>
@@ -6378,18 +7355,18 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.9641E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2186000000000001E-2</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
-        <v>1.7676900000000001E-7</v>
+        <v>1.09674E-2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="3"/>
-        <v>2.1605100000000001E-7</v>
+        <v>1.3404600000000003E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -6403,18 +7380,18 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8.7602999999999994E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.8205000000000001E-3</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>7.8842699999999997E-8</v>
+        <v>4.3384500000000006E-3</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>9.6363300000000004E-8</v>
+        <v>5.3025500000000005E-3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -6428,18 +7405,18 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.0173E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.3051000000000001E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8" si="6">C8*0.9</f>
-        <v>9.1557000000000004E-8</v>
+        <v>4.7745900000000004E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8" si="7">C8*1.1</f>
-        <v>1.1190300000000001E-7</v>
+        <v>5.8356100000000006E-3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>1</v>
@@ -6453,18 +7430,18 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.5540999999999998E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.9067999999999994E-3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>2.2986899999999998E-7</v>
+        <v>8.0161199999999998E-3</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>2.8095100000000001E-7</v>
+        <v>9.7974800000000008E-3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -6478,19 +7455,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
-        <f>0.000000014828/20+19/20*C24</f>
-        <v>8.9441650000000002E-10</v>
+        <f>0.00099355/20+19/20*C24</f>
+        <v>5.0386599E-5</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>8.0497485000000006E-10</v>
+        <v>4.5347939099999998E-5</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>9.8385815000000019E-10</v>
+        <v>5.5425258900000002E-5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1</v>
@@ -6504,18 +7481,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4.9409999999999997E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.2306000000000002E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>4.4468999999999999E-8</v>
+        <v>6.50754E-3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>5.4351000000000001E-8</v>
+        <v>7.9536600000000013E-3</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>1</v>
@@ -6529,18 +7506,18 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.801E-6</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.2544999999999996E-3</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>1.6209E-6</v>
+        <v>4.7290499999999994E-3</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
-        <v>1.9811E-6</v>
+        <v>5.7799499999999998E-3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>1</v>
@@ -6554,18 +7531,18 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.5364000000000001E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.7137000000000001E-3</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>1.3827600000000001E-8</v>
+        <v>1.5423300000000002E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>1.6900400000000004E-8</v>
+        <v>1.8850700000000002E-3</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1</v>
@@ -6579,18 +7556,18 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7.8932000000000003E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.3971000000000001E-3</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>7.1038799999999999E-7</v>
+        <v>3.0573900000000001E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>8.6825200000000006E-7</v>
+        <v>3.7368100000000006E-3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>1</v>
@@ -6604,18 +7581,18 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6">
-        <v>9.2182999999999999E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.0016999999999999E-3</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>8.2964699999999999E-8</v>
+        <v>2.7015300000000002E-3</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>1.0140130000000001E-7</v>
+        <v>3.3018700000000002E-3</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1</v>
@@ -6629,24 +7606,24 @@
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
-        <f>0.000000048973*115.03/245.41</f>
-        <v>2.2954908887168412E-8</v>
+        <f>-0.0022275*115.03/245.41</f>
+        <v>-1.0440867324069923E-3</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
-        <v>2.0659417998451572E-8</v>
+        <v>-9.3967805916629306E-4</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
-        <v>2.5250399775885256E-8</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>-1.1484954056476917E-3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6655,23 +7632,23 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6.1237999999999996E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-4.4519E-3</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="8"/>
-        <v>5.5114199999999997E-8</v>
+        <v>-4.0067100000000001E-3</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="9"/>
-        <v>6.7361800000000007E-8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+        <v>-4.8970900000000006E-3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6680,18 +7657,18 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.1717999999999999E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.2588000000000002E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>1.9546200000000001E-7</v>
+        <v>8.3329200000000002E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>2.38898E-7</v>
+        <v>1.018468E-3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -6705,18 +7682,18 @@
         <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.0158000000000001E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.5334000000000001E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.8142200000000002E-8</v>
+        <v>1.38006E-3</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>2.2173800000000003E-8</v>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -6730,18 +7707,18 @@
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6.4204E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.9456E-3</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20" si="10">C20*0.9</f>
-        <v>5.7783600000000004E-7</v>
+        <f>C20*0.9</f>
+        <v>1.7510400000000001E-3</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20" si="11">C20*1.1</f>
-        <v>7.0624400000000006E-7</v>
+        <f>C20*1.1</f>
+        <v>2.1401600000000003E-3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -6755,19 +7732,19 @@
         <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>2.2343652004299671E-5</v>
+        <v>6.7354050717807477</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>2.0109286803869706E-5</v>
+        <v>6.061864564602673</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>2.4578017204729639E-5</v>
+        <v>7.4089455789588232</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -6781,19 +7758,19 @@
         <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>1.3924763763789999E-6</v>
+        <v>2.9648759230633998E-2</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>1.2532287387411E-6</v>
+        <v>2.6683883307570599E-2</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>1.5317240140169E-6</v>
+        <v>3.2613635153697404E-2</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -6807,18 +7784,18 @@
         <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1.4991E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.0350000000000004E-3</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="12">C23*0.9</f>
-        <v>1.3491899999999999E-7</v>
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <v>4.5315000000000008E-3</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="13">C23*1.1</f>
-        <v>1.64901E-7</v>
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <v>5.5385000000000009E-3</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -6832,18 +7809,18 @@
         <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6">
-        <v>1.6106999999999999E-10</v>
+        <v>7.4641999999999998E-7</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4496300000000001E-10</v>
+        <f t="shared" si="10"/>
+        <v>6.71778E-7</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="13"/>
-        <v>1.77177E-10</v>
+        <f t="shared" si="11"/>
+        <v>8.2106200000000008E-7</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -6857,18 +7834,18 @@
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1.4737999999999999E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.3090000000000003E-3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="12"/>
-        <v>1.32642E-7</v>
+        <f t="shared" si="10"/>
+        <v>3.8781000000000002E-3</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="13"/>
-        <v>1.62118E-7</v>
+        <f t="shared" si="11"/>
+        <v>4.7399000000000009E-3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -6882,18 +7859,18 @@
         <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3.0492000000000001E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.11305999999999999</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="12"/>
-        <v>2.74428E-7</v>
+        <f t="shared" si="10"/>
+        <v>0.101754</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="13"/>
-        <v>3.3541200000000001E-7</v>
+        <f t="shared" si="11"/>
+        <v>0.124366</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -6907,18 +7884,18 @@
         <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3.7824E-6</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.1471000000000002E-2</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="12"/>
-        <v>3.4041600000000001E-6</v>
+        <f t="shared" si="10"/>
+        <v>7.3323899999999997E-2</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="13"/>
-        <v>4.1606400000000007E-6</v>
+        <f t="shared" si="11"/>
+        <v>8.9618100000000006E-2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -6932,18 +7909,18 @@
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1.5302E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.1377E-4</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="12"/>
-        <v>1.37718E-8</v>
+        <f t="shared" si="10"/>
+        <v>2.8239300000000003E-4</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="13"/>
-        <v>1.6832200000000002E-8</v>
+        <f t="shared" si="11"/>
+        <v>3.4514700000000002E-4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -6957,18 +7934,18 @@
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1.801E-6</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5.2544999999999996E-3</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6209E-6</v>
+        <f t="shared" si="10"/>
+        <v>4.7290499999999994E-3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="13"/>
-        <v>1.9811E-6</v>
+        <f t="shared" si="11"/>
+        <v>5.7799499999999998E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -6982,18 +7959,18 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6.4204E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.9456E-3</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="12"/>
-        <v>5.7783600000000004E-7</v>
+        <f t="shared" si="10"/>
+        <v>1.7510400000000001E-3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="13"/>
-        <v>7.0624400000000006E-7</v>
+        <f t="shared" si="11"/>
+        <v>2.1401600000000003E-3</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -7007,18 +7984,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="6">
-        <v>8.8093999999999995E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7.6182999999999997E-3</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="12"/>
-        <v>7.9284600000000003E-8</v>
+        <f t="shared" si="10"/>
+        <v>6.8564699999999999E-3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="13"/>
-        <v>9.6903399999999999E-8</v>
+        <f t="shared" si="11"/>
+        <v>8.3801299999999995E-3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -7032,18 +8009,18 @@
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
-        <v>3.7726000000000001E-3</v>
+        <v>1143.7</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="12"/>
-        <v>3.3953400000000002E-3</v>
+        <f t="shared" si="10"/>
+        <v>1029.3300000000002</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="13"/>
-        <v>4.14986E-3</v>
+        <f t="shared" si="11"/>
+        <v>1258.0700000000002</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -7057,18 +8034,18 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="6">
-        <v>5.7080999999999996E-7</v>
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.3601999999999998E-3</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="12"/>
-        <v>5.1372900000000001E-7</v>
+        <f t="shared" si="10"/>
+        <v>2.1241799999999998E-3</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="13"/>
-        <v>6.2789100000000002E-7</v>
+        <f t="shared" si="11"/>
+        <v>2.5962199999999998E-3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -7082,18 +8059,18 @@
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1.092E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.9635999999999995E-4</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="12"/>
-        <v>9.8280000000000004E-9</v>
+        <f t="shared" si="10"/>
+        <v>8.96724E-4</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="13"/>
-        <v>1.2012E-8</v>
+        <f t="shared" si="11"/>
+        <v>1.0959960000000001E-3</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -7107,18 +8084,18 @@
         <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6">
-        <v>4.8915999999999999E-9</v>
+        <v>7.2872000000000003E-5</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="12"/>
-        <v>4.4024399999999999E-9</v>
+        <f t="shared" si="10"/>
+        <v>6.5584800000000003E-5</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="13"/>
-        <v>5.3807600000000008E-9</v>
+        <f t="shared" si="11"/>
+        <v>8.0159200000000003E-5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -7132,18 +8109,18 @@
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1.3243E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.2102E-4</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1918699999999999E-8</v>
+        <f t="shared" si="10"/>
+        <v>1.08918E-4</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="13"/>
-        <v>1.45673E-8</v>
+        <f t="shared" si="11"/>
+        <v>1.33122E-4</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -7157,18 +8134,18 @@
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="6">
-        <v>8.8386000000000005E-9</v>
+        <v>25</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.6155999999999999E-4</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="12"/>
-        <v>7.9547400000000006E-9</v>
+        <f t="shared" si="10"/>
+        <v>1.4540399999999999E-4</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="13"/>
-        <v>9.722460000000002E-9</v>
+        <f t="shared" si="11"/>
+        <v>1.7771600000000002E-4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -7182,18 +8159,18 @@
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2.0158000000000001E-8</v>
+        <v>25</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.5334000000000001E-3</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8142200000000002E-8</v>
+        <f t="shared" si="10"/>
+        <v>1.38006E-3</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="13"/>
-        <v>2.2173800000000003E-8</v>
+        <f t="shared" si="11"/>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
@@ -7208,19 +8185,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7253,19 +8229,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
-        <f>1.26/74049000*215840</f>
-        <v>3.6726816027225213E-3</v>
+        <f>1.26/74049000*2640600</f>
+        <v>4.4931815419519502E-2</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
-        <v>3.3054134424502692E-3</v>
+        <v>4.0438633877567555E-2</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
-        <v>4.0399497629947734E-3</v>
+        <v>4.9424996961471457E-2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -7279,19 +8255,19 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <f>0.7892/2500</f>
-        <v>3.1567999999999999E-4</v>
+        <f>0.55013/2500</f>
+        <v>2.2005200000000001E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>2.8411199999999999E-4</v>
+        <v>1.9804680000000001E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.4724800000000003E-4</v>
+        <v>2.4205720000000004E-4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -7305,18 +8281,18 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>2.5206</v>
+        <v>90.241</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
-        <v>2.2685400000000002</v>
+        <v>81.216899999999995</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
-        <v>2.7726600000000001</v>
+        <v>99.265100000000004</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -7330,18 +8306,18 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>43.493000000000002</v>
+        <v>1361.3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="4">C5*0.9</f>
-        <v>39.143700000000003</v>
+        <v>1225.17</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5" si="5">C5*1.1</f>
-        <v>47.842300000000009</v>
+        <v>1497.43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>1</v>
@@ -7355,18 +8331,18 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>1.2186000000000001E-2</v>
+        <v>0.13854</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
-        <v>1.09674E-2</v>
+        <v>0.12468600000000001</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="3"/>
-        <v>1.3404600000000003E-2</v>
+        <v>0.152394</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -7380,18 +8356,18 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>4.8205000000000001E-3</v>
+        <v>1.0697999999999999E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>4.3384500000000006E-3</v>
+        <v>9.6282E-3</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>5.3025500000000005E-3</v>
+        <v>1.17678E-2</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -7405,18 +8381,18 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>5.3051000000000001E-3</v>
+        <v>7.3124000000000001E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8" si="6">C8*0.9</f>
-        <v>4.7745900000000004E-3</v>
+        <v>6.58116E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8" si="7">C8*1.1</f>
-        <v>5.8356100000000006E-3</v>
+        <v>8.0436400000000012E-3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>1</v>
@@ -7430,18 +8406,18 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>8.9067999999999994E-3</v>
+        <v>3.4791000000000002E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>8.0161199999999998E-3</v>
+        <v>3.1311900000000004E-2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
-        <v>9.7974800000000008E-3</v>
+        <v>3.8270100000000008E-2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -7455,19 +8431,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
-        <f>0.00099355/20+19/20*C24</f>
-        <v>5.0386599E-5</v>
+        <f>0.03472/20+19/20*C24</f>
+        <v>1.7418828750000001E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>4.5347939099999998E-5</v>
+        <v>1.5676945875000002E-3</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>5.5425258900000002E-5</v>
+        <v>1.9160711625000003E-3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1</v>
@@ -7481,18 +8457,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>7.2306000000000002E-3</v>
+        <v>5.0937999999999999E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>6.50754E-3</v>
+        <v>4.5844199999999996E-3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>7.9536600000000013E-3</v>
+        <v>5.6031800000000001E-3</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>1</v>
@@ -7506,18 +8482,18 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>5.2544999999999996E-3</v>
+        <v>2.6273999999999998E-3</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>4.7290499999999994E-3</v>
+        <v>2.3646599999999998E-3</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
-        <v>5.7799499999999998E-3</v>
+        <v>2.8901399999999998E-3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>1</v>
@@ -7531,18 +8507,18 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>1.7137000000000001E-3</v>
+        <v>1.8606999999999999E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>1.5423300000000002E-3</v>
+        <v>1.6746299999999999E-2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>1.8850700000000002E-3</v>
+        <v>2.0467699999999998E-2</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1</v>
@@ -7556,18 +8532,18 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>3.3971000000000001E-3</v>
+        <v>7.0044E-3</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>3.0573900000000001E-3</v>
+        <v>6.3039599999999999E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>3.7368100000000006E-3</v>
+        <v>7.704840000000001E-3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>1</v>
@@ -7581,18 +8557,18 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>3.0016999999999999E-3</v>
+        <v>1.0029E-2</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>2.7015300000000002E-3</v>
+        <v>9.0261000000000004E-3</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>3.3018700000000002E-3</v>
+        <v>1.1031900000000001E-2</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1</v>
@@ -7606,19 +8582,19 @@
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <f>0.0022275*115.03/245.41</f>
-        <v>1.0440867324069923E-3</v>
+        <f>-0.0063641*115.03/245.41</f>
+        <v>-2.9830179006560451E-3</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
-        <v>9.3967805916629306E-4</v>
+        <v>-2.6847161105904406E-3</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
-        <v>1.1484954056476917E-3</v>
+        <v>-3.28131969072165E-3</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1</v>
@@ -7632,18 +8608,18 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>4.4519E-3</v>
+        <v>-3.6741999999999997E-2</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="8"/>
-        <v>4.0067100000000001E-3</v>
+        <v>-3.3067800000000001E-2</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="9"/>
-        <v>4.8970900000000006E-3</v>
+        <v>-4.0416199999999999E-2</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -7657,18 +8633,18 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>9.2588000000000002E-4</v>
+        <v>8.8329000000000001E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>8.3329200000000002E-4</v>
+        <v>7.9496100000000006E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>1.018468E-3</v>
+        <v>9.7161900000000006E-4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -7682,18 +8658,18 @@
         <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>1.5334000000000001E-3</v>
+        <v>1.1245999999999999E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.38006E-3</v>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.6867400000000002E-3</v>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -7707,18 +8683,18 @@
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>1.9456E-3</v>
+        <v>6.9251999999999996E-4</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>1.7510400000000001E-3</v>
+        <v>6.2326799999999996E-4</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>2.1401600000000003E-3</v>
+        <v>7.6177199999999997E-4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -7732,19 +8708,19 @@
         <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>6.7354050717807477</v>
+        <v>1.6167931320938957</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>6.061864564602673</v>
+        <v>1.4551138188845063</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>7.4089455789588232</v>
+        <v>1.7784724453032854</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -7758,19 +8734,19 @@
         <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>2.9648759230633998E-2</v>
+        <v>0.28751694505445002</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>2.6683883307570599E-2</v>
+        <v>0.25876525054900501</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>3.2613635153697404E-2</v>
+        <v>0.31626863955989504</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -7784,18 +8760,18 @@
         <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0350000000000004E-3</v>
+        <v>1.1164E-2</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>4.5315000000000008E-3</v>
+        <v>1.00476E-2</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>5.5385000000000009E-3</v>
+        <v>1.2280400000000002E-2</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1</v>
@@ -7809,18 +8785,18 @@
         <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
-        <v>7.4641999999999998E-7</v>
+        <v>6.1924999999999996E-6</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="10"/>
-        <v>6.71778E-7</v>
+        <v>5.5732499999999995E-6</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="11"/>
-        <v>8.2106200000000008E-7</v>
+        <v>6.8117500000000005E-6</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1</v>
@@ -7834,18 +8810,18 @@
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>4.3090000000000003E-3</v>
+        <v>6.2976000000000004E-2</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="10"/>
-        <v>3.8781000000000002E-3</v>
+        <v>5.6678400000000004E-2</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>4.7399000000000009E-3</v>
+        <v>6.9273600000000005E-2</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1</v>
@@ -7859,18 +8835,18 @@
         <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>0.11305999999999999</v>
+        <v>0.10345</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="10"/>
-        <v>0.101754</v>
+        <v>9.3105000000000007E-2</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="11"/>
-        <v>0.124366</v>
+        <v>0.11379500000000001</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -7884,18 +8860,18 @@
         <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>8.1471000000000002E-2</v>
+        <v>3.1156000000000001</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="10"/>
-        <v>7.3323899999999997E-2</v>
+        <v>2.8040400000000001</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="11"/>
-        <v>8.9618100000000006E-2</v>
+        <v>3.4271600000000007</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1</v>
@@ -7909,18 +8885,18 @@
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>3.1377E-4</v>
+        <v>1.5154E-4</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="10"/>
-        <v>2.8239300000000003E-4</v>
+        <v>1.3638600000000001E-4</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="11"/>
-        <v>3.4514700000000002E-4</v>
+        <v>1.6669400000000003E-4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
@@ -7934,18 +8910,18 @@
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>5.2544999999999996E-3</v>
+        <v>2.6273999999999998E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="10"/>
-        <v>4.7290499999999994E-3</v>
+        <v>2.3646599999999998E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="11"/>
-        <v>5.7799499999999998E-3</v>
+        <v>2.8901399999999998E-3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
@@ -7959,18 +8935,18 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>1.9456E-3</v>
+        <v>6.9251999999999996E-4</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="10"/>
-        <v>1.7510400000000001E-3</v>
+        <v>6.2326799999999996E-4</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="11"/>
-        <v>2.1401600000000003E-3</v>
+        <v>7.6177199999999997E-4</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1</v>
@@ -7984,18 +8960,18 @@
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>7.6182999999999997E-3</v>
+        <v>8.2915000000000003E-3</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="10"/>
-        <v>6.8564699999999999E-3</v>
+        <v>7.4623500000000004E-3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="11"/>
-        <v>8.3801299999999995E-3</v>
+        <v>9.120650000000001E-3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -8009,18 +8985,18 @@
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>1143.7</v>
+        <v>273.49</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="10"/>
-        <v>1029.3300000000002</v>
+        <v>246.14100000000002</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="11"/>
-        <v>1258.0700000000002</v>
+        <v>300.83900000000006</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1</v>
@@ -8034,18 +9010,18 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>2.3601999999999998E-3</v>
+        <v>5.1836E-3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="10"/>
-        <v>2.1241799999999998E-3</v>
+        <v>4.6652400000000002E-3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>2.5962199999999998E-3</v>
+        <v>5.7019600000000007E-3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1</v>
@@ -8059,18 +9035,18 @@
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>9.9635999999999995E-4</v>
+        <v>7.0381999999999997E-4</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="10"/>
-        <v>8.96724E-4</v>
+        <v>6.3343799999999995E-4</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="11"/>
-        <v>1.0959960000000001E-3</v>
+        <v>7.7420199999999998E-4</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1</v>
@@ -8084,18 +9060,18 @@
         <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="6">
-        <v>7.2872000000000003E-5</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.1813000000000001E-4</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="10"/>
-        <v>6.5584800000000003E-5</v>
+        <v>3.7631700000000004E-4</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="11"/>
-        <v>8.0159200000000003E-5</v>
+        <v>4.5994300000000004E-4</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1</v>
@@ -8109,18 +9085,18 @@
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1.2102E-4</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9.1864E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>1.08918E-4</v>
+        <v>8.2677599999999996E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>1.33122E-4</v>
+        <v>1.010504E-4</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -8134,18 +9110,18 @@
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2">
-        <v>1.6155999999999999E-4</v>
+        <v>1.209E-4</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="10"/>
-        <v>1.4540399999999999E-4</v>
+        <v>1.0881E-4</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="11"/>
-        <v>1.7771600000000002E-4</v>
+        <v>1.3299000000000001E-4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -8159,18 +9135,18 @@
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>1.5334000000000001E-3</v>
+        <v>1.1245999999999999E-3</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="10"/>
-        <v>1.38006E-3</v>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="11"/>
-        <v>1.6867400000000002E-3</v>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
@@ -8185,12 +9161,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8585,16 +9561,16 @@
         <v>27</v>
       </c>
       <c r="C16" s="2">
-        <f>9.5931*115.03/245.41</f>
-        <v>4.4965335275661138</v>
+        <f>-9.5931*115.03/245.41</f>
+        <v>-4.4965335275661138</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
-        <v>4.0468801748095027</v>
+        <v>-4.0468801748095027</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
-        <v>4.9461868803227258</v>
+        <v>-4.9461868803227258</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1</v>
@@ -8611,15 +9587,15 @@
         <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>62.932000000000002</v>
+        <v>-62.932000000000002</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="8"/>
-        <v>56.638800000000003</v>
+        <v>-56.638800000000003</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="9"/>
-        <v>69.225200000000001</v>
+        <v>-69.225200000000001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -9147,982 +10123,6 @@
       <c r="E38" s="2">
         <f t="shared" si="11"/>
         <v>2.3401400000000003</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
-        <f>1.26/74049000*2640600</f>
-        <v>4.4931815419519502E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D3" si="0">C2*0.9</f>
-        <v>4.0438633877567555E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
-        <v>4.9424996961471457E-2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <f>0.55013/2500</f>
-        <v>2.2005200000000001E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9804680000000001E-4</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4205720000000004E-4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>90.241</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
-        <v>81.216899999999995</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
-        <v>99.265100000000004</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1361.3</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5" si="4">C5*0.9</f>
-        <v>1225.17</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5" si="5">C5*1.1</f>
-        <v>1497.43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.13854</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.12468600000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.152394</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0697999999999999E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>9.6282E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="3"/>
-        <v>1.17678E-2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7.3124000000000001E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8" si="6">C8*0.9</f>
-        <v>6.58116E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8" si="7">C8*1.1</f>
-        <v>8.0436400000000012E-3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.4791000000000002E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>3.1311900000000004E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>3.8270100000000008E-2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6">
-        <f>0.03472/20+19/20*C24</f>
-        <v>1.7418828750000001E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5676945875000002E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9160711625000003E-3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.0937999999999999E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5844199999999996E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>5.6031800000000001E-3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.6273999999999998E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3646599999999998E-3</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8901399999999998E-3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.8606999999999999E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6746299999999999E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0467699999999998E-2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7.0044E-3</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3039599999999999E-3</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>7.704840000000001E-3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.0029E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>9.0261000000000004E-3</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1031900000000001E-2</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2">
-        <f>0.0063641*115.03/245.41</f>
-        <v>2.9830179006560451E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
-        <v>2.6847161105904406E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
-        <v>3.28131969072165E-3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3.6741999999999997E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>3.3067800000000001E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>4.0416199999999999E-2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.8329000000000001E-4</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>7.9496100000000006E-4</v>
-      </c>
-      <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>9.7161900000000006E-4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.1245999999999999E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>1.0121399999999999E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>1.2370599999999999E-3</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6.9251999999999996E-4</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20*0.9</f>
-        <v>6.2326799999999996E-4</v>
-      </c>
-      <c r="E20" s="2">
-        <f>C20*1.1</f>
-        <v>7.6177199999999997E-4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>1.6167931320938957</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>1.4551138188845063</v>
-      </c>
-      <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>1.7784724453032854</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>0.28751694505445002</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22*0.9</f>
-        <v>0.25876525054900501</v>
-      </c>
-      <c r="E22" s="2">
-        <f>C22*1.1</f>
-        <v>0.31626863955989504</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.1164E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>1.00476E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>1.2280400000000002E-2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6.1924999999999996E-6</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5732499999999995E-6</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>6.8117500000000005E-6</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6.2976000000000004E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>5.6678400000000004E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>6.9273600000000005E-2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.10345</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>9.3105000000000007E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>0.11379500000000001</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3.1156000000000001</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8040400000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>3.4271600000000007</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.5154E-4</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3638600000000001E-4</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6669400000000003E-4</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2.6273999999999998E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3646599999999998E-3</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>2.8901399999999998E-3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6.9251999999999996E-4</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>6.2326799999999996E-4</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>7.6177199999999997E-4</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8.2915000000000003E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>7.4623500000000004E-3</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>9.120650000000001E-3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="2">
-        <v>273.49</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>246.14100000000002</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>300.83900000000006</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5.1836E-3</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>4.6652400000000002E-3</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>5.7019600000000007E-3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7.0381999999999997E-4</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>6.3343799999999995E-4</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>7.7420199999999998E-4</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4.1813000000000001E-4</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>3.7631700000000004E-4</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>4.5994300000000004E-4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="6">
-        <v>9.1864E-5</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>8.2677599999999996E-5</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>1.010504E-4</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.209E-4</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0881E-4</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3299000000000001E-4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1.1245999999999999E-3</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0121399999999999E-3</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DCC63-8CB9-EC46-9E13-F264DDD10B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FA609-58FA-3947-A20F-6F7B7606D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="29300" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="11240" yWindow="4660" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>RoW</t>
   </si>
   <si>
-    <t>natural gas liquids production</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
@@ -282,18 +279,12 @@
     <t>market for cooling energy</t>
   </si>
   <si>
-    <t>natural gas, burned in micro gas turbine</t>
-  </si>
-  <si>
     <t>diluted to 5% using deionized water</t>
   </si>
   <si>
     <t>Rhodium</t>
   </si>
   <si>
-    <t>liquid/if used, account for  CO2 emission here, add to GWP only, MW of natural gas is 19 (1 C): https://www.engineeringtoolbox.com/molecular-weight-gas-vapor-d_1156.html (accessed 12-2-2022)</t>
-  </si>
-  <si>
     <t>ea</t>
   </si>
   <si>
@@ -364,6 +355,15 @@
   </si>
   <si>
     <t>HTHC_catalyst</t>
+  </si>
+  <si>
+    <t>Diesel_for_calc</t>
+  </si>
+  <si>
+    <t>market for natural gas, burned in gas motor, for storage</t>
+  </si>
+  <si>
+    <t>includle burning emission, 1 kg natural gas = 24.624 MJ (see Ecoinvent: market for natural gas liquids)</t>
   </si>
 </sst>
 </file>
@@ -404,12 +404,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,6 +441,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +792,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -818,13 +826,13 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -833,13 +841,13 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -848,7 +856,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -862,7 +870,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -876,7 +884,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -899,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -913,23 +921,23 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -989,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -997,24 +1005,24 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1028,47 +1036,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -1076,39 +1084,39 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>48</v>
@@ -1116,13 +1124,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>48</v>
@@ -1130,13 +1138,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
@@ -1144,13 +1152,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -1158,13 +1166,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
@@ -1172,13 +1180,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
@@ -1186,7 +1194,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1203,13 +1211,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>33</v>
@@ -1217,13 +1225,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -1231,13 +1239,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -1245,13 +1253,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>48</v>
@@ -1262,30 +1270,30 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -1293,27 +1301,27 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>48</v>
@@ -1321,19 +1329,19 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1349,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1440,7 +1448,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -1465,7 +1473,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -1490,7 +1498,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
@@ -1515,7 +1523,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
@@ -1540,7 +1548,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -1741,7 +1749,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -1767,7 +1775,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1792,21 +1800,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2">
-        <v>4.8979000000000004E-4</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>3.50916624E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>4.4081100000000005E-4</v>
+        <v>3.1582496160000002E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>5.3876900000000014E-4</v>
+        <v>3.8600828640000004E-4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -1817,7 +1826,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1842,21 +1851,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>1.1096000000000001E-3</v>
+        <v>-1.1096000000000001E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>9.9864000000000007E-4</v>
+        <v>-9.9864000000000007E-4</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>1.2205600000000001E-3</v>
+        <v>-1.2205600000000001E-3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -1867,22 +1876,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>3.5171845258375174</v>
+        <v>3.5171796523975174</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>3.1654660732537656</v>
+        <v>3.1654616871577659</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>3.8689029784212696</v>
+        <v>3.8688976176372694</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -1893,22 +1902,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>2.0809293373641003E-2</v>
+        <v>2.0775408907641003E-2</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>1.8728364036276902E-2</v>
+        <v>1.8697868016876902E-2</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>2.2890222711005104E-2</v>
+        <v>2.2852949798405103E-2</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -1919,7 +1928,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -1944,7 +1953,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -1969,7 +1978,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1994,7 +2003,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -2019,7 +2028,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
@@ -2044,7 +2053,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -2069,7 +2078,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
@@ -2144,7 +2153,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
@@ -2169,7 +2178,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
@@ -2194,7 +2203,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>28</v>
@@ -2244,21 +2253,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="6">
-        <v>2.9870999999999999E-5</v>
+        <v>1.4251E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>2.6883899999999999E-5</v>
+        <v>1.28259E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>3.2858100000000003E-5</v>
+        <v>1.5676100000000001E-5</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -2269,7 +2278,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>28</v>
@@ -2294,7 +2303,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
@@ -2328,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2419,7 +2428,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2444,7 +2453,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -2469,7 +2478,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -2494,7 +2503,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -2519,7 +2528,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -2720,7 +2729,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -2746,7 +2755,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -2771,21 +2780,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1032</v>
+        <f>C36*24.624</f>
+        <v>8.3822558399999997E-2</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>9.2880000000000004E-2</v>
+        <v>7.5440302560000005E-2</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0.11352000000000001</v>
+        <v>9.2204814240000002E-2</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -2796,7 +2806,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -2821,21 +2831,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.25163999999999997</v>
+        <v>-0.25163999999999997</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20" si="8">C20*0.9</f>
-        <v>0.22647599999999998</v>
+        <v>-0.22647599999999998</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20" si="9">C20*1.1</f>
-        <v>0.27680399999999999</v>
+        <v>-0.27680399999999999</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -2846,22 +2856,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>991.65441961282067</v>
+        <v>991.65279880402068</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>892.48897765153868</v>
+        <v>892.48751892361861</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1090.8198615741028</v>
+        <v>1090.8180786844227</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -2872,22 +2882,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>4.0564012825520006</v>
+        <v>4.0451319859820005</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>3.6507611542968008</v>
+        <v>3.6406187873838007</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>4.4620414108072008</v>
+        <v>4.4496451845802012</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -2898,7 +2908,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -2923,7 +2933,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -2948,7 +2958,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -2973,7 +2983,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -2998,7 +3008,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -3023,7 +3033,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -3048,7 +3058,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -3073,7 +3083,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -3098,7 +3108,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -3123,7 +3133,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -3148,7 +3158,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3173,7 +3183,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -3198,7 +3208,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -3223,21 +3233,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>8.5990000000000007E-3</v>
+        <v>3.4041000000000002E-3</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>7.7391000000000005E-3</v>
+        <v>3.0636900000000004E-3</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="12"/>
-        <v>9.458900000000001E-3</v>
+        <v>3.7445100000000004E-3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -3248,7 +3258,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -3273,7 +3283,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -3306,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3343,7 +3353,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -3395,7 +3405,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -3420,7 +3430,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -3470,7 +3480,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -3495,7 +3505,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -3696,7 +3706,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -3722,7 +3732,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -3747,21 +3757,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1071</v>
+        <f>C36*24.624</f>
+        <v>6.3446198400000001E-2</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>9.6390000000000003E-2</v>
+        <v>5.7101578560000005E-2</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>0.11781000000000001</v>
+        <v>6.979081824000001E-2</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -3772,7 +3783,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -3797,21 +3808,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>0.18748000000000001</v>
+        <v>-0.18748000000000001</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20" si="6">C20*0.9</f>
-        <v>0.16873200000000002</v>
+        <v>-0.16873200000000002</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20" si="7">C20*1.1</f>
-        <v>0.20622800000000002</v>
+        <v>-0.20622800000000002</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -3822,22 +3833,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>15371.082923819398</v>
+        <v>15371.081540660998</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>13833.974631437459</v>
+        <v>13833.973386594898</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>16908.19121620134</v>
+        <v>16908.189694727098</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -3848,22 +3859,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>50.269262735110004</v>
+        <v>50.259645794350007</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>45.242336461599002</v>
+        <v>45.233681214915009</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>55.296189008621006</v>
+        <v>55.285610373785012</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -3874,7 +3885,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -3899,7 +3910,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -3924,7 +3935,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -3949,7 +3960,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
@@ -3974,7 +3985,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -3999,7 +4010,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
@@ -4024,7 +4035,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -4049,7 +4060,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -4074,7 +4085,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -4099,7 +4110,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
@@ -4124,7 +4135,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
@@ -4149,7 +4160,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -4174,7 +4185,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
@@ -4199,21 +4210,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>7.0098000000000001E-3</v>
+        <v>2.5766000000000001E-3</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>6.3088200000000006E-3</v>
+        <v>2.3189400000000002E-3</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>7.7107800000000004E-3</v>
+        <v>2.8342600000000003E-3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -4224,7 +4235,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -4249,7 +4260,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
@@ -4283,7 +4294,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4320,7 +4331,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4372,7 +4383,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4397,7 +4408,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4422,7 +4433,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4447,7 +4458,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4472,7 +4483,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4673,7 +4684,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4699,7 +4710,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4724,21 +4735,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="6">
-        <v>7.8700000000000002E-5</v>
+        <f>C36*24.624</f>
+        <v>7.2539841599999995E-5</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>7.0829999999999998E-5</v>
+        <v>6.5285857439999992E-5</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>8.6570000000000006E-5</v>
+        <v>7.9793825759999997E-5</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -4749,7 +4761,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4774,21 +4786,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0547E-3</v>
+        <v>-1.0547E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>9.4923000000000002E-4</v>
+        <v>-9.4923000000000002E-4</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>1.1601700000000001E-3</v>
+        <v>-1.1601700000000001E-3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -4799,22 +4811,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>0.45019348021710359</v>
+        <v>0.45019206857310357</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>0.40517413219539322</v>
+        <v>0.4051728617157932</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>0.49521282823881402</v>
+        <v>0.49521127543041399</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -4825,22 +4837,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>5.7592737821191998E-3</v>
+        <v>5.7494587842691998E-3</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>5.1833464039072802E-3</v>
+        <v>5.1745129058422797E-3</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>6.3352011603311203E-3</v>
+        <v>6.3244046626961198E-3</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -4851,7 +4863,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -4876,7 +4888,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4901,7 +4913,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4926,7 +4938,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -4951,7 +4963,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -4976,7 +4988,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -5001,7 +5013,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -5026,7 +5038,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -5051,7 +5063,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -5076,7 +5088,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -5101,7 +5113,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -5126,7 +5138,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -5151,7 +5163,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -5176,21 +5188,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6">
-        <v>7.4703999999999997E-6</v>
+        <v>2.9459E-6</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>6.7233599999999996E-6</v>
+        <v>2.6513100000000002E-6</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>8.2174399999999997E-6</v>
+        <v>3.2404900000000003E-6</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -5201,7 +5213,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -5226,7 +5238,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -5257,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5271,7 +5283,7 @@
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5294,9 +5306,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -5319,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -5345,9 +5357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -5370,9 +5382,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -5395,9 +5407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -5420,9 +5432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5445,9 +5457,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -5470,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -5495,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -5521,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -5546,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -5645,10 +5657,14 @@
       <c r="G15" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f>1/19*44</f>
+        <v>2.3157894736842106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -5674,7 +5690,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -5699,22 +5715,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <f>0.43913+1/19*44</f>
-        <v>2.7549194736842106</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>1.584234288</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>2.4794275263157894</v>
+        <v>1.4258108592000001</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>3.0304114210526318</v>
+        <v>1.7426577168000001</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -5725,7 +5741,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -5750,21 +5766,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>0.47693999999999998</v>
+        <v>-0.47693999999999998</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>0.42924599999999996</v>
+        <v>-0.42924599999999996</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>0.52463400000000004</v>
+        <v>-0.52463400000000004</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -5775,22 +5791,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>484.7862509286262</v>
+        <v>484.7595334326262</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>436.30762583576359</v>
+        <v>436.28358008936357</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>533.26487602148882</v>
+        <v>533.23548677588883</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -5801,22 +5817,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>6.3758782313560003</v>
+        <v>6.1901145644560005</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>5.7382904082204007</v>
+        <v>5.5711031080104005</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>7.0134660544916008</v>
+        <v>6.8091260209016014</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -5827,7 +5843,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -5852,7 +5868,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -5877,7 +5893,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -5902,7 +5918,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -5927,7 +5943,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -5952,7 +5968,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -5977,7 +5993,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -6002,7 +6018,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -6027,7 +6043,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -6052,7 +6068,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -6077,7 +6093,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -6102,7 +6118,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -6127,7 +6143,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -6152,21 +6168,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>0.14996999999999999</v>
+        <v>6.4337000000000005E-2</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
-        <v>0.13497300000000001</v>
+        <v>5.7903300000000005E-2</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="9"/>
-        <v>0.164967</v>
+        <v>7.0770700000000006E-2</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -6177,7 +6193,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -6202,7 +6218,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -6236,7 +6252,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6273,7 +6289,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -6325,7 +6341,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -6350,7 +6366,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -6375,7 +6391,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -6400,7 +6416,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -6425,7 +6441,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -6626,7 +6642,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -6652,7 +6668,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -6677,21 +6693,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
-        <v>2.1717999999999999E-7</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>1.2338347679999998E-7</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>1.9546200000000001E-7</v>
+        <v>1.1104512911999998E-7</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>2.38898E-7</v>
+        <v>1.3572182447999999E-7</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -6702,7 +6719,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
@@ -6727,21 +6744,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6">
-        <v>6.4204E-7</v>
+        <v>-6.4204E-7</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20" si="10">C20*0.9</f>
-        <v>5.7783600000000004E-7</v>
+        <v>-5.7783600000000004E-7</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20" si="11">C20*1.1</f>
-        <v>7.0624400000000006E-7</v>
+        <v>-7.0624400000000006E-7</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -6752,22 +6769,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>2.2343652004299671E-5</v>
+        <v>2.2341083526699671E-5</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>2.0109286803869706E-5</v>
+        <v>2.0106975174029706E-5</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>2.4578017204729639E-5</v>
+        <v>2.457519187936964E-5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -6778,22 +6795,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>1.3924763763789999E-6</v>
+        <v>1.374618047989E-6</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>1.2532287387411E-6</v>
+        <v>1.2371562431901E-6</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>1.5317240140169E-6</v>
+        <v>1.5120798527879002E-6</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -6804,7 +6821,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -6829,7 +6846,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -6854,7 +6871,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -6879,7 +6896,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -6904,7 +6921,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -6929,7 +6946,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -6954,7 +6971,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -6979,7 +6996,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -7004,7 +7021,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -7029,7 +7046,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -7054,7 +7071,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -7079,7 +7096,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
@@ -7104,7 +7121,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -7129,21 +7146,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="6">
-        <v>1.3243E-8</v>
+        <v>5.0106999999999997E-9</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="12"/>
-        <v>1.1918699999999999E-8</v>
+        <v>4.5096299999999999E-9</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="13"/>
-        <v>1.45673E-8</v>
+        <v>5.5117700000000003E-9</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -7154,7 +7171,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -7179,7 +7196,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
@@ -7212,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7250,7 +7267,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -7302,7 +7319,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -7327,7 +7344,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -7352,7 +7369,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -7377,7 +7394,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -7402,7 +7419,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -7603,7 +7620,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -7629,7 +7646,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -7654,21 +7671,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
-        <v>9.2588000000000002E-4</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>9.7373145599999994E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>8.3329200000000002E-4</v>
+        <v>8.7635831040000002E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>1.018468E-3</v>
+        <v>1.0711046016000001E-3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -7679,7 +7697,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -7704,21 +7722,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>1.9456E-3</v>
+        <v>-1.9456E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>1.7510400000000001E-3</v>
+        <v>-1.7510400000000001E-3</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>2.1401600000000003E-3</v>
+        <v>-2.1401600000000003E-3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -7729,22 +7747,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>6.7354050717807477</v>
+        <v>6.7353796512687483</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>6.061864564602673</v>
+        <v>6.0618416861418734</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>7.4089455789588232</v>
+        <v>7.4089176163956241</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -7755,22 +7773,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>2.9648759230633998E-2</v>
+        <v>2.9472013343833998E-2</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>2.6683883307570599E-2</v>
+        <v>2.6524812009450598E-2</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>3.2613635153697404E-2</v>
+        <v>3.2419214678217401E-2</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -7781,7 +7799,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -7806,7 +7824,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
@@ -7831,7 +7849,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -7856,7 +7874,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -7881,7 +7899,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -7906,7 +7924,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
@@ -7931,7 +7949,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -7956,7 +7974,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
@@ -7981,7 +7999,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -8006,7 +8024,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>25</v>
@@ -8031,7 +8049,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -8056,7 +8074,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
@@ -8081,7 +8099,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
@@ -8106,21 +8124,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2">
-        <v>1.2102E-4</v>
+      <c r="C36" s="6">
+        <v>3.9544E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>1.08918E-4</v>
+        <v>3.5589600000000002E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>1.33122E-4</v>
+        <v>4.3498400000000004E-5</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -8131,7 +8149,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -8156,7 +8174,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
@@ -8190,7 +8208,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8226,7 +8244,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -8278,7 +8296,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -8303,7 +8321,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -8328,7 +8346,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -8353,7 +8371,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -8378,7 +8396,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -8579,7 +8597,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -8605,7 +8623,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -8630,21 +8648,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
-        <v>8.8329000000000001E-4</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>6.6642393600000003E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>7.9496100000000006E-4</v>
+        <v>5.9978154239999999E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>9.7161900000000006E-4</v>
+        <v>7.3306632960000006E-4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -8655,7 +8674,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -8680,21 +8699,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>6.9251999999999996E-4</v>
+        <v>-6.9251999999999996E-4</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>6.2326799999999996E-4</v>
+        <v>-6.2326799999999996E-4</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>7.6177199999999997E-4</v>
+        <v>-7.6177199999999997E-4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -8705,22 +8724,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>1.6167931320938957</v>
+        <v>1.6167729144938956</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.4551138188845063</v>
+        <v>1.455095623044506</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.7784724453032854</v>
+        <v>1.7784502059432854</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -8731,22 +8750,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>0.28751694505445002</v>
+        <v>0.28737637441445002</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>0.25876525054900501</v>
+        <v>0.25863873697300505</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>0.31626863955989504</v>
+        <v>0.31611401185589505</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -8757,7 +8776,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -8782,7 +8801,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -8807,7 +8826,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -8832,7 +8851,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -8857,7 +8876,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -8882,7 +8901,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -8907,7 +8926,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
@@ -8932,7 +8951,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
@@ -8957,7 +8976,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
@@ -8982,7 +9001,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
@@ -9007,7 +9026,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>26</v>
@@ -9032,7 +9051,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
@@ -9057,7 +9076,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
@@ -9082,21 +9101,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="6">
-        <v>9.1864E-5</v>
+        <v>2.7064E-5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>8.2677599999999996E-5</v>
+        <v>2.4357600000000002E-5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>1.010504E-4</v>
+        <v>2.9770400000000002E-5</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -9107,7 +9126,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
@@ -9132,7 +9151,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>26</v>
@@ -9166,7 +9185,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9202,7 +9221,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -9254,7 +9273,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -9279,7 +9298,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -9304,7 +9323,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
@@ -9329,7 +9348,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -9354,7 +9373,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
@@ -9555,7 +9574,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -9581,7 +9600,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -9606,21 +9625,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2">
-        <v>4.3413000000000004</v>
+      <c r="C18" s="9">
+        <f>C36*24.624</f>
+        <v>3.6320399999999995</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>3.9071700000000003</v>
+        <v>3.2688359999999994</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>4.775430000000001</v>
+        <v>3.9952439999999996</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -9631,7 +9651,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -9656,21 +9676,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>2.9281000000000001</v>
+        <v>-2.9281000000000001</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>2.6352900000000004</v>
+        <v>-2.6352900000000004</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>3.2209100000000004</v>
+        <v>-3.2209100000000004</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
@@ -9681,22 +9701,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>27306.372319349357</v>
+        <v>27306.325609829357</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>24575.735087414421</v>
+        <v>24575.69304884642</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>30037.009551284296</v>
+        <v>30036.958170812293</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
@@ -9707,22 +9727,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>369.79168803089993</v>
+        <v>369.46692212789992</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>332.81251922780996</v>
+        <v>332.52022991510995</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>406.77085683398997</v>
+        <v>406.41361434068995</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
@@ -9733,7 +9753,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
@@ -9758,7 +9778,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -9783,7 +9803,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -9808,7 +9828,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
@@ -9833,7 +9853,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -9858,7 +9878,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -9883,7 +9903,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -9908,7 +9928,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
@@ -9933,7 +9953,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
@@ -9958,7 +9978,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
@@ -9983,7 +10003,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>27</v>
@@ -10008,7 +10028,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
@@ -10033,7 +10053,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>27</v>
@@ -10058,21 +10078,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="2">
-        <v>0.29720999999999997</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>0.26748899999999998</v>
+        <v>0.13275000000000001</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="11"/>
-        <v>0.32693099999999997</v>
+        <v>0.16225000000000001</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>1</v>
@@ -10083,7 +10103,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>27</v>
@@ -10108,7 +10128,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>27</v>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FA609-58FA-3947-A20F-6F7B7606D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B50152-10B7-254B-B784-312D689FF9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="4660" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="11240" yWindow="4660" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -404,18 +404,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -430,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,11 +432,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,17 +923,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1089,11 +1082,11 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1102,11 +1095,11 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1805,7 +1798,7 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>3.50916624E-4</v>
       </c>
@@ -3317,7 +3310,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5269,10 +5262,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5283,7 +5276,7 @@
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5306,7 +5299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -5331,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -5382,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
@@ -5407,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
@@ -5432,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5457,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -5482,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -5507,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -5558,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -5583,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -5633,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -5657,12 +5650,8 @@
       <c r="G15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K15">
-        <f>1/19*44</f>
-        <v>2.3157894736842106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -5720,7 +5709,7 @@
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>1.584234288</v>
       </c>
@@ -6698,7 +6687,7 @@
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>1.2338347679999998E-7</v>
       </c>
@@ -7676,7 +7665,7 @@
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>9.7373145599999994E-4</v>
       </c>
@@ -8653,7 +8642,7 @@
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>6.6642393600000003E-4</v>
       </c>
@@ -9630,7 +9619,7 @@
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f>C36*24.624</f>
         <v>3.6320399999999995</v>
       </c>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD CEE/coding/Cloned packages/EXPOsan/exposan/htl/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B50152-10B7-254B-B784-312D689FF9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AB7EC-3193-B546-914B-2126EABE5748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="4660" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="20220" yWindow="3160" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="RespiratoryEffects" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="25"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="109">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -364,6 +365,12 @@
   </si>
   <si>
     <t>includle burning emission, 1 kg natural gas = 24.624 MJ (see Ecoinvent: market for natural gas liquids)</t>
+  </si>
+  <si>
+    <t>market for naphtha</t>
+  </si>
+  <si>
+    <t>Napatha</t>
   </si>
 </sst>
 </file>
@@ -424,15 +431,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -750,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,11 +821,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -830,13 +834,12 @@
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -845,7 +848,6 @@
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -923,17 +925,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1082,11 +1084,11 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1095,11 +1097,11 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1335,6 +1337,20 @@
       </c>
       <c r="E38" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,10 +1422,10 @@
         <f t="shared" ref="E2:E15" si="1">C2*1.1</f>
         <v>2.9457343110642956E-3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1432,15 +1448,15 @@
         <f t="shared" si="1"/>
         <v>8.5052000000000012E-5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1457,15 +1473,15 @@
         <f t="shared" si="1"/>
         <v>3.1801000000000004</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1482,7 +1498,7 @@
         <f t="shared" ref="E5" si="3">C5*1.1</f>
         <v>52.043199999999999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1507,10 +1523,10 @@
         <f t="shared" si="1"/>
         <v>1.8536100000000003E-2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1548,7 @@
         <f t="shared" si="1"/>
         <v>3.5095500000000006E-3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1557,7 +1573,7 @@
         <f t="shared" ref="E8" si="4">C8*1.1</f>
         <v>3.5418900000000002E-3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1582,7 +1598,7 @@
         <f t="shared" si="1"/>
         <v>3.1655799999999999E-3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1596,7 +1612,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>0.001868/20+19/20*C24</f>
         <v>9.405486350000001E-5</v>
       </c>
@@ -1608,7 +1624,7 @@
         <f t="shared" si="1"/>
         <v>1.0346034985000002E-4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1633,7 +1649,7 @@
         <f t="shared" si="1"/>
         <v>4.8235000000000005E-3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1658,7 +1674,7 @@
         <f t="shared" si="1"/>
         <v>4.0367800000000002E-3</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1683,7 +1699,7 @@
         <f t="shared" si="1"/>
         <v>9.6305000000000002E-4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1708,7 +1724,7 @@
         <f t="shared" si="1"/>
         <v>2.69973E-3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1733,10 +1749,10 @@
         <f t="shared" si="1"/>
         <v>2.02257E-3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1775,7 @@
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
         <v>-6.7940399372478722E-4</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1784,7 +1800,7 @@
         <f t="shared" si="7"/>
         <v>-3.4446500000000005E-3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1798,7 +1814,7 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>3.50916624E-4</v>
       </c>
@@ -1810,7 +1826,7 @@
         <f>C18*1.1</f>
         <v>3.8600828640000004E-4</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1835,7 +1851,7 @@
         <f>C19*1.1</f>
         <v>1.4737800000000001E-3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1860,7 +1876,7 @@
         <f>C20*1.1</f>
         <v>-1.2205600000000001E-3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1886,7 +1902,7 @@
         <f>C21*1.1</f>
         <v>3.8688976176372694</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1912,7 +1928,7 @@
         <f>C22*1.1</f>
         <v>2.2852949798405103E-2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1937,7 +1953,7 @@
         <f t="shared" ref="E23:E38" si="9">C23*1.1</f>
         <v>3.0585500000000002E-3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1951,7 +1967,7 @@
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>6.8932999999999999E-7</v>
       </c>
       <c r="D24" s="2">
@@ -1962,7 +1978,7 @@
         <f t="shared" si="9"/>
         <v>7.5826300000000004E-7</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1987,7 +2003,7 @@
         <f t="shared" si="9"/>
         <v>4.941860000000001E-3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2012,7 +2028,7 @@
         <f t="shared" si="9"/>
         <v>6.5347700000000009E-2</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2037,7 +2053,7 @@
         <f t="shared" si="9"/>
         <v>0.10944780000000001</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2062,7 +2078,7 @@
         <f t="shared" si="9"/>
         <v>2.4799500000000003E-3</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2087,7 +2103,7 @@
         <f t="shared" si="9"/>
         <v>4.0367800000000002E-3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2112,7 +2128,7 @@
         <f t="shared" si="9"/>
         <v>1.2205600000000001E-3</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2137,7 +2153,7 @@
         <f t="shared" si="9"/>
         <v>5.3810900000000007E-3</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2162,7 +2178,7 @@
         <f t="shared" si="9"/>
         <v>656.78800000000012</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2187,7 +2203,7 @@
         <f t="shared" si="9"/>
         <v>2.10254E-3</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2212,7 +2228,7 @@
         <f t="shared" si="9"/>
         <v>9.3168900000000008E-4</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2226,7 +2242,7 @@
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>5.0587999999999997E-5</v>
       </c>
       <c r="D35" s="2">
@@ -2237,7 +2253,7 @@
         <f t="shared" si="9"/>
         <v>5.5646800000000004E-5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2251,7 +2267,7 @@
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>1.4251E-5</v>
       </c>
       <c r="D36" s="2">
@@ -2262,7 +2278,7 @@
         <f t="shared" si="9"/>
         <v>1.5676100000000001E-5</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2276,7 +2292,7 @@
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>9.5338000000000001E-5</v>
       </c>
       <c r="D37" s="2">
@@ -2287,7 +2303,7 @@
         <f t="shared" si="9"/>
         <v>1.0487180000000001E-4</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2312,10 +2328,35 @@
         <f t="shared" si="9"/>
         <v>1.4737800000000001E-3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.4609999999999996E-4</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="10">C39*0.9</f>
+        <v>8.5148999999999999E-4</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="11">C39*1.1</f>
+        <v>1.04071E-3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2328,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A8" zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2386,10 +2427,10 @@
         <f t="shared" ref="E2:E14" si="1">C2*1.1</f>
         <v>0.50242944536725687</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2412,15 +2453,15 @@
         <f t="shared" si="1"/>
         <v>2.145704E-2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2437,15 +2478,15 @@
         <f t="shared" si="1"/>
         <v>585.83800000000008</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2462,7 +2503,7 @@
         <f t="shared" ref="E5" si="3">C5*1.1</f>
         <v>9145.84</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2487,10 +2528,10 @@
         <f t="shared" si="1"/>
         <v>1.4276900000000001</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2512,7 +2553,7 @@
         <f t="shared" si="1"/>
         <v>0.445687</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2537,7 +2578,7 @@
         <f t="shared" ref="E8" si="5">C8*1.1</f>
         <v>0.45448700000000003</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2562,7 +2603,7 @@
         <f t="shared" si="1"/>
         <v>0.58886300000000003</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2588,7 +2629,7 @@
         <f t="shared" si="1"/>
         <v>2.16468142E-2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2613,7 +2654,7 @@
         <f t="shared" si="1"/>
         <v>0.84717600000000004</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2638,7 +2679,7 @@
         <f t="shared" si="1"/>
         <v>0.891154</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2663,7 +2704,7 @@
         <f t="shared" si="1"/>
         <v>0.13842400000000002</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2688,7 +2729,7 @@
         <f t="shared" si="1"/>
         <v>0.37021600000000005</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2713,10 +2754,10 @@
         <f>C15*1.1</f>
         <v>0.38150200000000006</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2739,10 +2780,10 @@
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
         <v>-0.13511255714926043</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2764,10 +2805,10 @@
         <f t="shared" si="7"/>
         <v>-0.80208699999999999</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +2831,7 @@
         <f>C18*1.1</f>
         <v>9.2204814240000002E-2</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2815,7 +2856,7 @@
         <f>C19*1.1</f>
         <v>0.17380000000000001</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2840,7 +2881,7 @@
         <f t="shared" ref="E20" si="9">C20*1.1</f>
         <v>-0.27680399999999999</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2866,7 +2907,7 @@
         <f>C21*1.1</f>
         <v>1090.8180786844227</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2892,7 +2933,7 @@
         <f>C22*1.1</f>
         <v>4.4496451845802012</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2917,7 +2958,7 @@
         <f t="shared" ref="E23:E34" si="11">C23*1.1</f>
         <v>0.65946100000000007</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2942,7 +2983,7 @@
         <f t="shared" si="11"/>
         <v>1.28436E-4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2967,7 +3008,7 @@
         <f t="shared" si="11"/>
         <v>0.95753900000000003</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2992,7 +3033,7 @@
         <f t="shared" si="11"/>
         <v>11.6919</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3017,7 +3058,7 @@
         <f t="shared" si="11"/>
         <v>21.763500000000001</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3042,7 +3083,7 @@
         <f t="shared" si="11"/>
         <v>0.52683400000000002</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3067,7 +3108,7 @@
         <f t="shared" si="11"/>
         <v>0.891154</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3092,7 +3133,7 @@
         <f t="shared" si="11"/>
         <v>0.27680399999999999</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3117,7 +3158,7 @@
         <f t="shared" si="11"/>
         <v>1.093774</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3142,7 +3183,7 @@
         <f t="shared" si="11"/>
         <v>185251.00000000003</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3167,7 +3208,7 @@
         <f t="shared" si="11"/>
         <v>0.26710200000000001</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3192,7 +3233,7 @@
         <f t="shared" si="11"/>
         <v>0.10837750000000002</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3217,7 +3258,7 @@
         <f t="shared" ref="E35:E37" si="12">C35*1.1</f>
         <v>9.0780800000000005E-3</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3242,7 +3283,7 @@
         <f t="shared" si="12"/>
         <v>3.7445100000000004E-3</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3267,7 +3308,7 @@
         <f t="shared" si="12"/>
         <v>2.2178200000000002E-2</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3292,10 +3333,35 @@
         <f>C38*1.1</f>
         <v>0.17380000000000001</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.21812999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <f>C39*0.9</f>
+        <v>-0.19631699999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <f>C39*1.1</f>
+        <v>-0.23994300000000002</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3307,10 +3373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3429,10 @@
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
         <v>2.7546303123607343</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3389,15 +3455,15 @@
         <f t="shared" si="1"/>
         <v>5.3719600000000006E-2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3414,15 +3480,15 @@
         <f t="shared" ref="E4:E17" si="3">C4*1.1</f>
         <v>4110.4800000000005</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3439,7 +3505,7 @@
         <f t="shared" ref="E5" si="5">C5*1.1</f>
         <v>63232.400000000009</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -3464,10 +3530,10 @@
         <f t="shared" si="3"/>
         <v>7.9239600000000001</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3489,7 +3555,7 @@
         <f t="shared" si="3"/>
         <v>2.2299200000000003</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3514,7 +3580,7 @@
         <f t="shared" si="3"/>
         <v>1.8992599999999999</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3539,7 +3605,7 @@
         <f t="shared" si="3"/>
         <v>0.99932799999999999</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -3565,7 +3631,7 @@
         <f t="shared" si="3"/>
         <v>7.6900279500000002E-2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -3590,7 +3656,7 @@
         <f t="shared" si="3"/>
         <v>1.0766580000000001</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -3615,7 +3681,7 @@
         <f t="shared" si="3"/>
         <v>0.47021700000000005</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -3640,7 +3706,7 @@
         <f t="shared" si="3"/>
         <v>3.0743900000000006</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -3665,7 +3731,7 @@
         <f t="shared" si="3"/>
         <v>0.84999200000000008</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3690,10 +3756,10 @@
         <f t="shared" si="3"/>
         <v>0.9933550000000001</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3716,10 +3782,10 @@
         <f t="shared" si="3"/>
         <v>-0.29656703585835947</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3741,10 +3807,10 @@
         <f t="shared" si="3"/>
         <v>-3.8220600000000005</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3767,7 +3833,7 @@
         <f>C18*1.1</f>
         <v>6.979081824000001E-2</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3792,7 +3858,7 @@
         <f>C19*1.1</f>
         <v>0.29330400000000001</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3817,7 +3883,7 @@
         <f t="shared" ref="E20" si="7">C20*1.1</f>
         <v>-0.20622800000000002</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3843,7 +3909,7 @@
         <f>C21*1.1</f>
         <v>16908.189694727098</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3869,7 +3935,7 @@
         <f>C22*1.1</f>
         <v>55.285610373785012</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3894,7 +3960,7 @@
         <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
         <v>1.8956300000000001</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3919,7 +3985,7 @@
         <f t="shared" si="9"/>
         <v>5.5166099999999999E-3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3944,7 +4010,7 @@
         <f t="shared" si="9"/>
         <v>2.7680400000000001</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3969,7 +4035,7 @@
         <f t="shared" si="9"/>
         <v>333.49800000000005</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3994,7 +4060,7 @@
         <f t="shared" si="9"/>
         <v>94.496600000000015</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4019,7 +4085,7 @@
         <f t="shared" si="9"/>
         <v>3.0835200000000004E-2</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -4044,7 +4110,7 @@
         <f t="shared" si="9"/>
         <v>0.47021700000000005</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -4069,7 +4135,7 @@
         <f t="shared" si="9"/>
         <v>0.20622800000000002</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -4094,7 +4160,7 @@
         <f t="shared" si="9"/>
         <v>3.3399300000000007</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -4119,7 +4185,7 @@
         <f t="shared" si="9"/>
         <v>2873640</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -4144,7 +4210,7 @@
         <f t="shared" si="9"/>
         <v>0.63273100000000004</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -4169,7 +4235,7 @@
         <f t="shared" si="9"/>
         <v>0.18491000000000002</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -4194,7 +4260,7 @@
         <f t="shared" si="9"/>
         <v>2.83371E-2</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -4219,7 +4285,7 @@
         <f t="shared" si="9"/>
         <v>2.8342600000000003E-3</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -4244,7 +4310,7 @@
         <f t="shared" si="9"/>
         <v>5.5790900000000004E-2</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -4269,10 +4335,35 @@
         <f>C38*1.1</f>
         <v>0.29330400000000001</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.15887000000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <f>C39*0.9</f>
+        <v>0.14298300000000003</v>
+      </c>
+      <c r="E39" s="2">
+        <f>C39*1.1</f>
+        <v>0.17475700000000002</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4284,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4341,10 +4432,10 @@
         <f t="shared" ref="E2:E5" si="1">C2*1.1</f>
         <v>5.1957452497670465E-4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4367,15 +4458,15 @@
         <f t="shared" si="1"/>
         <v>2.6544760000000004E-5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4392,15 +4483,15 @@
         <f t="shared" si="1"/>
         <v>0.29117000000000004</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4417,7 +4508,7 @@
         <f t="shared" si="1"/>
         <v>4.6984300000000001</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4442,10 +4533,10 @@
         <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
         <v>9.1539799999999999E-4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4467,7 +4558,7 @@
         <f t="shared" si="3"/>
         <v>6.6471900000000003E-4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4492,7 +4583,7 @@
         <f t="shared" ref="E8" si="5">C8*1.1</f>
         <v>5.3142100000000002E-4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4517,7 +4608,7 @@
         <f t="shared" si="3"/>
         <v>3.1154200000000003E-3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4531,7 +4622,7 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>0.000079544/20+19/20*C24</f>
         <v>4.0466411999999999E-6</v>
       </c>
@@ -4543,7 +4634,7 @@
         <f t="shared" si="3"/>
         <v>4.4513053199999999E-6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4568,7 +4659,7 @@
         <f t="shared" si="3"/>
         <v>4.3743699999999999E-4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -4593,7 +4684,7 @@
         <f t="shared" si="3"/>
         <v>3.2356500000000005E-3</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -4618,7 +4709,7 @@
         <f t="shared" si="3"/>
         <v>6.99677E-4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -4643,7 +4734,7 @@
         <f t="shared" si="3"/>
         <v>3.6198799999999999E-4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -4668,10 +4759,10 @@
         <f t="shared" si="3"/>
         <v>5.211910000000001E-3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4694,10 +4785,10 @@
         <f t="shared" ref="E16" si="7">C16*1.1</f>
         <v>-1.924470977140296E-4</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4719,10 +4810,10 @@
         <f t="shared" ref="E17" si="9">C17*1.1</f>
         <v>-2.7096300000000002E-3</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4733,7 +4824,7 @@
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <f>C36*24.624</f>
         <v>7.2539841599999995E-5</v>
       </c>
@@ -4745,7 +4836,7 @@
         <f>C18*1.1</f>
         <v>7.9793825759999997E-5</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -4759,7 +4850,7 @@
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>9.4215000000000005E-5</v>
       </c>
       <c r="D19" s="2">
@@ -4770,7 +4861,7 @@
         <f>C19*1.1</f>
         <v>1.0363650000000002E-4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -4795,7 +4886,7 @@
         <f>C20*1.1</f>
         <v>-1.1601700000000001E-3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -4821,7 +4912,7 @@
         <f>C21*1.1</f>
         <v>0.49521127543041399</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -4847,7 +4938,7 @@
         <f>C22*1.1</f>
         <v>6.3244046626961198E-3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -4865,14 +4956,14 @@
         <v>4.2278999999999998E-4</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
+        <f t="shared" ref="D23:D39" si="10">C23*0.9</f>
         <v>3.8051099999999999E-4</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
+        <f t="shared" ref="E23:E39" si="11">C23*1.1</f>
         <v>4.6506900000000003E-4</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -4886,7 +4977,7 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>7.3095999999999995E-8</v>
       </c>
       <c r="D24" s="2">
@@ -4897,7 +4988,7 @@
         <f t="shared" si="11"/>
         <v>8.0405600000000004E-8</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -4922,7 +5013,7 @@
         <f t="shared" si="11"/>
         <v>7.29355E-4</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -4947,7 +5038,7 @@
         <f t="shared" si="11"/>
         <v>8.6628300000000016E-3</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -4972,7 +5063,7 @@
         <f t="shared" si="11"/>
         <v>3.7845500000000004E-2</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4986,7 +5077,7 @@
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>4.1992E-5</v>
       </c>
       <c r="D28" s="2">
@@ -4997,7 +5088,7 @@
         <f t="shared" si="11"/>
         <v>4.6191200000000006E-5</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -5022,7 +5113,7 @@
         <f t="shared" si="11"/>
         <v>3.2356500000000005E-3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -5047,7 +5138,7 @@
         <f t="shared" si="11"/>
         <v>1.1601700000000001E-3</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -5072,7 +5163,7 @@
         <f t="shared" si="11"/>
         <v>4.6601500000000007E-4</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -5097,7 +5188,7 @@
         <f t="shared" si="11"/>
         <v>84.099400000000003</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -5122,7 +5213,7 @@
         <f t="shared" si="11"/>
         <v>2.5135000000000001E-4</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -5136,7 +5227,7 @@
       <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>6.1297999999999995E-5</v>
       </c>
       <c r="D34" s="2">
@@ -5147,7 +5238,7 @@
         <f t="shared" si="11"/>
         <v>6.7427800000000005E-5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -5161,7 +5252,7 @@
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>5.9869999999999996E-6</v>
       </c>
       <c r="D35" s="2">
@@ -5172,7 +5263,7 @@
         <f t="shared" si="11"/>
         <v>6.5857000000000003E-6</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -5186,7 +5277,7 @@
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>2.9459E-6</v>
       </c>
       <c r="D36" s="2">
@@ -5197,7 +5288,7 @@
         <f t="shared" si="11"/>
         <v>3.2404900000000003E-6</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -5211,7 +5302,7 @@
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>1.5750999999999999E-5</v>
       </c>
       <c r="D37" s="2">
@@ -5222,7 +5313,7 @@
         <f t="shared" si="11"/>
         <v>1.73261E-5</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -5236,7 +5327,7 @@
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>9.4215000000000005E-5</v>
       </c>
       <c r="D38" s="2">
@@ -5247,10 +5338,35 @@
         <f t="shared" si="11"/>
         <v>1.0363650000000002E-4</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.0594000000000001E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="12">C39*0.9</f>
+        <v>9.5346000000000005E-4</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="13">C39*1.1</f>
+        <v>1.1653400000000002E-3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5262,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5317,10 +5433,10 @@
         <f t="shared" ref="E2:E5" si="1">C2*1.1</f>
         <v>1.3860000000000001</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5343,15 +5459,15 @@
         <f t="shared" si="1"/>
         <v>0.12424280000000001</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5368,15 +5484,15 @@
         <f t="shared" si="1"/>
         <v>737.19799999999998</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5393,7 +5509,7 @@
         <f t="shared" si="1"/>
         <v>13794.000000000002</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5418,10 +5534,10 @@
         <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
         <v>5.3418200000000011</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +5559,7 @@
         <f t="shared" si="3"/>
         <v>2.2030800000000004</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5468,7 +5584,7 @@
         <f t="shared" ref="E8" si="5">C8*1.1</f>
         <v>2.3859000000000004</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5493,7 +5609,7 @@
         <f t="shared" si="3"/>
         <v>2.4929300000000003</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5519,7 +5635,7 @@
         <f t="shared" si="3"/>
         <v>9.0262326000000014E-3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5544,7 +5660,7 @@
         <f t="shared" si="3"/>
         <v>3.1656900000000001</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5569,7 +5685,7 @@
         <f t="shared" si="3"/>
         <v>1.7186400000000002</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -5594,7 +5710,7 @@
         <f t="shared" si="3"/>
         <v>1.2766600000000001</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -5619,7 +5735,7 @@
         <f t="shared" si="3"/>
         <v>1.3765400000000001</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5644,10 +5760,10 @@
         <f t="shared" si="3"/>
         <v>1.6775</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5670,10 +5786,10 @@
         <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
         <v>-0.46293516718960115</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5695,10 +5811,10 @@
         <f t="shared" si="7"/>
         <v>-1.3748900000000002</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5709,7 +5825,7 @@
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>1.584234288</v>
       </c>
@@ -5721,7 +5837,7 @@
         <f>C18*1.1</f>
         <v>1.7426577168000001</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -5746,7 +5862,7 @@
         <f>C19*1.1</f>
         <v>0.74632799999999999</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -5771,7 +5887,7 @@
         <f>C20*1.1</f>
         <v>-0.52463400000000004</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5797,7 +5913,7 @@
         <f>C21*1.1</f>
         <v>533.23548677588883</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -5823,7 +5939,7 @@
         <f>C22*1.1</f>
         <v>6.8091260209016014</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -5848,7 +5964,7 @@
         <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
         <v>1.75736</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -5873,7 +5989,7 @@
         <f t="shared" si="9"/>
         <v>3.3250800000000002E-4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -5898,7 +6014,7 @@
         <f t="shared" si="9"/>
         <v>1.46201</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -5923,7 +6039,7 @@
         <f t="shared" si="9"/>
         <v>8.7334500000000013</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -5948,7 +6064,7 @@
         <f t="shared" si="9"/>
         <v>34.158300000000004</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -5973,7 +6089,7 @@
         <f t="shared" si="9"/>
         <v>0.13655400000000001</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -5998,7 +6114,7 @@
         <f t="shared" si="9"/>
         <v>1.7186400000000002</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6023,7 +6139,7 @@
         <f t="shared" si="9"/>
         <v>0.52463400000000004</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6048,7 +6164,7 @@
         <f t="shared" si="9"/>
         <v>3.2997800000000002</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -6073,7 +6189,7 @@
         <f t="shared" si="9"/>
         <v>90082.3</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -6098,7 +6214,7 @@
         <f t="shared" si="9"/>
         <v>1.0358040000000002</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -6123,7 +6239,7 @@
         <f t="shared" si="9"/>
         <v>0.461758</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -6148,7 +6264,7 @@
         <f t="shared" si="9"/>
         <v>7.2636300000000001E-2</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -6173,7 +6289,7 @@
         <f t="shared" si="9"/>
         <v>7.0770700000000006E-2</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -6198,7 +6314,7 @@
         <f t="shared" si="9"/>
         <v>0.131406</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -6223,10 +6339,35 @@
         <f>C38*1.1</f>
         <v>0.74632799999999999</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.36864999999999998</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="10">C39*0.9</f>
+        <v>0.331785</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="11">C39*1.1</f>
+        <v>0.40551500000000001</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6238,10 +6379,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6295,10 +6436,10 @@
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
         <v>7.9002131021350716E-8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6309,7 +6450,7 @@
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <f>0.000015044/2500</f>
         <v>6.0176000000000004E-9</v>
       </c>
@@ -6321,21 +6462,21 @@
         <f t="shared" si="1"/>
         <v>6.619360000000001E-9</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>4.5494999999999997E-5</v>
       </c>
       <c r="D4" s="2">
@@ -6346,15 +6487,15 @@
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
         <v>5.0044499999999998E-5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6371,7 +6512,7 @@
         <f t="shared" ref="E5" si="5">C5*1.1</f>
         <v>8.5409500000000014E-4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -6385,7 +6526,7 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1.9641E-7</v>
       </c>
       <c r="D6" s="2">
@@ -6396,10 +6537,10 @@
         <f t="shared" si="3"/>
         <v>2.1605100000000001E-7</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6410,7 +6551,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>8.7602999999999994E-8</v>
       </c>
       <c r="D7" s="2">
@@ -6421,7 +6562,7 @@
         <f t="shared" si="3"/>
         <v>9.6363300000000004E-8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6435,7 +6576,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>1.0173E-7</v>
       </c>
       <c r="D8" s="2">
@@ -6446,7 +6587,7 @@
         <f t="shared" ref="E8" si="7">C8*1.1</f>
         <v>1.1190300000000001E-7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6460,7 +6601,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>2.5540999999999998E-7</v>
       </c>
       <c r="D9" s="2">
@@ -6471,7 +6612,7 @@
         <f t="shared" si="3"/>
         <v>2.8095100000000001E-7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -6485,7 +6626,7 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>0.000000014828/20+19/20*C24</f>
         <v>8.9441650000000002E-10</v>
       </c>
@@ -6497,7 +6638,7 @@
         <f t="shared" si="3"/>
         <v>9.8385815000000019E-10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -6511,7 +6652,7 @@
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>4.9409999999999997E-8</v>
       </c>
       <c r="D11" s="2">
@@ -6522,7 +6663,7 @@
         <f t="shared" si="3"/>
         <v>5.4351000000000001E-8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6536,7 +6677,7 @@
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>1.801E-6</v>
       </c>
       <c r="D12" s="2">
@@ -6547,7 +6688,7 @@
         <f t="shared" si="3"/>
         <v>1.9811E-6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6561,7 +6702,7 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>1.5364000000000001E-8</v>
       </c>
       <c r="D13" s="2">
@@ -6572,7 +6713,7 @@
         <f t="shared" si="3"/>
         <v>1.6900400000000004E-8</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -6586,7 +6727,7 @@
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>7.8932000000000003E-7</v>
       </c>
       <c r="D14" s="2">
@@ -6597,7 +6738,7 @@
         <f t="shared" si="3"/>
         <v>8.6825200000000006E-7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6611,7 +6752,7 @@
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>9.2182999999999999E-8</v>
       </c>
       <c r="D15" s="2">
@@ -6622,10 +6763,10 @@
         <f t="shared" si="3"/>
         <v>1.0140130000000001E-7</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6648,10 +6789,10 @@
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
         <v>-2.5250399775885256E-8</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6662,7 +6803,7 @@
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>-6.1237999999999996E-8</v>
       </c>
       <c r="D17" s="2">
@@ -6673,10 +6814,10 @@
         <f t="shared" si="9"/>
         <v>-6.7361800000000007E-8</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6687,7 +6828,7 @@
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>1.2338347679999998E-7</v>
       </c>
@@ -6699,7 +6840,7 @@
         <f>C18*1.1</f>
         <v>1.3572182447999999E-7</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -6713,7 +6854,7 @@
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>2.0158000000000001E-8</v>
       </c>
       <c r="D19" s="2">
@@ -6724,7 +6865,7 @@
         <f>C19*1.1</f>
         <v>2.2173800000000003E-8</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -6738,7 +6879,7 @@
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>-6.4204E-7</v>
       </c>
       <c r="D20" s="2">
@@ -6749,7 +6890,7 @@
         <f t="shared" ref="E20" si="11">C20*1.1</f>
         <v>-7.0624400000000006E-7</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -6775,7 +6916,7 @@
         <f>C21*1.1</f>
         <v>2.457519187936964E-5</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -6801,7 +6942,7 @@
         <f>C22*1.1</f>
         <v>1.5120798527879002E-6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -6815,7 +6956,7 @@
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>1.4991E-7</v>
       </c>
       <c r="D23" s="2">
@@ -6826,7 +6967,7 @@
         <f t="shared" ref="E23:E38" si="13">C23*1.1</f>
         <v>1.64901E-7</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -6840,7 +6981,7 @@
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>1.6106999999999999E-10</v>
       </c>
       <c r="D24" s="2">
@@ -6851,7 +6992,7 @@
         <f t="shared" si="13"/>
         <v>1.77177E-10</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -6865,7 +7006,7 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>1.4737999999999999E-7</v>
       </c>
       <c r="D25" s="2">
@@ -6876,7 +7017,7 @@
         <f t="shared" si="13"/>
         <v>1.62118E-7</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -6890,7 +7031,7 @@
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>3.0492000000000001E-7</v>
       </c>
       <c r="D26" s="2">
@@ -6901,7 +7042,7 @@
         <f t="shared" si="13"/>
         <v>3.3541200000000001E-7</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -6915,7 +7056,7 @@
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>3.7824E-6</v>
       </c>
       <c r="D27" s="2">
@@ -6926,7 +7067,7 @@
         <f t="shared" si="13"/>
         <v>4.1606400000000007E-6</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -6940,7 +7081,7 @@
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>1.5302E-8</v>
       </c>
       <c r="D28" s="2">
@@ -6951,7 +7092,7 @@
         <f t="shared" si="13"/>
         <v>1.6832200000000002E-8</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6965,7 +7106,7 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>1.801E-6</v>
       </c>
       <c r="D29" s="2">
@@ -6976,7 +7117,7 @@
         <f t="shared" si="13"/>
         <v>1.9811E-6</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6990,7 +7131,7 @@
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>6.4204E-7</v>
       </c>
       <c r="D30" s="2">
@@ -7001,7 +7142,7 @@
         <f t="shared" si="13"/>
         <v>7.0624400000000006E-7</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -7015,7 +7156,7 @@
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>8.8093999999999995E-8</v>
       </c>
       <c r="D31" s="2">
@@ -7026,7 +7167,7 @@
         <f t="shared" si="13"/>
         <v>9.6903399999999999E-8</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -7051,7 +7192,7 @@
         <f t="shared" si="13"/>
         <v>4.14986E-3</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -7065,7 +7206,7 @@
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>5.7080999999999996E-7</v>
       </c>
       <c r="D33" s="2">
@@ -7076,7 +7217,7 @@
         <f t="shared" si="13"/>
         <v>6.2789100000000002E-7</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -7090,7 +7231,7 @@
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1.092E-8</v>
       </c>
       <c r="D34" s="2">
@@ -7101,7 +7242,7 @@
         <f t="shared" si="13"/>
         <v>1.2012E-8</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -7115,7 +7256,7 @@
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>4.8915999999999999E-9</v>
       </c>
       <c r="D35" s="2">
@@ -7126,7 +7267,7 @@
         <f t="shared" si="13"/>
         <v>5.3807600000000008E-9</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -7140,7 +7281,7 @@
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>5.0106999999999997E-9</v>
       </c>
       <c r="D36" s="2">
@@ -7151,7 +7292,7 @@
         <f t="shared" si="13"/>
         <v>5.5117700000000003E-9</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -7165,7 +7306,7 @@
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>8.8386000000000005E-9</v>
       </c>
       <c r="D37" s="2">
@@ -7176,7 +7317,7 @@
         <f t="shared" si="13"/>
         <v>9.722460000000002E-9</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -7190,7 +7331,7 @@
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>2.0158000000000001E-8</v>
       </c>
       <c r="D38" s="2">
@@ -7201,10 +7342,35 @@
         <f t="shared" si="13"/>
         <v>2.2173800000000003E-8</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6.4977000000000003E-7</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="14">C39*0.9</f>
+        <v>5.8479300000000001E-7</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="15">C39*1.1</f>
+        <v>7.1474700000000004E-7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7216,10 +7382,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7273,10 +7439,10 @@
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
         <v>4.0399497629947734E-3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7299,15 +7465,15 @@
         <f t="shared" si="1"/>
         <v>3.4724800000000003E-4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7324,15 +7490,15 @@
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
         <v>2.7726600000000001</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7349,7 +7515,7 @@
         <f t="shared" ref="E5" si="5">C5*1.1</f>
         <v>47.842300000000009</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -7374,10 +7540,10 @@
         <f t="shared" si="3"/>
         <v>1.3404600000000003E-2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7399,7 +7565,7 @@
         <f t="shared" si="3"/>
         <v>5.3025500000000005E-3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -7424,7 +7590,7 @@
         <f t="shared" ref="E8" si="7">C8*1.1</f>
         <v>5.8356100000000006E-3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -7449,7 +7615,7 @@
         <f t="shared" si="3"/>
         <v>9.7974800000000008E-3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -7463,7 +7629,7 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>0.00099355/20+19/20*C24</f>
         <v>5.0386599E-5</v>
       </c>
@@ -7475,7 +7641,7 @@
         <f t="shared" si="3"/>
         <v>5.5425258900000002E-5</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -7500,7 +7666,7 @@
         <f t="shared" si="3"/>
         <v>7.9536600000000013E-3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -7525,7 +7691,7 @@
         <f t="shared" si="3"/>
         <v>5.7799499999999998E-3</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -7550,7 +7716,7 @@
         <f t="shared" si="3"/>
         <v>1.8850700000000002E-3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -7575,7 +7741,7 @@
         <f t="shared" si="3"/>
         <v>3.7368100000000006E-3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -7600,10 +7766,10 @@
         <f t="shared" si="3"/>
         <v>3.3018700000000002E-3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7626,7 +7792,7 @@
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
         <v>-1.1484954056476917E-3</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -7651,7 +7817,7 @@
         <f t="shared" si="9"/>
         <v>-4.8970900000000006E-3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -7665,7 +7831,7 @@
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>9.7373145599999994E-4</v>
       </c>
@@ -7677,7 +7843,7 @@
         <f>C18*1.1</f>
         <v>1.0711046016000001E-3</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -7702,7 +7868,7 @@
         <f>C19*1.1</f>
         <v>1.6867400000000002E-3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -7727,7 +7893,7 @@
         <f>C20*1.1</f>
         <v>-2.1401600000000003E-3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -7753,7 +7919,7 @@
         <f>C21*1.1</f>
         <v>7.4089176163956241</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -7779,7 +7945,7 @@
         <f>C22*1.1</f>
         <v>3.2419214678217401E-2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -7804,7 +7970,7 @@
         <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
         <v>5.5385000000000009E-3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -7818,7 +7984,7 @@
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>7.4641999999999998E-7</v>
       </c>
       <c r="D24" s="2">
@@ -7829,7 +7995,7 @@
         <f t="shared" si="11"/>
         <v>8.2106200000000008E-7</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -7854,7 +8020,7 @@
         <f t="shared" si="11"/>
         <v>4.7399000000000009E-3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -7879,7 +8045,7 @@
         <f t="shared" si="11"/>
         <v>0.124366</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -7904,7 +8070,7 @@
         <f t="shared" si="11"/>
         <v>8.9618100000000006E-2</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -7929,7 +8095,7 @@
         <f t="shared" si="11"/>
         <v>3.4514700000000002E-4</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -7954,7 +8120,7 @@
         <f t="shared" si="11"/>
         <v>5.7799499999999998E-3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -7979,7 +8145,7 @@
         <f t="shared" si="11"/>
         <v>2.1401600000000003E-3</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -8004,7 +8170,7 @@
         <f t="shared" si="11"/>
         <v>8.3801299999999995E-3</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -8029,7 +8195,7 @@
         <f t="shared" si="11"/>
         <v>1258.0700000000002</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -8054,7 +8220,7 @@
         <f t="shared" si="11"/>
         <v>2.5962199999999998E-3</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -8079,7 +8245,7 @@
         <f t="shared" si="11"/>
         <v>1.0959960000000001E-3</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -8093,7 +8259,7 @@
       <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>7.2872000000000003E-5</v>
       </c>
       <c r="D35" s="2">
@@ -8104,7 +8270,7 @@
         <f t="shared" si="11"/>
         <v>8.0159200000000003E-5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -8118,7 +8284,7 @@
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>3.9544E-5</v>
       </c>
       <c r="D36" s="2">
@@ -8129,7 +8295,7 @@
         <f t="shared" si="11"/>
         <v>4.3498400000000004E-5</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -8154,7 +8320,7 @@
         <f t="shared" si="11"/>
         <v>1.7771600000000002E-4</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -8179,10 +8345,35 @@
         <f t="shared" si="11"/>
         <v>1.6867400000000002E-3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.82E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="12">C39*0.9</f>
+        <v>1.6380000000000001E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="13">C39*1.1</f>
+        <v>2.0020000000000003E-3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8194,10 +8385,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8250,10 +8441,10 @@
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
         <v>4.9424996961471457E-2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8276,15 +8467,15 @@
         <f t="shared" si="1"/>
         <v>2.4205720000000004E-4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8301,15 +8492,15 @@
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
         <v>99.265100000000004</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8326,7 +8517,7 @@
         <f t="shared" ref="E5" si="5">C5*1.1</f>
         <v>1497.43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -8351,10 +8542,10 @@
         <f t="shared" si="3"/>
         <v>0.152394</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8376,7 +8567,7 @@
         <f t="shared" si="3"/>
         <v>1.17678E-2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -8401,7 +8592,7 @@
         <f t="shared" ref="E8" si="7">C8*1.1</f>
         <v>8.0436400000000012E-3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -8426,7 +8617,7 @@
         <f t="shared" si="3"/>
         <v>3.8270100000000008E-2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -8440,7 +8631,7 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>0.03472/20+19/20*C24</f>
         <v>1.7418828750000001E-3</v>
       </c>
@@ -8452,7 +8643,7 @@
         <f t="shared" si="3"/>
         <v>1.9160711625000003E-3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -8477,7 +8668,7 @@
         <f t="shared" si="3"/>
         <v>5.6031800000000001E-3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -8502,7 +8693,7 @@
         <f t="shared" si="3"/>
         <v>2.8901399999999998E-3</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -8527,7 +8718,7 @@
         <f t="shared" si="3"/>
         <v>2.0467699999999998E-2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -8552,7 +8743,7 @@
         <f t="shared" si="3"/>
         <v>7.704840000000001E-3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -8577,10 +8768,10 @@
         <f t="shared" si="3"/>
         <v>1.1031900000000001E-2</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8603,7 +8794,7 @@
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
         <v>-3.28131969072165E-3</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -8628,7 +8819,7 @@
         <f t="shared" si="9"/>
         <v>-4.0416199999999999E-2</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -8642,7 +8833,7 @@
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>6.6642393600000003E-4</v>
       </c>
@@ -8654,7 +8845,7 @@
         <f>C18*1.1</f>
         <v>7.3306632960000006E-4</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -8679,7 +8870,7 @@
         <f>C19*1.1</f>
         <v>1.2370599999999999E-3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -8704,7 +8895,7 @@
         <f>C20*1.1</f>
         <v>-7.6177199999999997E-4</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -8730,7 +8921,7 @@
         <f>C21*1.1</f>
         <v>1.7784502059432854</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -8756,7 +8947,7 @@
         <f>C22*1.1</f>
         <v>0.31611401185589505</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -8781,7 +8972,7 @@
         <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
         <v>1.2280400000000002E-2</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -8795,7 +8986,7 @@
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>6.1924999999999996E-6</v>
       </c>
       <c r="D24" s="2">
@@ -8806,7 +8997,7 @@
         <f t="shared" si="11"/>
         <v>6.8117500000000005E-6</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -8831,7 +9022,7 @@
         <f t="shared" si="11"/>
         <v>6.9273600000000005E-2</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -8856,7 +9047,7 @@
         <f t="shared" si="11"/>
         <v>0.11379500000000001</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -8881,7 +9072,7 @@
         <f t="shared" si="11"/>
         <v>3.4271600000000007</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -8906,7 +9097,7 @@
         <f t="shared" si="11"/>
         <v>1.6669400000000003E-4</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -8931,7 +9122,7 @@
         <f t="shared" si="11"/>
         <v>2.8901399999999998E-3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -8956,7 +9147,7 @@
         <f t="shared" si="11"/>
         <v>7.6177199999999997E-4</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -8981,7 +9172,7 @@
         <f t="shared" si="11"/>
         <v>9.120650000000001E-3</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -9006,7 +9197,7 @@
         <f t="shared" si="11"/>
         <v>300.83900000000006</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -9031,7 +9222,7 @@
         <f t="shared" si="11"/>
         <v>5.7019600000000007E-3</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -9056,7 +9247,7 @@
         <f t="shared" si="11"/>
         <v>7.7420199999999998E-4</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -9081,7 +9272,7 @@
         <f t="shared" si="11"/>
         <v>4.5994300000000004E-4</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -9095,7 +9286,7 @@
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>2.7064E-5</v>
       </c>
       <c r="D36" s="2">
@@ -9106,7 +9297,7 @@
         <f t="shared" si="11"/>
         <v>2.9770400000000002E-5</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -9131,7 +9322,7 @@
         <f t="shared" si="11"/>
         <v>1.3299000000000001E-4</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -9156,10 +9347,35 @@
         <f t="shared" si="11"/>
         <v>1.2370599999999999E-3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5.3932000000000003E-4</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="12">C39*0.9</f>
+        <v>4.8538800000000006E-4</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="13">C39*1.1</f>
+        <v>5.9325200000000006E-4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9171,10 +9387,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9227,10 +9443,10 @@
         <f t="shared" ref="E2:E3" si="1">C2*1.1</f>
         <v>54.540444840578537</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9253,15 +9469,15 @@
         <f t="shared" si="1"/>
         <v>1.406328</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9278,15 +9494,15 @@
         <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
         <v>87151.900000000009</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -9303,7 +9519,7 @@
         <f t="shared" ref="E5" si="5">C5*1.1</f>
         <v>1337380</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -9328,10 +9544,10 @@
         <f t="shared" si="3"/>
         <v>181.203</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9353,7 +9569,7 @@
         <f t="shared" si="3"/>
         <v>27.732099999999999</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -9378,7 +9594,7 @@
         <f t="shared" ref="E8" si="7">C8*1.1</f>
         <v>27.221700000000002</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -9403,7 +9619,7 @@
         <f t="shared" si="3"/>
         <v>34.980000000000004</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -9429,7 +9645,7 @@
         <f t="shared" si="3"/>
         <v>1.850615965</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -9454,7 +9670,7 @@
         <f t="shared" si="3"/>
         <v>9.5607600000000001</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -9479,7 +9695,7 @@
         <f t="shared" si="3"/>
         <v>9.4255700000000004</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -9504,7 +9720,7 @@
         <f t="shared" si="3"/>
         <v>507.69400000000007</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -9529,7 +9745,7 @@
         <f t="shared" si="3"/>
         <v>14.550800000000001</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -9554,10 +9770,10 @@
         <f t="shared" si="3"/>
         <v>16.335000000000001</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9580,7 +9796,7 @@
         <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
         <v>-4.9461868803227258</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -9605,7 +9821,7 @@
         <f t="shared" si="9"/>
         <v>-69.225200000000001</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -9619,7 +9835,7 @@
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>C36*24.624</f>
         <v>3.6320399999999995</v>
       </c>
@@ -9631,7 +9847,7 @@
         <f>C18*1.1</f>
         <v>3.9952439999999996</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -9656,7 +9872,7 @@
         <f>C19*1.1</f>
         <v>2.3401400000000003</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -9681,7 +9897,7 @@
         <f>C20*1.1</f>
         <v>-3.2209100000000004</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -9707,7 +9923,7 @@
         <f>C21*1.1</f>
         <v>30036.958170812293</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -9733,7 +9949,7 @@
         <f>C22*1.1</f>
         <v>406.41361434068995</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -9758,7 +9974,7 @@
         <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
         <v>15.804800000000002</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -9783,7 +9999,7 @@
         <f t="shared" si="11"/>
         <v>1.09747E-2</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -9808,7 +10024,7 @@
         <f t="shared" si="11"/>
         <v>67.622500000000002</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -9833,7 +10049,7 @@
         <f t="shared" si="11"/>
         <v>692.3180000000001</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -9858,7 +10074,7 @@
         <f t="shared" si="11"/>
         <v>3483.92</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -9883,7 +10099,7 @@
         <f t="shared" si="11"/>
         <v>1.3762100000000002</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -9908,7 +10124,7 @@
         <f t="shared" si="11"/>
         <v>9.4255700000000004</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -9933,7 +10149,7 @@
         <f t="shared" si="11"/>
         <v>3.2209100000000004</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -9958,7 +10174,7 @@
         <f t="shared" si="11"/>
         <v>19.179600000000001</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -9983,7 +10199,7 @@
         <f t="shared" si="11"/>
         <v>5102790</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -10008,7 +10224,7 @@
         <f t="shared" si="11"/>
         <v>9.2582600000000017</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -10033,7 +10249,7 @@
         <f t="shared" si="11"/>
         <v>1.6073200000000001</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -10058,7 +10274,7 @@
         <f t="shared" si="11"/>
         <v>0.50837600000000005</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -10083,7 +10299,7 @@
         <f t="shared" si="11"/>
         <v>0.16225000000000001</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -10108,7 +10324,7 @@
         <f t="shared" si="11"/>
         <v>0.33654500000000004</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -10133,10 +10349,35 @@
         <f t="shared" si="11"/>
         <v>2.3401400000000003</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.2524000000000002</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="12">C39*0.9</f>
+        <v>2.0271600000000003</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="13">C39*1.1</f>
+        <v>2.4776400000000005</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AB7EC-3193-B546-914B-2126EABE5748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F0A10-2DD1-8240-AC06-808B31836331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="3160" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="51200" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <sheet name="NonCarcinogenics" sheetId="9" r:id="rId9"/>
     <sheet name="RespiratoryEffects" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="25"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="114">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -371,6 +370,21 @@
   </si>
   <si>
     <t>Napatha</t>
+  </si>
+  <si>
+    <t>ton*km</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>market for petroleum</t>
   </si>
 </sst>
 </file>
@@ -754,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,6 +1367,34 @@
         <v>48</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C21:E21"/>
@@ -1364,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:G39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2360,6 +2402,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.2075999999999999E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="12">C40*0.9</f>
+        <v>1.98684E-4</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="13">C40*1.1</f>
+        <v>2.4283600000000002E-4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6.8605999999999995E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="14">C41*0.9</f>
+        <v>6.1745399999999992E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="15">C41*1.1</f>
+        <v>7.5466599999999997E-4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="106" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3365,6 +3457,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.12698000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <f>C40*0.9</f>
+        <v>0.11428200000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <f>C40*1.1</f>
+        <v>0.13967800000000002</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <f>C41*0.9</f>
+        <v>0.14553000000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <f>C41*1.1</f>
+        <v>0.17787000000000003</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3373,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4367,6 +4509,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.25445000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <f>C40*0.9</f>
+        <v>0.22900500000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <f>C40*1.1</f>
+        <v>0.27989500000000006</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.10666</v>
+      </c>
+      <c r="D41" s="2">
+        <f>C41*0.9</f>
+        <v>9.599400000000001E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <f>C41*1.1</f>
+        <v>0.11732600000000001</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4375,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,11 +5148,11 @@
         <v>4.2278999999999998E-4</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D39" si="10">C23*0.9</f>
+        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
         <v>3.8051099999999999E-4</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E39" si="11">C23*1.1</f>
+        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
         <v>4.6506900000000003E-4</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -5367,6 +5559,56 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.4900999999999998E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="14">C40*0.9</f>
+        <v>2.2410899999999998E-4</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="15">C40*1.1</f>
+        <v>2.73911E-4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.6885999999999999E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="16">C41*0.9</f>
+        <v>8.7197399999999997E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>1.065746E-3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5378,10 +5620,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6371,6 +6613,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.12917000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="12">C40*0.9</f>
+        <v>0.11625300000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="13">C40*1.1</f>
+        <v>0.14208700000000002</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="14">C41*0.9</f>
+        <v>0.200736</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="15">C41*1.1</f>
+        <v>0.24534400000000001</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6379,10 +6671,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7374,6 +7666,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.6986000000000001E-8</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="16">C40*0.9</f>
+        <v>1.5287400000000002E-8</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="17">C40*1.1</f>
+        <v>1.8684600000000003E-8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6.0605E-7</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="18">C41*0.9</f>
+        <v>5.4544499999999997E-7</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="19">C41*1.1</f>
+        <v>6.6665500000000004E-7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7382,10 +7724,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:G39"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8377,6 +8719,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.655E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="14">C40*0.9</f>
+        <v>1.4894999999999999E-3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="15">C40*1.1</f>
+        <v>1.8205000000000001E-3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.3914000000000001E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="16">C41*0.9</f>
+        <v>1.25226E-3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>1.5305400000000002E-3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8385,10 +8777,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:G39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9365,17 +9757,67 @@
         <v>5.3932000000000003E-4</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="12">C39*0.9</f>
+        <f t="shared" ref="D39:D40" si="12">C39*0.9</f>
         <v>4.8538800000000006E-4</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="13">C39*1.1</f>
+        <f t="shared" ref="E39:E40" si="13">C39*1.1</f>
         <v>5.9325200000000006E-4</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4.6431E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="14">C40*0.9</f>
+        <v>4.1787900000000002E-4</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="15">C40*1.1</f>
+        <v>5.1074099999999999E-4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.0446999999999999E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="16">C41*0.9</f>
+        <v>2.7402299999999997E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>3.3491700000000001E-4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9387,10 +9829,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10381,6 +10823,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.9859</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="14">C40*0.9</f>
+        <v>1.78731</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="15">C40*1.1</f>
+        <v>2.1844900000000003</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.0441</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="16">C41*0.9</f>
+        <v>0.93969000000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>1.1485100000000001</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F0A10-2DD1-8240-AC06-808B31836331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4CA4-50CA-F74F-86ED-5E59081CF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="2400" yWindow="10240" windowWidth="50000" windowHeight="28300" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -5623,7 +5623,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9757,11 +9757,11 @@
         <v>5.3932000000000003E-4</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39:D40" si="12">C39*0.9</f>
+        <f t="shared" ref="D39" si="12">C39*0.9</f>
         <v>4.8538800000000006E-4</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39:E40" si="13">C39*1.1</f>
+        <f t="shared" ref="E39" si="13">C39*1.1</f>
         <v>5.9325200000000006E-4</v>
       </c>
       <c r="F39" s="2" t="s">

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684204E-D27D-304E-B661-E7969A74C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A34F2-BAB6-384B-B827-87B9507D1C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11600" yWindow="5200" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>market for steel, chromium steel 18/8</t>
   </si>
   <si>
-    <t>2500 kg/m2</t>
-  </si>
-  <si>
     <t>7850 kg/m3</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>1 kg natural gas/CH4 = 54.2100427046263 MJ (arbitrary value, natural gas: 42-55 MJ/kg [source: https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx], CH4: 55.5 MJ/kg [source: BioSTEAM], note by comparing CHP of different size, we can see the size does not have a relationship with LCIA)</t>
+  </si>
+  <si>
+    <t>2500 kg/m3</t>
   </si>
 </sst>
 </file>
@@ -510,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,19 +841,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -864,24 +864,24 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -931,19 +931,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -968,13 +968,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -1030,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -1044,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -1052,78 +1052,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -1131,81 +1131,81 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
@@ -1241,30 +1241,30 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>33</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -1300,47 +1300,47 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -1362,72 +1362,72 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>28</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>28</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>22</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>22</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>25</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>25</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -9442,7 +9442,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
@@ -9668,7 +9668,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>26</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>26</v>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>26</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>27</v>
@@ -10794,7 +10794,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
@@ -10819,7 +10819,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>27</v>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>27</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>27</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>27</v>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>27</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>
